--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76045AD0-2F34-45BC-B9C9-D43EC12ECCB6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489EE0F-4005-441B-87C4-51F60001754E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="548">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1633,6 +1633,42 @@
   </si>
   <si>
     <t>concatenation</t>
+  </si>
+  <si>
+    <t>permutation</t>
+  </si>
+  <si>
+    <t>rotated array</t>
+  </si>
+  <si>
+    <t>Sudoku</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>pythonic</t>
+  </si>
+  <si>
+    <t>target sum</t>
+  </si>
+  <si>
+    <t>water-container</t>
+  </si>
+  <si>
+    <t>before-after</t>
+  </si>
+  <si>
+    <t>string matching</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>jump game</t>
   </si>
 </sst>
 </file>
@@ -1958,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1971,7 +2007,7 @@
     <col min="5" max="5" width="9.90625" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2232,7 +2268,9 @@
       <c r="G11" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -2256,7 +2294,9 @@
       <c r="G12" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -2735,10 +2775,18 @@
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -2753,10 +2801,16 @@
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
@@ -2771,10 +2825,18 @@
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -2789,9 +2851,15 @@
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -2807,9 +2875,15 @@
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -2825,10 +2899,16 @@
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -2843,10 +2923,18 @@
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -2861,10 +2949,15 @@
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
@@ -2879,10 +2972,16 @@
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
@@ -2897,10 +2996,16 @@
       <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
@@ -2915,10 +3020,16 @@
       <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
@@ -2933,10 +3044,18 @@
       <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -2951,10 +3070,14 @@
       <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -2969,10 +3092,18 @@
       <c r="D45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -2987,10 +3118,16 @@
       <c r="D46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4489EE0F-4005-441B-87C4-51F60001754E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BB94E-D8B6-44D0-848A-D36C7501806B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="555">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1644,9 +1644,6 @@
     <t>Sudoku</t>
   </si>
   <si>
-    <t>board</t>
-  </si>
-  <si>
     <t>DFS</t>
   </si>
   <si>
@@ -1669,6 +1666,30 @@
   </si>
   <si>
     <t>jump game</t>
+  </si>
+  <si>
+    <t>2D array</t>
+  </si>
+  <si>
+    <t>anagram</t>
+  </si>
+  <si>
+    <t>binary representation</t>
+  </si>
+  <si>
+    <t>n-queens</t>
+  </si>
+  <si>
+    <t>subarray</t>
+  </si>
+  <si>
+    <t>intervals</t>
+  </si>
+  <si>
+    <t>num path</t>
+  </si>
+  <si>
+    <t>permutation, math</t>
   </si>
 </sst>
 </file>
@@ -1994,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2007,7 +2028,7 @@
     <col min="5" max="5" width="9.90625" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2176,7 +2197,9 @@
         <v>510</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
@@ -2269,7 +2292,7 @@
         <v>513</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2295,7 +2318,7 @@
         <v>525</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2903,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
@@ -2927,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>538</v>
@@ -2956,7 +2979,7 @@
         <v>510</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -2977,10 +3000,10 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3001,10 +3024,10 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -3051,10 +3074,10 @@
         <v>516</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -3102,7 +3125,7 @@
         <v>513</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -3123,10 +3146,10 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -3142,10 +3165,16 @@
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -3160,10 +3189,16 @@
       <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
@@ -3178,8 +3213,12 @@
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -3196,10 +3235,16 @@
       <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
@@ -3214,10 +3259,16 @@
       <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -3232,10 +3283,18 @@
       <c r="D52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -3250,10 +3309,18 @@
       <c r="D53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -3268,10 +3335,18 @@
       <c r="D54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -3286,10 +3361,16 @@
       <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -3304,10 +3385,16 @@
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
@@ -3322,10 +3409,16 @@
       <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
@@ -3340,10 +3433,16 @@
       <c r="D58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -3358,10 +3457,16 @@
       <c r="D59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
@@ -3376,10 +3481,16 @@
       <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -3394,10 +3505,14 @@
       <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82BB94E-D8B6-44D0-848A-D36C7501806B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BEE0C7-CF85-4FB2-B792-24FB0619AB67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="564">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1605,9 +1605,6 @@
     <t>greedy, two pointers</t>
   </si>
   <si>
-    <t>sliding window, two pointers</t>
-  </si>
-  <si>
     <t>n-sum</t>
   </si>
   <si>
@@ -1689,7 +1686,37 @@
     <t>num path</t>
   </si>
   <si>
-    <t>permutation, math</t>
+    <t>math, path</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>if-else</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>Newton's root finding</t>
+  </si>
+  <si>
+    <t>permutation\combination</t>
+  </si>
+  <si>
+    <t>permutation\combination, math</t>
+  </si>
+  <si>
+    <t>largest rectangle</t>
+  </si>
+  <si>
+    <t>2D array, stack</t>
+  </si>
+  <si>
+    <t>divide and conquer</t>
+  </si>
+  <si>
+    <t>in-place, merging lists</t>
   </si>
 </sst>
 </file>
@@ -2015,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2028,7 +2055,7 @@
     <col min="5" max="5" width="9.90625" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -2077,7 +2104,9 @@
         <v>508</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -2099,7 +2128,9 @@
         <v>507</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2121,9 +2152,11 @@
         <v>520</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>524</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -2148,7 +2181,7 @@
         <v>512</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2198,7 +2231,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2292,7 +2325,7 @@
         <v>513</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2318,7 +2351,7 @@
         <v>525</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2416,7 +2449,7 @@
         <v>524</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -2442,7 +2475,7 @@
         <v>524</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2462,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2490,7 +2523,7 @@
         <v>524</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -2534,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
@@ -2562,7 +2595,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -2583,7 +2616,7 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>523</v>
@@ -2606,11 +2639,11 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -2630,11 +2663,11 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2654,11 +2687,11 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2684,7 +2717,7 @@
         <v>524</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2710,7 +2743,7 @@
         <v>524</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2756,7 +2789,7 @@
         <v>512</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2782,7 +2815,7 @@
         <v>511</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2808,7 +2841,7 @@
         <v>521</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2828,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
@@ -2858,7 +2891,7 @@
         <v>512</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2926,11 +2959,11 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -2950,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -2979,7 +3012,7 @@
         <v>510</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -3000,10 +3033,10 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3024,10 +3057,10 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -3051,7 +3084,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -3074,10 +3107,10 @@
         <v>516</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -3099,7 +3132,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -3125,7 +3158,7 @@
         <v>513</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -3146,10 +3179,10 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -3170,10 +3203,10 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -3194,10 +3227,10 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -3217,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3243,7 +3276,7 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3264,10 +3297,10 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>514</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3287,13 +3320,13 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3313,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -3342,10 +3375,10 @@
         <v>516</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -3365,11 +3398,11 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -3390,10 +3423,10 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -3417,7 +3450,7 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -3441,7 +3474,7 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -3465,7 +3498,7 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -3485,11 +3518,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3511,7 +3544,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3527,8 +3560,12 @@
       <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -3545,10 +3582,16 @@
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -3563,10 +3606,18 @@
       <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -3581,10 +3632,18 @@
       <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -3599,10 +3658,14 @@
       <c r="D66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
@@ -3617,10 +3680,14 @@
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
@@ -3635,10 +3702,14 @@
       <c r="D68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
@@ -3653,8 +3724,12 @@
       <c r="D69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
@@ -3671,10 +3746,16 @@
       <c r="D70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -3689,10 +3770,16 @@
       <c r="D71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -3707,8 +3794,12 @@
       <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
@@ -3725,10 +3816,18 @@
       <c r="D73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -3743,10 +3842,16 @@
       <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
@@ -3761,9 +3866,15 @@
       <c r="D75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -3779,10 +3890,16 @@
       <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -3797,10 +3914,18 @@
       <c r="D77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -3815,10 +3940,16 @@
       <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -3833,10 +3964,16 @@
       <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -3851,10 +3988,18 @@
       <c r="D80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
@@ -3869,10 +4014,16 @@
       <c r="D81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -3887,10 +4038,18 @@
       <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
@@ -3905,9 +4064,15 @@
       <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
@@ -3923,9 +4088,15 @@
       <c r="D84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
@@ -3941,10 +4112,16 @@
       <c r="D85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
@@ -3959,10 +4136,16 @@
       <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -3977,9 +4160,15 @@
       <c r="D87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
@@ -3995,10 +4184,16 @@
       <c r="D88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="1"/>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -4013,10 +4208,18 @@
       <c r="D89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
@@ -4031,10 +4234,16 @@
       <c r="D90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
@@ -4049,10 +4258,16 @@
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BEE0C7-CF85-4FB2-B792-24FB0619AB67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5704E5A9-5D74-48CC-BD81-971E2D7B1E38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="576">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1717,6 +1717,42 @@
   </si>
   <si>
     <t>in-place, merging lists</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>binary tree</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>tree traversal</t>
+  </si>
+  <si>
+    <t>DFS + memorization</t>
+  </si>
+  <si>
+    <t>binary search tree</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>inorder traversal</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>path sum</t>
+  </si>
+  <si>
+    <t>binary tree, linked list</t>
+  </si>
+  <si>
+    <t>math, pythonic</t>
   </si>
 </sst>
 </file>
@@ -2042,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:H91"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,7 +2089,7 @@
     <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="5" max="5" width="9.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
     <col min="7" max="7" width="24.08984375" customWidth="1"/>
     <col min="8" max="8" width="28.81640625" customWidth="1"/>
   </cols>
@@ -3642,7 +3678,7 @@
         <v>513</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -4282,9 +4318,13 @@
       <c r="D92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
@@ -4300,10 +4340,18 @@
       <c r="D93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -4318,10 +4366,16 @@
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
@@ -4336,10 +4390,18 @@
       <c r="D95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
@@ -4354,10 +4416,18 @@
       <c r="D96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
@@ -4372,10 +4442,18 @@
       <c r="D97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4390,10 +4468,18 @@
       <c r="D98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
@@ -4408,10 +4494,18 @@
       <c r="D99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
@@ -4426,10 +4520,18 @@
       <c r="D100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
@@ -4444,9 +4546,15 @@
       <c r="D101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -4462,9 +4570,15 @@
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -4480,10 +4594,18 @@
       <c r="D103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -4498,10 +4620,18 @@
       <c r="D104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="E104" s="1">
+        <v>0</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -4516,9 +4646,15 @@
       <c r="D105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -4534,10 +4670,18 @@
       <c r="D106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -4552,10 +4696,18 @@
       <c r="D107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
@@ -4570,10 +4722,18 @@
       <c r="D108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
@@ -4588,10 +4748,18 @@
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="E109" s="1">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -4606,10 +4774,18 @@
       <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
@@ -4624,9 +4800,15 @@
       <c r="D111" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
@@ -4642,9 +4824,15 @@
       <c r="D112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -4660,10 +4848,18 @@
       <c r="D113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
@@ -4678,10 +4874,18 @@
       <c r="D114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
@@ -4696,10 +4900,18 @@
       <c r="D115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
@@ -4714,10 +4926,18 @@
       <c r="D116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
@@ -4732,9 +4952,15 @@
       <c r="D117" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
@@ -4750,9 +4976,15 @@
       <c r="D118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>572</v>
+      </c>
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
@@ -4768,10 +5000,14 @@
       <c r="D119" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+      <c r="H119" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -4786,10 +5022,14 @@
       <c r="D120" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
+      <c r="H120" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
@@ -4804,10 +5044,18 @@
       <c r="D121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5704E5A9-5D74-48CC-BD81-971E2D7B1E38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7063E5-C9C7-4DB9-AB01-5BF713BD2E8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="588">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1623,15 +1623,9 @@
     <t>linked list, stack</t>
   </si>
   <si>
-    <t>reverse lists</t>
-  </si>
-  <si>
     <t>in-place</t>
   </si>
   <si>
-    <t>concatenation</t>
-  </si>
-  <si>
     <t>permutation</t>
   </si>
   <si>
@@ -1753,6 +1747,48 @@
   </si>
   <si>
     <t>math, pythonic</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>floodfill</t>
+  </si>
+  <si>
+    <t>graph, hash table</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>deep copy</t>
+  </si>
+  <si>
+    <t>word concatenation\break</t>
+  </si>
+  <si>
+    <t>dynamic programming, DFS</t>
+  </si>
+  <si>
+    <t>cycle detection</t>
+  </si>
+  <si>
+    <t>linked list manipulation</t>
+  </si>
+  <si>
+    <t>binary tree, stack</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>queue</t>
   </si>
 </sst>
 </file>
@@ -2078,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD121"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2165,7 +2201,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -2267,7 +2303,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -2361,7 +2397,7 @@
         <v>513</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2387,7 +2423,7 @@
         <v>525</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -2584,7 +2620,9 @@
       <c r="G20" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -2703,7 +2741,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>532</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -2727,7 +2765,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>532</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -2753,7 +2791,7 @@
         <v>524</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -2779,7 +2817,7 @@
         <v>524</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -2825,7 +2863,7 @@
         <v>512</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -2851,7 +2889,7 @@
         <v>511</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>534</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -2877,7 +2915,7 @@
         <v>521</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -2927,7 +2965,7 @@
         <v>512</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -2995,11 +3033,11 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -3019,13 +3057,13 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -3048,7 +3086,7 @@
         <v>510</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -3069,10 +3107,10 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -3093,10 +3131,10 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -3120,7 +3158,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -3143,10 +3181,10 @@
         <v>516</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -3168,7 +3206,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -3194,7 +3232,7 @@
         <v>513</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -3215,10 +3253,10 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -3239,10 +3277,10 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -3263,10 +3301,10 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -3286,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3312,7 +3350,7 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -3333,10 +3371,10 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -3356,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -3382,13 +3420,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -3411,10 +3449,10 @@
         <v>516</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -3434,11 +3472,11 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -3459,10 +3497,10 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -3486,7 +3524,7 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -3510,7 +3548,7 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -3534,7 +3572,7 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -3554,11 +3592,11 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -3580,7 +3618,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -3603,7 +3641,9 @@
         <v>507</v>
       </c>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -3622,11 +3662,11 @@
         <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -3646,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>513</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -3672,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>513</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -3700,7 +3740,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -3722,7 +3762,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -3744,7 +3784,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
@@ -3787,10 +3827,10 @@
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -3862,7 +3902,7 @@
         <v>513</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -3882,11 +3922,11 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -3906,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>512</v>
@@ -3934,7 +3974,7 @@
         <v>524</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -3981,10 +4021,10 @@
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -4005,10 +4045,10 @@
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -4028,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -4058,7 +4098,7 @@
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -4084,7 +4124,7 @@
         <v>512</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
@@ -4109,7 +4149,9 @@
       <c r="G83" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -4133,7 +4175,9 @@
       <c r="G84" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
@@ -4156,7 +4200,7 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
@@ -4176,11 +4220,11 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -4205,7 +4249,9 @@
       <c r="G87" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -4225,10 +4271,10 @@
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
@@ -4254,7 +4300,7 @@
         <v>524</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
@@ -4299,10 +4345,10 @@
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
@@ -4350,7 +4396,7 @@
         <v>524</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>532</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
@@ -4371,10 +4417,10 @@
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
@@ -4394,13 +4440,13 @@
         <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
@@ -4420,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -4446,13 +4492,13 @@
         <v>0</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>513</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -4478,7 +4524,7 @@
         <v>513</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
@@ -4498,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
@@ -4524,13 +4570,13 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -4550,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -4574,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H102" s="1"/>
     </row>
@@ -4598,13 +4644,13 @@
         <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
@@ -4624,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -4650,10 +4696,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H105" s="1"/>
     </row>
@@ -4674,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -4700,13 +4746,13 @@
         <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
@@ -4726,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
@@ -4752,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -4778,13 +4824,13 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
@@ -4804,10 +4850,10 @@
         <v>0</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H111" s="1"/>
     </row>
@@ -4828,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H112" s="1"/>
     </row>
@@ -4852,13 +4898,13 @@
         <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
@@ -4878,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
@@ -4904,13 +4950,13 @@
         <v>1</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
@@ -4936,7 +4982,7 @@
         <v>513</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
@@ -4956,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>524</v>
@@ -4980,10 +5026,10 @@
         <v>0</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H118" s="1"/>
     </row>
@@ -5006,7 +5052,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
@@ -5048,13 +5094,13 @@
         <v>1</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>513</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
@@ -5070,10 +5116,18 @@
       <c r="D122" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
@@ -5088,10 +5142,18 @@
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -5106,10 +5168,18 @@
       <c r="D124" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
@@ -5124,10 +5194,18 @@
       <c r="D125" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
@@ -5142,10 +5220,16 @@
       <c r="D126" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
+      <c r="H126" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
@@ -5160,10 +5244,18 @@
       <c r="D127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
@@ -5178,10 +5270,18 @@
       <c r="D128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
@@ -5196,8 +5296,12 @@
       <c r="D129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
@@ -5214,10 +5318,18 @@
       <c r="D130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
@@ -5232,9 +5344,15 @@
       <c r="D131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
@@ -5250,10 +5368,18 @@
       <c r="D132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
@@ -5268,10 +5394,18 @@
       <c r="D133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
@@ -5286,10 +5420,18 @@
       <c r="D134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
@@ -5304,9 +5446,13 @@
       <c r="D135" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="1"/>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
       <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="G135" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
@@ -5322,9 +5468,13 @@
       <c r="D136" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="1"/>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="G136" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
@@ -5340,10 +5490,16 @@
       <c r="D137" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E137" s="1"/>
+      <c r="E137" s="1">
+        <v>0</v>
+      </c>
       <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
+      <c r="G137" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -5358,10 +5514,16 @@
       <c r="D138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="1"/>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
       <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
+      <c r="G138" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -5376,10 +5538,16 @@
       <c r="D139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
+      <c r="H139" s="1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -5394,10 +5562,18 @@
       <c r="D140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -5412,10 +5588,18 @@
       <c r="D141" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -5430,10 +5614,18 @@
       <c r="D142" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
+      <c r="E142" s="1">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -5448,10 +5640,18 @@
       <c r="D143" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
@@ -5466,10 +5666,16 @@
       <c r="D144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="H144" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -5484,10 +5690,16 @@
       <c r="D145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="H145" s="1" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
@@ -5502,10 +5714,16 @@
       <c r="D146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="H146" s="1" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
@@ -5520,10 +5738,16 @@
       <c r="D147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>587</v>
+      </c>
       <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
+      <c r="H147" s="1" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
@@ -5538,10 +5762,18 @@
       <c r="D148" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
+      <c r="E148" s="1">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
@@ -5556,10 +5788,18 @@
       <c r="D149" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
@@ -5574,10 +5814,16 @@
       <c r="D150" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
+      <c r="H150" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
@@ -5592,10 +5838,16 @@
       <c r="D151" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
+      <c r="H151" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7063E5-C9C7-4DB9-AB01-5BF713BD2E8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B679A32-5C2E-4DFA-A61E-C5EA743E137B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="596">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1785,10 +1785,34 @@
     <t>binary tree, stack</t>
   </si>
   <si>
-    <t>Cache</t>
-  </si>
-  <si>
     <t>queue</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>bucket sort</t>
+  </si>
+  <si>
+    <t>sorting</t>
+  </si>
+  <si>
+    <t>math, calculator</t>
+  </si>
+  <si>
+    <t>math, n-base</t>
+  </si>
+  <si>
+    <t>deterministic</t>
+  </si>
+  <si>
+    <t>binary tree, iterator</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>AC</t>
   </si>
 </sst>
 </file>
@@ -2112,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H152" sqref="H152"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2124,13 +2148,13 @@
     <col min="2" max="2" width="53.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" customWidth="1"/>
+    <col min="8" max="8" width="24.08984375" customWidth="1"/>
+    <col min="9" max="9" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -2144,19 +2168,22 @@
         <v>506</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2170,17 +2197,20 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2194,17 +2224,20 @@
         <v>3</v>
       </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2220,17 +2253,20 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2246,17 +2282,20 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2270,19 +2309,22 @@
         <v>3</v>
       </c>
       <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2296,17 +2338,20 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2320,15 +2365,18 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2342,15 +2390,18 @@
         <v>3</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2364,17 +2415,20 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2390,17 +2444,20 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2416,17 +2473,20 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2440,17 +2500,20 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2464,17 +2527,20 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2488,17 +2554,20 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2514,17 +2583,20 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2538,19 +2610,22 @@
         <v>3</v>
       </c>
       <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2564,15 +2639,18 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2586,19 +2664,22 @@
         <v>3</v>
       </c>
       <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2612,19 +2693,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2638,17 +2722,20 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2662,17 +2749,20 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2686,17 +2776,20 @@
         <v>3</v>
       </c>
       <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2712,15 +2805,18 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2734,17 +2830,20 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2758,17 +2857,20 @@
         <v>6</v>
       </c>
       <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2782,19 +2884,22 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2808,19 +2913,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2834,15 +2942,18 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2858,15 +2969,18 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2882,17 +2996,20 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2908,17 +3025,20 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2932,17 +3052,20 @@
         <v>6</v>
       </c>
       <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2958,17 +3081,20 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2982,17 +3108,20 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3006,17 +3135,20 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3030,17 +3162,20 @@
         <v>3</v>
       </c>
       <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3056,17 +3191,20 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3082,14 +3220,18 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3103,17 +3245,20 @@
         <v>3</v>
       </c>
       <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3127,17 +3272,20 @@
         <v>3</v>
       </c>
       <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3153,15 +3301,18 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3177,17 +3328,20 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3201,15 +3355,18 @@
         <v>3</v>
       </c>
       <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
         <v>0</v>
       </c>
-      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3225,17 +3382,20 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3251,15 +3411,18 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3275,15 +3438,18 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3297,17 +3463,20 @@
         <v>3</v>
       </c>
       <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3321,15 +3490,18 @@
         <v>3</v>
       </c>
       <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3343,17 +3515,20 @@
         <v>3</v>
       </c>
       <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3369,15 +3544,18 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3393,17 +3571,20 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3417,19 +3598,22 @@
         <v>6</v>
       </c>
       <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
         <v>0</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3445,17 +3629,20 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3469,17 +3656,20 @@
         <v>3</v>
       </c>
       <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
         <v>0</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3493,17 +3683,20 @@
         <v>3</v>
       </c>
       <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3517,17 +3710,20 @@
         <v>3</v>
       </c>
       <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
         <v>0</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3543,15 +3739,18 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3565,17 +3764,20 @@
         <v>1</v>
       </c>
       <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3589,17 +3791,20 @@
         <v>3</v>
       </c>
       <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
         <v>0</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3615,13 +3820,16 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
       <c r="G61" s="1"/>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3635,17 +3843,20 @@
         <v>3</v>
       </c>
       <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
         <v>0</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3659,17 +3870,20 @@
         <v>3</v>
       </c>
       <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
         <v>0</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3685,17 +3899,20 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3709,19 +3926,22 @@
         <v>3</v>
       </c>
       <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3737,13 +3957,16 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3757,15 +3980,18 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3779,15 +4005,18 @@
         <v>1</v>
       </c>
       <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3801,15 +4030,18 @@
         <v>6</v>
       </c>
       <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
         <v>0</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3825,15 +4057,18 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3847,17 +4082,20 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
         <v>0</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3871,15 +4109,18 @@
         <v>3</v>
       </c>
       <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
         <v>0</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3895,17 +4136,20 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3919,17 +4163,20 @@
         <v>3</v>
       </c>
       <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
         <v>0</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3943,17 +4190,20 @@
         <v>3</v>
       </c>
       <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
         <v>0</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3969,15 +4219,18 @@
       <c r="E76" s="1">
         <v>1</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3993,17 +4246,20 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4017,17 +4273,20 @@
         <v>3</v>
       </c>
       <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
         <v>0</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4041,17 +4300,20 @@
         <v>3</v>
       </c>
       <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
         <v>0</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4065,19 +4327,22 @@
         <v>3</v>
       </c>
       <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
         <v>0</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4093,15 +4358,18 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="1"/>
+      <c r="I81" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4117,17 +4385,20 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4141,19 +4412,22 @@
         <v>3</v>
       </c>
       <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
         <v>0</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4167,19 +4441,22 @@
         <v>1</v>
       </c>
       <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
         <v>0</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4195,15 +4472,18 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="1"/>
+      <c r="I85" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4219,15 +4499,18 @@
       <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4241,19 +4524,22 @@
         <v>3</v>
       </c>
       <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
         <v>0</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="I87" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4269,15 +4555,18 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4291,19 +4580,22 @@
         <v>1</v>
       </c>
       <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
         <v>0</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4319,15 +4611,18 @@
       <c r="E90" s="1">
         <v>1</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4341,17 +4636,20 @@
         <v>3</v>
       </c>
       <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
         <v>0</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4365,15 +4663,18 @@
         <v>3</v>
       </c>
       <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
         <v>0</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4387,19 +4688,22 @@
         <v>3</v>
       </c>
       <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
         <v>0</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4413,17 +4717,20 @@
         <v>3</v>
       </c>
       <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
         <v>0</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4437,19 +4744,22 @@
         <v>3</v>
       </c>
       <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
         <v>0</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4465,17 +4775,20 @@
       <c r="E96" s="1">
         <v>1</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4489,19 +4802,22 @@
         <v>3</v>
       </c>
       <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
         <v>0</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4517,17 +4833,20 @@
       <c r="E98" s="1">
         <v>1</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4541,19 +4860,22 @@
         <v>3</v>
       </c>
       <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
         <v>0</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4569,17 +4891,20 @@
       <c r="E100" s="1">
         <v>1</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4593,17 +4918,20 @@
         <v>1</v>
       </c>
       <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
         <v>0</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4617,17 +4945,20 @@
         <v>1</v>
       </c>
       <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
         <v>0</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4641,19 +4972,22 @@
         <v>3</v>
       </c>
       <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
         <v>0</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4667,19 +5001,22 @@
         <v>3</v>
       </c>
       <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
         <v>0</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4693,17 +5030,20 @@
         <v>1</v>
       </c>
       <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
         <v>0</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4717,19 +5057,22 @@
         <v>3</v>
       </c>
       <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
         <v>0</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4745,17 +5088,20 @@
       <c r="E107" s="1">
         <v>1</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4769,19 +5115,22 @@
         <v>1</v>
       </c>
       <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
         <v>0</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4795,19 +5144,22 @@
         <v>1</v>
       </c>
       <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
         <v>0</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4821,19 +5173,22 @@
         <v>3</v>
       </c>
       <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
         <v>0</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4847,17 +5202,20 @@
         <v>1</v>
       </c>
       <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
         <v>0</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4871,17 +5229,20 @@
         <v>1</v>
       </c>
       <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
         <v>0</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4895,19 +5256,22 @@
         <v>1</v>
       </c>
       <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
         <v>0</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4921,19 +5285,22 @@
         <v>3</v>
       </c>
       <c r="E114" s="1">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1">
         <v>0</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -4949,17 +5316,20 @@
       <c r="E115" s="1">
         <v>1</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4975,17 +5345,20 @@
       <c r="E116" s="1">
         <v>1</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5001,15 +5374,18 @@
       <c r="E117" s="1">
         <v>1</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H117" s="1"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5023,17 +5399,20 @@
         <v>3</v>
       </c>
       <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
         <v>0</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5047,15 +5426,18 @@
         <v>1</v>
       </c>
       <c r="E119" s="1">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1">
         <v>0</v>
       </c>
-      <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="1" t="s">
+      <c r="H119" s="1"/>
+      <c r="I119" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5071,13 +5453,16 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
       <c r="G120" s="1"/>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="1"/>
+      <c r="I120" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5093,17 +5478,20 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5117,19 +5505,22 @@
         <v>1</v>
       </c>
       <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
         <v>0</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5143,19 +5534,22 @@
         <v>1</v>
       </c>
       <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
         <v>0</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5171,17 +5565,20 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="I124" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5195,19 +5592,22 @@
         <v>6</v>
       </c>
       <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
         <v>0</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="I125" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5221,17 +5621,20 @@
         <v>1</v>
       </c>
       <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
         <v>0</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="1"/>
+      <c r="I126" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5247,17 +5650,20 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5273,17 +5679,20 @@
       <c r="E128" s="1">
         <v>1</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5299,13 +5708,16 @@
       <c r="E129" s="1">
         <v>1</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5319,19 +5731,22 @@
         <v>3</v>
       </c>
       <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
         <v>0</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5345,17 +5760,20 @@
         <v>3</v>
       </c>
       <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H131" s="1"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5369,19 +5787,22 @@
         <v>3</v>
       </c>
       <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
         <v>0</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="I132" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5397,17 +5818,20 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="1">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="I133" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5423,17 +5847,20 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="1">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5449,13 +5876,16 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1" t="s">
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5469,15 +5899,18 @@
         <v>6</v>
       </c>
       <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1">
         <v>0</v>
       </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="1"/>
+      <c r="H136" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5491,17 +5924,20 @@
         <v>1</v>
       </c>
       <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
         <v>0</v>
       </c>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="1"/>
+      <c r="H137" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5515,17 +5951,20 @@
         <v>3</v>
       </c>
       <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
         <v>0</v>
       </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1" t="s">
+      <c r="G138" s="1"/>
+      <c r="H138" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="I138" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5539,17 +5978,20 @@
         <v>3</v>
       </c>
       <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
         <v>0</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1" t="s">
+      <c r="H139" s="1"/>
+      <c r="I139" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5563,19 +6005,22 @@
         <v>3</v>
       </c>
       <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
         <v>0</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="I140" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5591,17 +6036,20 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I141" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5615,19 +6063,22 @@
         <v>1</v>
       </c>
       <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
         <v>0</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="I142" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5643,17 +6094,20 @@
       <c r="E143" s="1">
         <v>1</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="1">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="I143" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5667,17 +6121,20 @@
         <v>3</v>
       </c>
       <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
         <v>0</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1" t="s">
+      <c r="H144" s="1"/>
+      <c r="I144" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5693,15 +6150,18 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="1">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1" t="s">
+      <c r="H145" s="1"/>
+      <c r="I145" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -5717,15 +6177,18 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1" t="s">
+      <c r="H146" s="1"/>
+      <c r="I146" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -5741,15 +6204,18 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -5763,19 +6229,22 @@
         <v>3</v>
       </c>
       <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
         <v>0</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="I148" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -5789,19 +6258,22 @@
         <v>3</v>
       </c>
       <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
         <v>0</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="I149" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -5815,17 +6287,20 @@
         <v>6</v>
       </c>
       <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
         <v>0</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1" t="s">
+      <c r="H150" s="1"/>
+      <c r="I150" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -5839,17 +6314,20 @@
         <v>3</v>
       </c>
       <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1">
         <v>0</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1" t="s">
+      <c r="H151" s="1"/>
+      <c r="I151" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -5862,12 +6340,21 @@
       <c r="D152" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H152" s="1"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I152" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -5880,12 +6367,21 @@
       <c r="D153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1</v>
+      </c>
       <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H153" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -5898,12 +6394,21 @@
       <c r="D154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>0</v>
+      </c>
       <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H154" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -5916,12 +6421,21 @@
       <c r="D155" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1</v>
+      </c>
       <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H155" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -5934,12 +6448,21 @@
       <c r="D156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="H156" s="1"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I156" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -5952,12 +6475,15 @@
       <c r="D157" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="1"/>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -5970,12 +6496,15 @@
       <c r="D158" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E158" s="1"/>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -5988,12 +6517,15 @@
       <c r="D159" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="1"/>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6006,12 +6538,15 @@
       <c r="D160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="1"/>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6024,12 +6559,21 @@
       <c r="D161" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6042,12 +6586,15 @@
       <c r="D162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E162" s="1"/>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6060,12 +6607,19 @@
       <c r="D163" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6078,12 +6632,15 @@
       <c r="D164" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="1"/>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6096,12 +6653,23 @@
       <c r="D165" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6114,12 +6682,21 @@
       <c r="D166" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H166" s="1"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I166" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6132,12 +6709,21 @@
       <c r="D167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H167" s="1"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I167" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6150,12 +6736,21 @@
       <c r="D168" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H168" s="1"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I168" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6168,12 +6763,19 @@
       <c r="D169" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <v>0</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I169" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6186,12 +6788,23 @@
       <c r="D170" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6204,12 +6817,15 @@
       <c r="D171" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E171" s="1"/>
+      <c r="E171" s="1">
+        <v>0</v>
+      </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6222,12 +6838,19 @@
       <c r="D172" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0</v>
+      </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I172" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6240,12 +6863,21 @@
       <c r="D173" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1</v>
+      </c>
       <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H173" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6258,12 +6890,23 @@
       <c r="D174" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E174" s="1">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6276,12 +6919,23 @@
       <c r="D175" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6294,12 +6948,16 @@
       <c r="D176" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E176" s="1"/>
+      <c r="E176" s="1">
+        <v>0</v>
+      </c>
       <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
       <c r="H176" s="1"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I176" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6312,12 +6970,17 @@
       <c r="D177" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E177" s="1"/>
+      <c r="E177" s="1">
+        <v>0</v>
+      </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I177" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6330,12 +6993,17 @@
       <c r="D178" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E178" s="1"/>
+      <c r="E178" s="1">
+        <v>0</v>
+      </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I178" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -6348,12 +7016,17 @@
       <c r="D179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="1"/>
+      <c r="E179" s="1">
+        <v>0</v>
+      </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I179" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -6366,12 +7039,23 @@
       <c r="D180" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -6384,12 +7068,17 @@
       <c r="D181" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E181" s="1"/>
+      <c r="E181" s="1">
+        <v>0</v>
+      </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I181" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -6406,8 +7095,9 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -6424,8 +7114,9 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -6442,8 +7133,9 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -6460,8 +7152,9 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -6478,8 +7171,9 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -6496,8 +7190,9 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -6514,8 +7209,9 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -6532,8 +7228,9 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -6550,8 +7247,9 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -6568,8 +7266,9 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -6586,8 +7285,9 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -6604,8 +7304,9 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -6622,8 +7323,9 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -6640,8 +7342,9 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -6658,8 +7361,9 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -6676,8 +7380,9 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -6694,8 +7399,9 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -6712,8 +7418,9 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -6730,8 +7437,9 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -6748,8 +7456,9 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -6766,8 +7475,9 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -6784,8 +7494,9 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -6802,8 +7513,9 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -6820,8 +7532,9 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -6838,8 +7551,9 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -6856,8 +7570,9 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -6874,8 +7589,9 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -6892,8 +7608,9 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -6910,8 +7627,9 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -6928,8 +7646,9 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -6946,8 +7665,9 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -6964,8 +7684,9 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -6982,8 +7703,9 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -7000,8 +7722,9 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -7018,8 +7741,9 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -7036,8 +7760,9 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -7054,8 +7779,9 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -7072,8 +7798,9 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -7090,8 +7817,9 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -7108,8 +7836,9 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -7126,8 +7855,9 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -7144,8 +7874,9 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -7162,8 +7893,9 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -7180,8 +7912,9 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -7198,8 +7931,9 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -7216,8 +7950,9 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -7234,8 +7969,9 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -7252,8 +7988,9 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -7270,8 +8007,9 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -7288,8 +8026,9 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -7306,8 +8045,9 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -7324,8 +8064,9 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -7342,8 +8083,9 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -7360,8 +8102,9 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -7378,8 +8121,9 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -7396,8 +8140,9 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -7414,8 +8159,9 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -7432,8 +8178,9 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -7450,8 +8197,9 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -7468,8 +8216,9 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -7486,8 +8235,9 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -7504,8 +8254,9 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -7522,8 +8273,9 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -7540,8 +8292,9 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -7558,8 +8311,9 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -7576,8 +8330,9 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -7594,8 +8349,9 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -7612,8 +8368,9 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -7630,8 +8387,9 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -7648,8 +8406,9 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -7666,8 +8425,9 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -7684,8 +8444,9 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -7702,8 +8463,9 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -7720,8 +8482,9 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -7738,8 +8501,9 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -7756,8 +8520,9 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -7774,8 +8539,9 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -7792,8 +8558,9 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -7810,8 +8577,9 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -7828,8 +8596,9 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -7846,8 +8615,9 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -7864,8 +8634,9 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -7882,8 +8653,9 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -7900,8 +8672,9 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -7918,8 +8691,9 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -7936,8 +8710,9 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -7954,8 +8729,9 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -7972,8 +8748,9 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -7990,8 +8767,9 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -8008,8 +8786,9 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -8026,8 +8805,9 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -8044,8 +8824,9 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -8062,8 +8843,9 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -8080,8 +8862,9 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -8098,8 +8881,9 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -8116,8 +8900,9 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -8134,8 +8919,9 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -8152,8 +8938,9 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -8170,8 +8957,9 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -8188,8 +8976,9 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -8206,8 +8995,9 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -8224,8 +9014,9 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -8242,8 +9033,9 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -8260,8 +9052,9 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -8278,8 +9071,9 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -8296,8 +9090,9 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -8314,8 +9109,9 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -8332,8 +9128,9 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -8350,8 +9147,9 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -8368,8 +9166,9 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -8386,8 +9185,9 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -8404,8 +9204,9 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -8422,8 +9223,9 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -8440,8 +9242,9 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -8458,8 +9261,9 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -8476,8 +9280,9 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -8494,8 +9299,9 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -8512,8 +9318,9 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -8530,8 +9337,9 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -8548,8 +9356,9 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -8566,8 +9375,9 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -8584,8 +9394,9 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -8602,8 +9413,9 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -8620,8 +9432,9 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -8638,8 +9451,9 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -8656,8 +9470,9 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -8674,8 +9489,9 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -8692,8 +9508,9 @@
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -8710,8 +9527,9 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -8728,8 +9546,9 @@
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I311" s="1"/>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -8746,8 +9565,9 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I312" s="1"/>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -8764,8 +9584,9 @@
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -8782,8 +9603,9 @@
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I314" s="1"/>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -8800,8 +9622,9 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I315" s="1"/>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -8818,8 +9641,9 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I316" s="1"/>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -8836,8 +9660,9 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I317" s="1"/>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -8854,8 +9679,9 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I318" s="1"/>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -8872,8 +9698,9 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I319" s="1"/>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -8890,8 +9717,9 @@
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I320" s="1"/>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -8908,8 +9736,9 @@
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I321" s="1"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -8926,8 +9755,9 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I322" s="1"/>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -8944,8 +9774,9 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I323" s="1"/>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -8962,8 +9793,9 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I324" s="1"/>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -8980,8 +9812,9 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I325" s="1"/>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -8998,8 +9831,9 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I326" s="1"/>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -9016,8 +9850,9 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I327" s="1"/>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -9034,8 +9869,9 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I328" s="1"/>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -9052,8 +9888,9 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I329" s="1"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -9070,8 +9907,9 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I330" s="1"/>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -9088,8 +9926,9 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I331" s="1"/>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -9106,8 +9945,9 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I332" s="1"/>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -9124,8 +9964,9 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I333" s="1"/>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -9142,8 +9983,9 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I334" s="1"/>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -9160,8 +10002,9 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I335" s="1"/>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -9178,8 +10021,9 @@
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I336" s="1"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -9196,8 +10040,9 @@
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I337" s="1"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -9214,8 +10059,9 @@
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I338" s="1"/>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -9232,8 +10078,9 @@
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I339" s="1"/>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -9250,8 +10097,9 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I340" s="1"/>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -9268,8 +10116,9 @@
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I341" s="1"/>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -9286,8 +10135,9 @@
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I342" s="1"/>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -9304,8 +10154,9 @@
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I343" s="1"/>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -9322,8 +10173,9 @@
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I344" s="1"/>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -9340,8 +10192,9 @@
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I345" s="1"/>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -9358,8 +10211,9 @@
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I346" s="1"/>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -9376,8 +10230,9 @@
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I347" s="1"/>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -9394,8 +10249,9 @@
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I348" s="1"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -9412,8 +10268,9 @@
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I349" s="1"/>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -9430,8 +10287,9 @@
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I350" s="1"/>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -9448,8 +10306,9 @@
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I351" s="1"/>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -9466,8 +10325,9 @@
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I352" s="1"/>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -9484,8 +10344,9 @@
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I353" s="1"/>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -9502,8 +10363,9 @@
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I354" s="1"/>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -9520,8 +10382,9 @@
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I355" s="1"/>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -9538,8 +10401,9 @@
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I356" s="1"/>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -9556,8 +10420,9 @@
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I357" s="1"/>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -9574,8 +10439,9 @@
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I358" s="1"/>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -9592,8 +10458,9 @@
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I359" s="1"/>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -9610,8 +10477,9 @@
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I360" s="1"/>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -9628,8 +10496,9 @@
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I361" s="1"/>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -9646,8 +10515,9 @@
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I362" s="1"/>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -9664,8 +10534,9 @@
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I363" s="1"/>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -9682,8 +10553,9 @@
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I364" s="1"/>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -9700,8 +10572,9 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I365" s="1"/>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -9718,8 +10591,9 @@
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I366" s="1"/>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -9736,8 +10610,9 @@
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I367" s="1"/>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -9754,8 +10629,9 @@
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I368" s="1"/>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -9772,8 +10648,9 @@
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I369" s="1"/>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -9790,8 +10667,9 @@
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I370" s="1"/>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -9808,8 +10686,9 @@
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I371" s="1"/>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -9826,8 +10705,9 @@
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I372" s="1"/>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -9844,8 +10724,9 @@
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I373" s="1"/>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -9862,8 +10743,9 @@
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I374" s="1"/>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -9880,8 +10762,9 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I375" s="1"/>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -9898,8 +10781,9 @@
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I376" s="1"/>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -9916,8 +10800,9 @@
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I377" s="1"/>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -9934,8 +10819,9 @@
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I378" s="1"/>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -9952,8 +10838,9 @@
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I379" s="1"/>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -9970,8 +10857,9 @@
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I380" s="1"/>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -9988,8 +10876,9 @@
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I381" s="1"/>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -10006,8 +10895,9 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I382" s="1"/>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -10024,8 +10914,9 @@
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I383" s="1"/>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -10042,8 +10933,9 @@
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I384" s="1"/>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -10060,8 +10952,9 @@
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I385" s="1"/>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -10078,8 +10971,9 @@
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I386" s="1"/>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -10096,8 +10990,9 @@
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I387" s="1"/>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -10114,8 +11009,9 @@
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I388" s="1"/>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -10132,8 +11028,9 @@
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I389" s="1"/>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -10150,8 +11047,9 @@
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I390" s="1"/>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -10168,8 +11066,9 @@
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I391" s="1"/>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -10186,8 +11085,9 @@
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I392" s="1"/>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -10204,8 +11104,9 @@
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I393" s="1"/>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -10222,8 +11123,9 @@
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I394" s="1"/>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -10240,8 +11142,9 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I395" s="1"/>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -10258,8 +11161,9 @@
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I396" s="1"/>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -10276,8 +11180,9 @@
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I397" s="1"/>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -10294,8 +11199,9 @@
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I398" s="1"/>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -10312,8 +11218,9 @@
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I399" s="1"/>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -10330,8 +11237,9 @@
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I400" s="1"/>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -10348,8 +11256,9 @@
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I401" s="1"/>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -10366,8 +11275,9 @@
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I402" s="1"/>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -10384,8 +11294,9 @@
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I403" s="1"/>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -10402,8 +11313,9 @@
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I404" s="1"/>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -10420,8 +11332,9 @@
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I405" s="1"/>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -10438,8 +11351,9 @@
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I406" s="1"/>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -10456,8 +11370,9 @@
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I407" s="1"/>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -10474,8 +11389,9 @@
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I408" s="1"/>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -10492,8 +11408,9 @@
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I409" s="1"/>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -10510,8 +11427,9 @@
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I410" s="1"/>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -10528,8 +11446,9 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I411" s="1"/>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -10546,8 +11465,9 @@
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I412" s="1"/>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -10564,8 +11484,9 @@
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I413" s="1"/>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -10582,8 +11503,9 @@
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I414" s="1"/>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -10600,8 +11522,9 @@
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I415" s="1"/>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -10618,8 +11541,9 @@
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I416" s="1"/>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -10636,8 +11560,9 @@
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I417" s="1"/>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -10654,8 +11579,9 @@
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I418" s="1"/>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -10672,8 +11598,9 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I419" s="1"/>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -10690,8 +11617,9 @@
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I420" s="1"/>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -10708,8 +11636,9 @@
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I421" s="1"/>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -10726,8 +11655,9 @@
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I422" s="1"/>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -10744,8 +11674,9 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I423" s="1"/>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -10762,8 +11693,9 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I424" s="1"/>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -10780,8 +11712,9 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I425" s="1"/>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -10798,8 +11731,9 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I426" s="1"/>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -10816,8 +11750,9 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I427" s="1"/>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -10834,8 +11769,9 @@
       <c r="F428" s="1"/>
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I428" s="1"/>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -10852,8 +11788,9 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I429" s="1"/>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -10870,8 +11807,9 @@
       <c r="F430" s="1"/>
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I430" s="1"/>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -10888,8 +11826,9 @@
       <c r="F431" s="1"/>
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I431" s="1"/>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -10906,8 +11845,9 @@
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I432" s="1"/>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -10924,8 +11864,9 @@
       <c r="F433" s="1"/>
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I433" s="1"/>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -10942,8 +11883,9 @@
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I434" s="1"/>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -10960,8 +11902,9 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I435" s="1"/>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -10978,8 +11921,9 @@
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I436" s="1"/>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -10996,8 +11940,9 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I437" s="1"/>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -11014,8 +11959,9 @@
       <c r="F438" s="1"/>
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I438" s="1"/>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -11032,8 +11978,9 @@
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I439" s="1"/>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -11050,8 +11997,9 @@
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I440" s="1"/>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -11068,8 +12016,9 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I441" s="1"/>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -11086,8 +12035,9 @@
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I442" s="1"/>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -11104,8 +12054,9 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I443" s="1"/>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -11122,8 +12073,9 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I444" s="1"/>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -11140,8 +12092,9 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I445" s="1"/>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -11158,8 +12111,9 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I446" s="1"/>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -11176,8 +12130,9 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I447" s="1"/>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -11194,8 +12149,9 @@
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I448" s="1"/>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -11212,8 +12168,9 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I449" s="1"/>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -11230,8 +12187,9 @@
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I450" s="1"/>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -11248,8 +12206,9 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I451" s="1"/>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -11266,8 +12225,9 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I452" s="1"/>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -11284,8 +12244,9 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I453" s="1"/>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -11302,8 +12263,9 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I454" s="1"/>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -11320,8 +12282,9 @@
       <c r="F455" s="1"/>
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I455" s="1"/>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -11338,8 +12301,9 @@
       <c r="F456" s="1"/>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I456" s="1"/>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -11356,8 +12320,9 @@
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I457" s="1"/>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -11374,8 +12339,9 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I458" s="1"/>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -11392,8 +12358,9 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I459" s="1"/>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -11410,8 +12377,9 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I460" s="1"/>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -11428,8 +12396,9 @@
       <c r="F461" s="1"/>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I461" s="1"/>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -11446,8 +12415,9 @@
       <c r="F462" s="1"/>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I462" s="1"/>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -11464,8 +12434,9 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I463" s="1"/>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -11482,8 +12453,9 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I464" s="1"/>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -11500,8 +12472,9 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I465" s="1"/>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -11518,8 +12491,9 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I466" s="1"/>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -11536,8 +12510,9 @@
       <c r="F467" s="1"/>
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I467" s="1"/>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -11554,8 +12529,9 @@
       <c r="F468" s="1"/>
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I468" s="1"/>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -11572,8 +12548,9 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I469" s="1"/>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -11590,8 +12567,9 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I470" s="1"/>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -11608,8 +12586,9 @@
       <c r="F471" s="1"/>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I471" s="1"/>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -11626,8 +12605,9 @@
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I472" s="1"/>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -11644,8 +12624,9 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I473" s="1"/>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -11662,8 +12643,9 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I474" s="1"/>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -11680,8 +12662,9 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I475" s="1"/>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -11698,8 +12681,9 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I476" s="1"/>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -11716,8 +12700,9 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I477" s="1"/>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -11734,8 +12719,9 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I478" s="1"/>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -11752,8 +12738,9 @@
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I479" s="1"/>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -11770,8 +12757,9 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I480" s="1"/>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -11788,8 +12776,9 @@
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I481" s="1"/>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -11806,8 +12795,9 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I482" s="1"/>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -11824,8 +12814,9 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I483" s="1"/>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -11842,8 +12833,9 @@
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I484" s="1"/>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -11860,8 +12852,9 @@
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I485" s="1"/>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -11878,8 +12871,9 @@
       <c r="F486" s="1"/>
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I486" s="1"/>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -11896,8 +12890,9 @@
       <c r="F487" s="1"/>
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I487" s="1"/>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -11914,8 +12909,9 @@
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I488" s="1"/>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -11932,8 +12928,9 @@
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I489" s="1"/>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -11950,8 +12947,9 @@
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I490" s="1"/>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -11968,8 +12966,9 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I491" s="1"/>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -11986,8 +12985,9 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I492" s="1"/>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -12004,8 +13004,9 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I493" s="1"/>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -12022,8 +13023,9 @@
       <c r="F494" s="1"/>
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I494" s="1"/>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -12040,8 +13042,9 @@
       <c r="F495" s="1"/>
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I495" s="1"/>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -12058,8 +13061,9 @@
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I496" s="1"/>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -12076,8 +13080,9 @@
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I497" s="1"/>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -12094,8 +13099,9 @@
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I498" s="1"/>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -12112,8 +13118,9 @@
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I499" s="1"/>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -12130,8 +13137,9 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I500" s="1"/>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -12148,6 +13156,7 @@
       <c r="F501" s="1"/>
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
+      <c r="I501" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B679A32-5C2E-4DFA-A61E-C5EA743E137B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DD8C1F-68F5-4E5D-B5DC-8F63F4D34F1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="604">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1813,6 +1813,30 @@
   </si>
   <si>
     <t>AC</t>
+  </si>
+  <si>
+    <t>bash script</t>
+  </si>
+  <si>
+    <t>hosue robbery</t>
+  </si>
+  <si>
+    <t>bitwise</t>
+  </si>
+  <si>
+    <t>pythonic, bitwise</t>
+  </si>
+  <si>
+    <t>bitwise, Hamming weight</t>
+  </si>
+  <si>
+    <t>topological sort</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>prefix tree</t>
   </si>
 </sst>
 </file>
@@ -2138,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E181" sqref="E181"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7091,11 +7115,15 @@
       <c r="D182" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E182" s="1"/>
+      <c r="E182" s="1">
+        <v>0</v>
+      </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
+      <c r="I182" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
@@ -7110,11 +7138,15 @@
       <c r="D183" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E183" s="1"/>
+      <c r="E183" s="1">
+        <v>0</v>
+      </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
+      <c r="I183" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
@@ -7129,11 +7161,15 @@
       <c r="D184" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E184" s="1"/>
+      <c r="E184" s="1">
+        <v>0</v>
+      </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
+      <c r="I184" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
@@ -7148,11 +7184,15 @@
       <c r="D185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E185" s="1"/>
+      <c r="E185" s="1">
+        <v>0</v>
+      </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
+      <c r="I185" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -7167,11 +7207,15 @@
       <c r="D186" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E186" s="1"/>
+      <c r="E186" s="1">
+        <v>0</v>
+      </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
+      <c r="I186" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
@@ -7186,7 +7230,9 @@
       <c r="D187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E187" s="1"/>
+      <c r="E187" s="1">
+        <v>0</v>
+      </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -7205,9 +7251,15 @@
       <c r="D188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
     </row>
@@ -7224,11 +7276,19 @@
       <c r="D189" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <v>0</v>
+      </c>
       <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
+      <c r="H189" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
@@ -7243,11 +7303,19 @@
       <c r="D190" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>0</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
+      <c r="I190" s="1" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
@@ -7262,11 +7330,19 @@
       <c r="D191" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
+      <c r="E191" s="1">
+        <v>1</v>
+      </c>
+      <c r="F191" s="1">
+        <v>0</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
+      <c r="I191" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -7281,11 +7357,19 @@
       <c r="D192" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
+      <c r="I192" s="1" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
@@ -7300,11 +7384,15 @@
       <c r="D193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E193" s="1"/>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
+      <c r="I193" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -7319,11 +7407,15 @@
       <c r="D194" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E194" s="1"/>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
+      <c r="I194" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
@@ -7338,11 +7430,15 @@
       <c r="D195" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E195" s="1"/>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
+      <c r="I195" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -7357,11 +7453,15 @@
       <c r="D196" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E196" s="1"/>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
+      <c r="I196" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -7376,11 +7476,15 @@
       <c r="D197" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E197" s="1"/>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
+      <c r="I197" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -7395,11 +7499,15 @@
       <c r="D198" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E198" s="1"/>
+      <c r="E198" s="1">
+        <v>0</v>
+      </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
+      <c r="I198" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
@@ -7414,11 +7522,19 @@
       <c r="D199" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
       <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
+      <c r="H199" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
@@ -7433,11 +7549,21 @@
       <c r="D200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
@@ -7452,10 +7578,18 @@
       <c r="D201" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>0</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
@@ -7471,11 +7605,17 @@
       <c r="D202" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>0</v>
+      </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
+      <c r="I202" s="1" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
@@ -7490,11 +7630,19 @@
       <c r="D203" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
+      <c r="I203" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
@@ -7509,11 +7657,21 @@
       <c r="D204" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
@@ -7528,11 +7686,19 @@
       <c r="D205" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1">
+        <v>1</v>
+      </c>
       <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
+      <c r="H205" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
@@ -7547,11 +7713,19 @@
       <c r="D206" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
+      <c r="I206" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -7566,11 +7740,19 @@
       <c r="D207" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
+      <c r="I207" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -7585,11 +7767,21 @@
       <c r="D208" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>1</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -7604,11 +7796,19 @@
       <c r="D209" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
+      <c r="E209" s="1">
+        <v>1</v>
+      </c>
+      <c r="F209" s="1">
+        <v>1</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>602</v>
+      </c>
       <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
+      <c r="I209" s="1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -7623,11 +7823,21 @@
       <c r="D210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -7642,11 +7852,21 @@
       <c r="D211" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DD8C1F-68F5-4E5D-B5DC-8F63F4D34F1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DB98E-D43C-4891-A303-5773599DBE1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="620">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1837,6 +1837,54 @@
   </si>
   <si>
     <t>prefix tree</t>
+  </si>
+  <si>
+    <t>2D array, Trie</t>
+  </si>
+  <si>
+    <t>robbery</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>binary select</t>
+  </si>
+  <si>
+    <t>n-sum, combination</t>
+  </si>
+  <si>
+    <t>array, hash table</t>
+  </si>
+  <si>
+    <t>implement data structure</t>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t>Boyer–Moore majority vote</t>
+  </si>
+  <si>
+    <t>in-order traversal</t>
+  </si>
+  <si>
+    <t>bitwise operation</t>
+  </si>
+  <si>
+    <t>DFS+memorization</t>
+  </si>
+  <si>
+    <t>parentheses, calculator</t>
+  </si>
+  <si>
+    <t>traversal</t>
+  </si>
+  <si>
+    <t>inductive</t>
   </si>
 </sst>
 </file>
@@ -2162,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E271" sqref="E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6825,7 +6873,7 @@
         <v>589</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
@@ -7881,11 +7929,19 @@
       <c r="D212" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <v>1</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
+      <c r="I212" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -7900,11 +7956,21 @@
       <c r="D213" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -7919,11 +7985,21 @@
       <c r="D214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
+      <c r="E214" s="1">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -7938,11 +8014,21 @@
       <c r="D215" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1">
+        <v>1</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
@@ -7957,11 +8043,21 @@
       <c r="D216" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
+      <c r="E216" s="1">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
@@ -7976,11 +8072,19 @@
       <c r="D217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
       <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
+      <c r="H217" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
@@ -7995,11 +8099,19 @@
       <c r="D218" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
+      <c r="I218" s="1" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
@@ -8014,10 +8126,16 @@
       <c r="D219" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1</v>
+      </c>
       <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
+      <c r="H219" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
@@ -8033,11 +8151,19 @@
       <c r="D220" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
+      <c r="I220" s="1" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
@@ -8052,11 +8178,21 @@
       <c r="D221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
@@ -8071,11 +8207,19 @@
       <c r="D222" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
+      <c r="I222" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
@@ -8090,10 +8234,18 @@
       <c r="D223" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
@@ -8109,11 +8261,17 @@
       <c r="D224" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0</v>
+      </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
+      <c r="I224" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
@@ -8128,11 +8286,19 @@
       <c r="D225" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1">
+        <v>1</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
+      <c r="I225" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
@@ -8147,11 +8313,17 @@
       <c r="D226" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
+      <c r="E226" s="1">
+        <v>1</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0</v>
+      </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
+      <c r="I226" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
@@ -8166,10 +8338,18 @@
       <c r="D227" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F227" s="1">
+        <v>0</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
@@ -8185,11 +8365,17 @@
       <c r="D228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1">
+        <v>0</v>
+      </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
+      <c r="I228" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
@@ -8204,11 +8390,19 @@
       <c r="D229" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
+      <c r="E229" s="1">
+        <v>1</v>
+      </c>
+      <c r="F229" s="1">
+        <v>0</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H229" s="1"/>
-      <c r="I229" s="1"/>
+      <c r="I229" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
@@ -8223,11 +8417,21 @@
       <c r="D230" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="I230" s="1"/>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
@@ -8242,11 +8446,21 @@
       <c r="D231" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
@@ -8261,11 +8475,19 @@
       <c r="D232" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0</v>
+      </c>
       <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="I232" s="1"/>
+      <c r="H232" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
@@ -8280,11 +8502,17 @@
       <c r="D233" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
+      <c r="F233" s="1">
+        <v>0</v>
+      </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
+      <c r="I233" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
@@ -8299,11 +8527,19 @@
       <c r="D234" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
+      <c r="E234" s="1">
+        <v>1</v>
+      </c>
+      <c r="F234" s="1">
+        <v>0</v>
+      </c>
       <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
+      <c r="H234" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
@@ -8318,11 +8554,21 @@
       <c r="D235" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+      <c r="F235" s="1">
+        <v>0</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
@@ -8337,11 +8583,21 @@
       <c r="D236" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
+      <c r="E236" s="1">
+        <v>1</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
@@ -8356,10 +8612,18 @@
       <c r="D237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F237" s="1">
+        <v>1</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
@@ -8375,11 +8639,19 @@
       <c r="D238" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
+      <c r="E238" s="1">
+        <v>1</v>
+      </c>
+      <c r="F238" s="1">
+        <v>0</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
+      <c r="I238" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
@@ -8394,10 +8666,18 @@
       <c r="D239" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F239" s="1">
+        <v>0</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
@@ -8413,11 +8693,19 @@
       <c r="D240" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
+      <c r="E240" s="1">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1">
+        <v>1</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
+      <c r="I240" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
@@ -8432,11 +8720,19 @@
       <c r="D241" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
+      <c r="E241" s="1">
+        <v>1</v>
+      </c>
+      <c r="F241" s="1">
+        <v>1</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
+      <c r="I241" s="1" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
@@ -8451,11 +8747,21 @@
       <c r="D242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
@@ -8470,11 +8776,21 @@
       <c r="D243" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
+      <c r="E243" s="1">
+        <v>1</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
@@ -8489,7 +8805,9 @@
       <c r="D244" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E244" s="1"/>
+      <c r="E244" s="1">
+        <v>0</v>
+      </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -8508,7 +8826,9 @@
       <c r="D245" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E245" s="1"/>
+      <c r="E245" s="1">
+        <v>0</v>
+      </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -8527,7 +8847,9 @@
       <c r="D246" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E246" s="1"/>
+      <c r="E246" s="1">
+        <v>0</v>
+      </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
@@ -8546,7 +8868,9 @@
       <c r="D247" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E247" s="1"/>
+      <c r="E247" s="1">
+        <v>0</v>
+      </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -8565,7 +8889,9 @@
       <c r="D248" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E248" s="1"/>
+      <c r="E248" s="1">
+        <v>0</v>
+      </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
@@ -8584,7 +8910,9 @@
       <c r="D249" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E249" s="1"/>
+      <c r="E249" s="1">
+        <v>0</v>
+      </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
@@ -8603,7 +8931,9 @@
       <c r="D250" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E250" s="1"/>
+      <c r="E250" s="1">
+        <v>0</v>
+      </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
@@ -8622,7 +8952,9 @@
       <c r="D251" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E251" s="1"/>
+      <c r="E251" s="1">
+        <v>0</v>
+      </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
@@ -8641,7 +8973,9 @@
       <c r="D252" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E252" s="1"/>
+      <c r="E252" s="1">
+        <v>0</v>
+      </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
@@ -8660,7 +8994,9 @@
       <c r="D253" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E253" s="1"/>
+      <c r="E253" s="1">
+        <v>0</v>
+      </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
@@ -8679,7 +9015,9 @@
       <c r="D254" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E254" s="1"/>
+      <c r="E254" s="1">
+        <v>0</v>
+      </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
@@ -8698,7 +9036,9 @@
       <c r="D255" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E255" s="1"/>
+      <c r="E255" s="1">
+        <v>0</v>
+      </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
@@ -8717,7 +9057,9 @@
       <c r="D256" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E256" s="1"/>
+      <c r="E256" s="1">
+        <v>0</v>
+      </c>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
@@ -8736,7 +9078,9 @@
       <c r="D257" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E257" s="1"/>
+      <c r="E257" s="1">
+        <v>0</v>
+      </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
@@ -8755,11 +9099,21 @@
       <c r="D258" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="I258" s="1"/>
+      <c r="E258" s="1">
+        <v>1</v>
+      </c>
+      <c r="F258" s="1">
+        <v>0</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
@@ -8774,11 +9128,17 @@
       <c r="D259" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
+      <c r="E259" s="1">
+        <v>1</v>
+      </c>
+      <c r="F259" s="1">
+        <v>0</v>
+      </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
-      <c r="I259" s="1"/>
+      <c r="I259" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
@@ -8793,7 +9153,9 @@
       <c r="D260" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E260" s="1"/>
+      <c r="E260" s="1">
+        <v>0</v>
+      </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
@@ -8812,11 +9174,19 @@
       <c r="D261" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
+      <c r="E261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F261" s="1">
+        <v>0</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
+      <c r="I261" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
@@ -8831,7 +9201,9 @@
       <c r="D262" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E262" s="1"/>
+      <c r="E262" s="1">
+        <v>0</v>
+      </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
@@ -8850,11 +9222,15 @@
       <c r="D263" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E263" s="1"/>
+      <c r="E263" s="1">
+        <v>0</v>
+      </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
-      <c r="I263" s="1"/>
+      <c r="I263" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
@@ -8869,11 +9245,17 @@
       <c r="D264" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
+      <c r="E264" s="1">
+        <v>1</v>
+      </c>
+      <c r="F264" s="1">
+        <v>0</v>
+      </c>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
-      <c r="I264" s="1"/>
+      <c r="I264" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
@@ -8888,11 +9270,19 @@
       <c r="D265" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E265" s="1"/>
-      <c r="F265" s="1"/>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="1">
+        <v>1</v>
+      </c>
       <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
+      <c r="H265" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
@@ -8907,7 +9297,9 @@
       <c r="D266" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E266" s="1"/>
+      <c r="E266" s="1">
+        <v>0</v>
+      </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
@@ -8926,7 +9318,9 @@
       <c r="D267" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E267" s="1"/>
+      <c r="E267" s="1">
+        <v>0</v>
+      </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
@@ -8945,7 +9339,9 @@
       <c r="D268" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E268" s="1"/>
+      <c r="E268" s="1">
+        <v>0</v>
+      </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
@@ -8964,11 +9360,21 @@
       <c r="D269" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
+      <c r="E269" s="1">
+        <v>1</v>
+      </c>
+      <c r="F269" s="1">
+        <v>0</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
@@ -8983,7 +9389,9 @@
       <c r="D270" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E270" s="1"/>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -9002,7 +9410,9 @@
       <c r="D271" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E271" s="1"/>
+      <c r="E271" s="1">
+        <v>0</v>
+      </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DB98E-D43C-4891-A303-5773599DBE1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5FCFD2-FC34-4288-A6AD-204D770AA607}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="637">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1885,6 +1885,57 @@
   </si>
   <si>
     <t>inductive</t>
+  </si>
+  <si>
+    <t>math, translate</t>
+  </si>
+  <si>
+    <t>neighoring</t>
+  </si>
+  <si>
+    <t>heap</t>
+  </si>
+  <si>
+    <t>serialization</t>
+  </si>
+  <si>
+    <t>binary search, greedy</t>
+  </si>
+  <si>
+    <t>sub array</t>
+  </si>
+  <si>
+    <t>segment tree</t>
+  </si>
+  <si>
+    <t>ugly number</t>
+  </si>
+  <si>
+    <t>stack, hash table</t>
+  </si>
+  <si>
+    <t>duplicates</t>
+  </si>
+  <si>
+    <t>greedy, DP, divide and counquer</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>DPS + memorization</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>intersection</t>
+  </si>
+  <si>
+    <t>greedy, binary search</t>
   </si>
 </sst>
 </file>
@@ -1900,12 +1951,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1920,12 +1977,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2210,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H356" sqref="H356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2222,7 +2282,7 @@
     <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="6" max="6" width="9.90625" customWidth="1"/>
     <col min="7" max="7" width="18.08984375" customWidth="1"/>
-    <col min="8" max="8" width="24.08984375" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" customWidth="1"/>
     <col min="9" max="9" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7024,6 +7084,7 @@
         <v>0</v>
       </c>
       <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1" t="s">
         <v>594</v>
@@ -9431,7 +9492,9 @@
       <c r="D272" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E272" s="1"/>
+      <c r="E272" s="1">
+        <v>0</v>
+      </c>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -9450,7 +9513,9 @@
       <c r="D273" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E273" s="1"/>
+      <c r="E273" s="1">
+        <v>0</v>
+      </c>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -9469,11 +9534,17 @@
       <c r="D274" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E274" s="1"/>
-      <c r="F274" s="1"/>
+      <c r="E274" s="1">
+        <v>1</v>
+      </c>
+      <c r="F274" s="1">
+        <v>0</v>
+      </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
+      <c r="I274" s="1" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
@@ -9488,10 +9559,16 @@
       <c r="D275" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E275" s="1"/>
-      <c r="F275" s="1"/>
+      <c r="E275" s="1">
+        <v>1</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0</v>
+      </c>
       <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
+      <c r="H275" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="I275" s="1"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.35">
@@ -9507,10 +9584,16 @@
       <c r="D276" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
+      <c r="E276" s="1">
+        <v>1</v>
+      </c>
+      <c r="F276" s="1">
+        <v>0</v>
+      </c>
       <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
+      <c r="H276" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="I276" s="1"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.35">
@@ -9526,7 +9609,9 @@
       <c r="D277" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E277" s="1"/>
+      <c r="E277" s="1">
+        <v>0</v>
+      </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -9545,7 +9630,9 @@
       <c r="D278" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E278" s="1"/>
+      <c r="E278" s="1">
+        <v>0</v>
+      </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -9564,10 +9651,16 @@
       <c r="D279" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E279" s="1"/>
-      <c r="F279" s="1"/>
+      <c r="E279" s="1">
+        <v>1</v>
+      </c>
+      <c r="F279" s="1">
+        <v>0</v>
+      </c>
       <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
+      <c r="H279" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="I279" s="1"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.35">
@@ -9583,11 +9676,19 @@
       <c r="D280" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E280" s="1"/>
-      <c r="F280" s="1"/>
+      <c r="E280" s="1">
+        <v>1</v>
+      </c>
+      <c r="F280" s="1">
+        <v>1</v>
+      </c>
       <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
+      <c r="H280" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
@@ -9602,7 +9703,9 @@
       <c r="D281" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E281" s="1"/>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -9621,7 +9724,9 @@
       <c r="D282" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E282" s="1"/>
+      <c r="E282" s="1">
+        <v>0</v>
+      </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -9640,11 +9745,19 @@
       <c r="D283" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E283" s="1"/>
-      <c r="F283" s="1"/>
+      <c r="E283" s="1">
+        <v>1</v>
+      </c>
+      <c r="F283" s="1">
+        <v>1</v>
+      </c>
       <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-      <c r="I283" s="1"/>
+      <c r="H283" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
@@ -9659,11 +9772,21 @@
       <c r="D284" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E284" s="1"/>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
+      <c r="E284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1">
+        <v>0</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
@@ -9678,11 +9801,17 @@
       <c r="D285" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
+      <c r="E285" s="1">
+        <v>1</v>
+      </c>
+      <c r="F285" s="1">
+        <v>0</v>
+      </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
-      <c r="I285" s="1"/>
+      <c r="I285" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
@@ -9697,7 +9826,9 @@
       <c r="D286" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E286" s="1"/>
+      <c r="E286" s="1">
+        <v>0</v>
+      </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -9716,7 +9847,9 @@
       <c r="D287" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E287" s="1"/>
+      <c r="E287" s="1">
+        <v>0</v>
+      </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -9735,11 +9868,21 @@
       <c r="D288" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E288" s="1"/>
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="1"/>
+      <c r="E288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F288" s="1">
+        <v>1</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
@@ -9754,7 +9897,9 @@
       <c r="D289" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E289" s="1"/>
+      <c r="E289" s="1">
+        <v>0</v>
+      </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
@@ -9773,11 +9918,19 @@
       <c r="D290" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E290" s="1"/>
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
+      <c r="E290" s="1">
+        <v>1</v>
+      </c>
+      <c r="F290" s="1">
+        <v>0</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="H290" s="1"/>
-      <c r="I290" s="1"/>
+      <c r="I290" s="1" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
@@ -9792,11 +9945,19 @@
       <c r="D291" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
-      <c r="G291" s="1"/>
+      <c r="E291" s="1">
+        <v>1</v>
+      </c>
+      <c r="F291" s="1">
+        <v>0</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
+      <c r="I291" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
@@ -9811,7 +9972,9 @@
       <c r="D292" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E292" s="1"/>
+      <c r="E292" s="1">
+        <v>0</v>
+      </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
@@ -9830,11 +9993,19 @@
       <c r="D293" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
+      <c r="E293" s="1">
+        <v>1</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0</v>
+      </c>
       <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
+      <c r="H293" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
@@ -9849,7 +10020,9 @@
       <c r="D294" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E294" s="1"/>
+      <c r="E294" s="1">
+        <v>0</v>
+      </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -9868,7 +10041,9 @@
       <c r="D295" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E295" s="1"/>
+      <c r="E295" s="1">
+        <v>0</v>
+      </c>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -9887,11 +10062,19 @@
       <c r="D296" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
+      <c r="E296" s="1">
+        <v>1</v>
+      </c>
+      <c r="F296" s="1">
+        <v>1</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
+      <c r="I296" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
@@ -9906,7 +10089,9 @@
       <c r="D297" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E297" s="1"/>
+      <c r="E297" s="1">
+        <v>0</v>
+      </c>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -9925,11 +10110,19 @@
       <c r="D298" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
+      <c r="E298" s="1">
+        <v>1</v>
+      </c>
+      <c r="F298" s="1">
+        <v>0</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="H298" s="1"/>
-      <c r="I298" s="1"/>
+      <c r="I298" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
@@ -9944,7 +10137,9 @@
       <c r="D299" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E299" s="1"/>
+      <c r="E299" s="1">
+        <v>0</v>
+      </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -9963,11 +10158,19 @@
       <c r="D300" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
+      <c r="E300" s="1">
+        <v>1</v>
+      </c>
+      <c r="F300" s="1">
+        <v>0</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
+      <c r="I300" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
@@ -9982,11 +10185,21 @@
       <c r="D301" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
-      <c r="G301" s="1"/>
-      <c r="H301" s="1"/>
-      <c r="I301" s="1"/>
+      <c r="E301" s="1">
+        <v>1</v>
+      </c>
+      <c r="F301" s="1">
+        <v>1</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
@@ -10001,11 +10214,19 @@
       <c r="D302" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
+      <c r="E302" s="1">
+        <v>1</v>
+      </c>
+      <c r="F302" s="1">
+        <v>1</v>
+      </c>
       <c r="G302" s="1"/>
-      <c r="H302" s="1"/>
-      <c r="I302" s="1"/>
+      <c r="H302" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
@@ -10020,7 +10241,9 @@
       <c r="D303" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E303" s="1"/>
+      <c r="E303" s="1">
+        <v>0</v>
+      </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
@@ -10039,11 +10262,19 @@
       <c r="D304" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
-      <c r="G304" s="1"/>
+      <c r="E304" s="1">
+        <v>1</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H304" s="1"/>
-      <c r="I304" s="1"/>
+      <c r="I304" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
@@ -10058,11 +10289,19 @@
       <c r="D305" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
+      <c r="E305" s="1">
+        <v>1</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="H305" s="1"/>
-      <c r="I305" s="1"/>
+      <c r="I305" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
@@ -10077,7 +10316,9 @@
       <c r="D306" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E306" s="1"/>
+      <c r="E306" s="1">
+        <v>0</v>
+      </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
@@ -10096,11 +10337,21 @@
       <c r="D307" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
+      <c r="E307" s="1">
+        <v>1</v>
+      </c>
+      <c r="F307" s="1">
+        <v>0</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
@@ -10115,11 +10366,19 @@
       <c r="D308" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
+      <c r="E308" s="1">
+        <v>1</v>
+      </c>
+      <c r="F308" s="1">
+        <v>1</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="H308" s="1"/>
-      <c r="I308" s="1"/>
+      <c r="I308" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
@@ -10134,7 +10393,9 @@
       <c r="D309" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E309" s="1"/>
+      <c r="E309" s="1">
+        <v>0</v>
+      </c>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -10153,11 +10414,19 @@
       <c r="D310" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
+      <c r="E310" s="1">
+        <v>1</v>
+      </c>
+      <c r="F310" s="1">
+        <v>1</v>
+      </c>
       <c r="G310" s="1"/>
-      <c r="H310" s="1"/>
-      <c r="I310" s="1"/>
+      <c r="H310" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
@@ -10172,11 +10441,21 @@
       <c r="D311" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
-      <c r="G311" s="1"/>
-      <c r="H311" s="1"/>
-      <c r="I311" s="1"/>
+      <c r="E311" s="1">
+        <v>1</v>
+      </c>
+      <c r="F311" s="1">
+        <v>1</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
@@ -10191,7 +10470,9 @@
       <c r="D312" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E312" s="1"/>
+      <c r="E312" s="1">
+        <v>0</v>
+      </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
@@ -10210,10 +10491,18 @@
       <c r="D313" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
-      <c r="H313" s="1"/>
+      <c r="E313" s="1">
+        <v>1</v>
+      </c>
+      <c r="F313" s="1">
+        <v>1</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="I313" s="1"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.35">
@@ -10229,11 +10518,19 @@
       <c r="D314" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
-      <c r="G314" s="1"/>
+      <c r="E314" s="1">
+        <v>1</v>
+      </c>
+      <c r="F314" s="1">
+        <v>1</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="H314" s="1"/>
-      <c r="I314" s="1"/>
+      <c r="I314" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
@@ -10248,7 +10545,9 @@
       <c r="D315" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E315" s="1"/>
+      <c r="E315" s="1">
+        <v>0</v>
+      </c>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -10267,11 +10566,19 @@
       <c r="D316" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
+      <c r="E316" s="1">
+        <v>1</v>
+      </c>
+      <c r="F316" s="1">
+        <v>1</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="H316" s="1"/>
-      <c r="I316" s="1"/>
+      <c r="I316" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
@@ -10286,11 +10593,19 @@
       <c r="D317" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
+      <c r="E317" s="1">
+        <v>1</v>
+      </c>
+      <c r="F317" s="1">
+        <v>1</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>628</v>
+      </c>
       <c r="H317" s="1"/>
-      <c r="I317" s="1"/>
+      <c r="I317" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
@@ -10305,7 +10620,9 @@
       <c r="D318" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E318" s="1"/>
+      <c r="E318" s="1">
+        <v>0</v>
+      </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -10324,11 +10641,17 @@
       <c r="D319" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E319" s="1"/>
-      <c r="F319" s="1"/>
+      <c r="E319" s="1">
+        <v>1</v>
+      </c>
+      <c r="F319" s="1">
+        <v>0</v>
+      </c>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
-      <c r="I319" s="1"/>
+      <c r="I319" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
@@ -10343,11 +10666,19 @@
       <c r="D320" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E320" s="1"/>
-      <c r="F320" s="1"/>
+      <c r="E320" s="1">
+        <v>1</v>
+      </c>
+      <c r="F320" s="1">
+        <v>0</v>
+      </c>
       <c r="G320" s="1"/>
-      <c r="H320" s="1"/>
-      <c r="I320" s="1"/>
+      <c r="H320" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
@@ -10362,7 +10693,9 @@
       <c r="D321" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E321" s="1"/>
+      <c r="E321" s="1">
+        <v>0</v>
+      </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
@@ -10381,10 +10714,18 @@
       <c r="D322" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
-      <c r="H322" s="1"/>
+      <c r="E322" s="1">
+        <v>1</v>
+      </c>
+      <c r="F322" s="1">
+        <v>1</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="I322" s="1"/>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.35">
@@ -10400,11 +10741,21 @@
       <c r="D323" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
-      <c r="G323" s="1"/>
-      <c r="H323" s="1"/>
-      <c r="I323" s="1"/>
+      <c r="E323" s="1">
+        <v>1</v>
+      </c>
+      <c r="F323" s="1">
+        <v>0</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
@@ -10419,7 +10770,9 @@
       <c r="D324" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E324" s="1"/>
+      <c r="E324" s="1">
+        <v>0</v>
+      </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -10438,11 +10791,19 @@
       <c r="D325" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
+      <c r="E325" s="1">
+        <v>1</v>
+      </c>
+      <c r="F325" s="1">
+        <v>1</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H325" s="1"/>
-      <c r="I325" s="1"/>
+      <c r="I325" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
@@ -10457,7 +10818,9 @@
       <c r="D326" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E326" s="1"/>
+      <c r="E326" s="1">
+        <v>0</v>
+      </c>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
@@ -10476,11 +10839,19 @@
       <c r="D327" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
+      <c r="E327" s="1">
+        <v>1</v>
+      </c>
+      <c r="F327" s="1">
+        <v>0</v>
+      </c>
       <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
+      <c r="H327" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
@@ -10495,11 +10866,21 @@
       <c r="D328" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E328" s="1"/>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
+      <c r="E328" s="1">
+        <v>1</v>
+      </c>
+      <c r="F328" s="1">
+        <v>1</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
@@ -10514,11 +10895,21 @@
       <c r="D329" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E329" s="1"/>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
+      <c r="E329" s="1">
+        <v>1</v>
+      </c>
+      <c r="F329" s="1">
+        <v>0</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
@@ -10533,11 +10924,21 @@
       <c r="D330" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E330" s="1"/>
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
+      <c r="E330" s="1">
+        <v>1</v>
+      </c>
+      <c r="F330" s="1">
+        <v>0</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
@@ -10552,10 +10953,18 @@
       <c r="D331" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
+      <c r="E331" s="1">
+        <v>1</v>
+      </c>
+      <c r="F331" s="1">
+        <v>1</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="I331" s="1"/>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.35">
@@ -10571,11 +10980,19 @@
       <c r="D332" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
+      <c r="E332" s="1">
+        <v>1</v>
+      </c>
+      <c r="F332" s="1">
+        <v>0</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
+      <c r="I332" s="1" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
@@ -10590,10 +11007,18 @@
       <c r="D333" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
+      <c r="E333" s="1">
+        <v>1</v>
+      </c>
+      <c r="F333" s="1">
+        <v>0</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="I333" s="1"/>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.35">
@@ -10609,7 +11034,9 @@
       <c r="D334" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E334" s="1"/>
+      <c r="E334" s="1">
+        <v>0</v>
+      </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
@@ -10628,11 +11055,19 @@
       <c r="D335" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
+      <c r="E335" s="1">
+        <v>1</v>
+      </c>
+      <c r="F335" s="1">
+        <v>0</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H335" s="1"/>
-      <c r="I335" s="1"/>
+      <c r="I335" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
@@ -10647,11 +11082,17 @@
       <c r="D336" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
+      <c r="E336" s="1">
+        <v>1</v>
+      </c>
+      <c r="F336" s="1">
+        <v>1</v>
+      </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
+      <c r="I336" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
@@ -10666,11 +11107,19 @@
       <c r="D337" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
+      <c r="E337" s="1">
+        <v>1</v>
+      </c>
+      <c r="F337" s="1">
+        <v>1</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
+      <c r="I337" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
@@ -10685,11 +11134,21 @@
       <c r="D338" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="I338" s="1"/>
+      <c r="E338" s="1">
+        <v>1</v>
+      </c>
+      <c r="F338" s="1">
+        <v>0</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
@@ -10704,11 +11163,21 @@
       <c r="D339" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
+      <c r="E339" s="1">
+        <v>1</v>
+      </c>
+      <c r="F339" s="1">
+        <v>0</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
@@ -10723,7 +11192,9 @@
       <c r="D340" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E340" s="1"/>
+      <c r="E340" s="1">
+        <v>0</v>
+      </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
@@ -10742,7 +11213,9 @@
       <c r="D341" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E341" s="1"/>
+      <c r="E341" s="1">
+        <v>0</v>
+      </c>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
@@ -10761,11 +11234,19 @@
       <c r="D342" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
-      <c r="G342" s="1"/>
+      <c r="E342" s="1">
+        <v>1</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>634</v>
+      </c>
       <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
+      <c r="I342" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
@@ -10780,11 +11261,17 @@
       <c r="D343" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
+      <c r="E343" s="1">
+        <v>1</v>
+      </c>
+      <c r="F343" s="1">
+        <v>0</v>
+      </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
+      <c r="I343" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
@@ -10799,11 +11286,19 @@
       <c r="D344" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
+      <c r="E344" s="1">
+        <v>1</v>
+      </c>
+      <c r="F344" s="1">
+        <v>0</v>
+      </c>
       <c r="G344" s="1"/>
-      <c r="H344" s="1"/>
-      <c r="I344" s="1"/>
+      <c r="H344" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
@@ -10818,11 +11313,19 @@
       <c r="D345" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
+      <c r="E345" s="1">
+        <v>1</v>
+      </c>
+      <c r="F345" s="1">
+        <v>0</v>
+      </c>
       <c r="G345" s="1"/>
-      <c r="H345" s="1"/>
-      <c r="I345" s="1"/>
+      <c r="H345" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
@@ -10837,11 +11340,19 @@
       <c r="D346" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
+      <c r="E346" s="1">
+        <v>1</v>
+      </c>
+      <c r="F346" s="1">
+        <v>0</v>
+      </c>
       <c r="G346" s="1"/>
-      <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
+      <c r="H346" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
@@ -10856,7 +11367,9 @@
       <c r="D347" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E347" s="1"/>
+      <c r="E347" s="1">
+        <v>0</v>
+      </c>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
@@ -10875,10 +11388,18 @@
       <c r="D348" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
-      <c r="G348" s="1"/>
-      <c r="H348" s="1"/>
+      <c r="E348" s="1">
+        <v>1</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="I348" s="1"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.35">
@@ -10894,7 +11415,9 @@
       <c r="D349" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E349" s="1"/>
+      <c r="E349" s="1">
+        <v>0</v>
+      </c>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
@@ -10913,11 +11436,19 @@
       <c r="D350" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E350" s="1"/>
-      <c r="F350" s="1"/>
-      <c r="G350" s="1"/>
+      <c r="E350" s="1">
+        <v>1</v>
+      </c>
+      <c r="F350" s="1">
+        <v>0</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="H350" s="1"/>
-      <c r="I350" s="1"/>
+      <c r="I350" s="1" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
@@ -10932,11 +11463,19 @@
       <c r="D351" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E351" s="1"/>
-      <c r="F351" s="1"/>
-      <c r="G351" s="1"/>
+      <c r="E351" s="1">
+        <v>1</v>
+      </c>
+      <c r="F351" s="1">
+        <v>0</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H351" s="1"/>
-      <c r="I351" s="1"/>
+      <c r="I351" s="1" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
@@ -10951,7 +11490,9 @@
       <c r="D352" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E352" s="1"/>
+      <c r="E352" s="1">
+        <v>0</v>
+      </c>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -10970,11 +11511,17 @@
       <c r="D353" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E353" s="1"/>
-      <c r="F353" s="1"/>
+      <c r="E353" s="1">
+        <v>1</v>
+      </c>
+      <c r="F353" s="1">
+        <v>1</v>
+      </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
-      <c r="I353" s="1"/>
+      <c r="I353" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
@@ -10989,7 +11536,9 @@
       <c r="D354" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E354" s="1"/>
+      <c r="E354" s="1">
+        <v>0</v>
+      </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -11008,10 +11557,16 @@
       <c r="D355" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E355" s="1"/>
-      <c r="F355" s="1"/>
+      <c r="E355" s="1">
+        <v>1</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1</v>
+      </c>
       <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
+      <c r="H355" s="1" t="s">
+        <v>636</v>
+      </c>
       <c r="I355" s="1"/>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.35">
@@ -11027,11 +11582,17 @@
       <c r="D356" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E356" s="1"/>
-      <c r="F356" s="1"/>
+      <c r="E356" s="1">
+        <v>1</v>
+      </c>
+      <c r="F356" s="1">
+        <v>0</v>
+      </c>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
-      <c r="I356" s="1"/>
+      <c r="I356" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
@@ -11046,7 +11607,9 @@
       <c r="D357" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E357" s="1"/>
+      <c r="E357" s="1">
+        <v>0</v>
+      </c>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
@@ -11065,11 +11628,19 @@
       <c r="D358" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E358" s="1"/>
-      <c r="F358" s="1"/>
+      <c r="E358" s="1">
+        <v>1</v>
+      </c>
+      <c r="F358" s="1">
+        <v>0</v>
+      </c>
       <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
+      <c r="H358" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
@@ -11084,7 +11655,9 @@
       <c r="D359" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E359" s="1"/>
+      <c r="E359" s="1">
+        <v>0</v>
+      </c>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
@@ -11103,14 +11676,16 @@
       <c r="D360" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E360" s="1"/>
+      <c r="E360" s="1">
+        <v>0</v>
+      </c>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A361" s="1">
+      <c r="A361" s="3">
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -11122,7 +11697,9 @@
       <c r="D361" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E361" s="1"/>
+      <c r="E361" s="1">
+        <v>0</v>
+      </c>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5FCFD2-FC34-4288-A6AD-204D770AA607}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683367B-28A4-4FE4-B7D6-12CD0CA07B25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="662">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -1936,6 +1936,81 @@
   </si>
   <si>
     <t>greedy, binary search</t>
+  </si>
+  <si>
+    <t>2D kadane's</t>
+  </si>
+  <si>
+    <t>rectangle, subarray</t>
+  </si>
+  <si>
+    <t>minmax</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>reservoir sampling</t>
+  </si>
+  <si>
+    <t>string, stack</t>
+  </si>
+  <si>
+    <t>recursion, divide and conquer</t>
+  </si>
+  <si>
+    <t>DFS with memorization</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>2D array, heap</t>
+  </si>
+  <si>
+    <t>rain water</t>
+  </si>
+  <si>
+    <t>aithmetic sequence</t>
+  </si>
+  <si>
+    <t>combination sum</t>
+  </si>
+  <si>
+    <t>segmentation</t>
+  </si>
+  <si>
+    <t>string, heap</t>
+  </si>
+  <si>
+    <t>quad tree</t>
+  </si>
+  <si>
+    <t>N-ary Tree</t>
+  </si>
+  <si>
+    <t>level-order traversal</t>
+  </si>
+  <si>
+    <t>binary tree, hash table</t>
+  </si>
+  <si>
+    <t>denary tree</t>
+  </si>
+  <si>
+    <t>compression\decode</t>
+  </si>
+  <si>
+    <t>math, coordinates</t>
+  </si>
+  <si>
+    <t>swapping</t>
+  </si>
+  <si>
+    <t>missing\duplicates</t>
+  </si>
+  <si>
+    <t>BST</t>
   </si>
 </sst>
 </file>
@@ -2270,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H356" sqref="H356"/>
+    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I451" sqref="I451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2281,7 +2356,7 @@
     <col min="3" max="3" width="10.90625" customWidth="1"/>
     <col min="4" max="4" width="10.1796875" customWidth="1"/>
     <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
     <col min="8" max="8" width="32.81640625" customWidth="1"/>
     <col min="9" max="9" width="28.81640625" customWidth="1"/>
   </cols>
@@ -11718,7 +11793,9 @@
       <c r="D362" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E362" s="1"/>
+      <c r="E362" s="1">
+        <v>0</v>
+      </c>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
@@ -11737,7 +11814,9 @@
       <c r="D363" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E363" s="1"/>
+      <c r="E363" s="1">
+        <v>0</v>
+      </c>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
@@ -11756,11 +11835,21 @@
       <c r="D364" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E364" s="1"/>
-      <c r="F364" s="1"/>
-      <c r="G364" s="1"/>
-      <c r="H364" s="1"/>
-      <c r="I364" s="1"/>
+      <c r="E364" s="1">
+        <v>1</v>
+      </c>
+      <c r="F364" s="1">
+        <v>1</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
@@ -11775,7 +11864,9 @@
       <c r="D365" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E365" s="1"/>
+      <c r="E365" s="1">
+        <v>0</v>
+      </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
@@ -11794,11 +11885,19 @@
       <c r="D366" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
+      <c r="E366" s="1">
+        <v>1</v>
+      </c>
+      <c r="F366" s="1">
+        <v>1</v>
+      </c>
       <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-      <c r="I366" s="1"/>
+      <c r="H366" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
@@ -11813,7 +11912,9 @@
       <c r="D367" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E367" s="1"/>
+      <c r="E367" s="1">
+        <v>0</v>
+      </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
@@ -11832,11 +11933,19 @@
       <c r="D368" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E368" s="1"/>
-      <c r="F368" s="1"/>
+      <c r="E368" s="1">
+        <v>1</v>
+      </c>
+      <c r="F368" s="1">
+        <v>0</v>
+      </c>
       <c r="G368" s="1"/>
-      <c r="H368" s="1"/>
-      <c r="I368" s="1"/>
+      <c r="H368" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
@@ -11851,11 +11960,19 @@
       <c r="D369" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E369" s="1"/>
-      <c r="F369" s="1"/>
+      <c r="E369" s="1">
+        <v>1</v>
+      </c>
+      <c r="F369" s="1">
+        <v>1</v>
+      </c>
       <c r="G369" s="1"/>
-      <c r="H369" s="1"/>
-      <c r="I369" s="1"/>
+      <c r="H369" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
@@ -11870,7 +11987,9 @@
       <c r="D370" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E370" s="1"/>
+      <c r="E370" s="1">
+        <v>0</v>
+      </c>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
@@ -11889,7 +12008,9 @@
       <c r="D371" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E371" s="1"/>
+      <c r="E371" s="1">
+        <v>0</v>
+      </c>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
@@ -11908,11 +12029,19 @@
       <c r="D372" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E372" s="1"/>
-      <c r="F372" s="1"/>
+      <c r="E372" s="1">
+        <v>1</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1</v>
+      </c>
       <c r="G372" s="1"/>
-      <c r="H372" s="1"/>
-      <c r="I372" s="1"/>
+      <c r="H372" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I372" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
@@ -11927,11 +12056,17 @@
       <c r="D373" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E373" s="1"/>
-      <c r="F373" s="1"/>
+      <c r="E373" s="1">
+        <v>1</v>
+      </c>
+      <c r="F373" s="1">
+        <v>1</v>
+      </c>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
-      <c r="I373" s="1"/>
+      <c r="I373" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
@@ -11946,11 +12081,19 @@
       <c r="D374" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E374" s="1"/>
-      <c r="F374" s="1"/>
+      <c r="E374" s="1">
+        <v>1</v>
+      </c>
+      <c r="F374" s="1">
+        <v>1</v>
+      </c>
       <c r="G374" s="1"/>
-      <c r="H374" s="1"/>
-      <c r="I374" s="1"/>
+      <c r="H374" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
@@ -11965,10 +12108,16 @@
       <c r="D375" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E375" s="1"/>
-      <c r="F375" s="1"/>
+      <c r="E375" s="1">
+        <v>1</v>
+      </c>
+      <c r="F375" s="1">
+        <v>0</v>
+      </c>
       <c r="G375" s="1"/>
-      <c r="H375" s="1"/>
+      <c r="H375" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="I375" s="1"/>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.35">
@@ -11984,11 +12133,19 @@
       <c r="D376" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E376" s="1"/>
-      <c r="F376" s="1"/>
+      <c r="E376" s="1">
+        <v>1</v>
+      </c>
+      <c r="F376" s="1">
+        <v>0</v>
+      </c>
       <c r="G376" s="1"/>
-      <c r="H376" s="1"/>
-      <c r="I376" s="1"/>
+      <c r="H376" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
@@ -12003,11 +12160,19 @@
       <c r="D377" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E377" s="1"/>
-      <c r="F377" s="1"/>
+      <c r="E377" s="1">
+        <v>1</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1</v>
+      </c>
       <c r="G377" s="1"/>
-      <c r="H377" s="1"/>
-      <c r="I377" s="1"/>
+      <c r="H377" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
@@ -12022,11 +12187,19 @@
       <c r="D378" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E378" s="1"/>
-      <c r="F378" s="1"/>
+      <c r="E378" s="1">
+        <v>1</v>
+      </c>
+      <c r="F378" s="1">
+        <v>0</v>
+      </c>
       <c r="G378" s="1"/>
-      <c r="H378" s="1"/>
-      <c r="I378" s="1"/>
+      <c r="H378" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
@@ -12041,10 +12214,18 @@
       <c r="D379" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1"/>
-      <c r="G379" s="1"/>
-      <c r="H379" s="1"/>
+      <c r="E379" s="1">
+        <v>1</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="I379" s="1"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.35">
@@ -12060,7 +12241,9 @@
       <c r="D380" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E380" s="1"/>
+      <c r="E380" s="1">
+        <v>0</v>
+      </c>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
@@ -12079,11 +12262,19 @@
       <c r="D381" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E381" s="1"/>
-      <c r="F381" s="1"/>
-      <c r="G381" s="1"/>
+      <c r="E381" s="1">
+        <v>1</v>
+      </c>
+      <c r="F381" s="1">
+        <v>1</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H381" s="1"/>
-      <c r="I381" s="1"/>
+      <c r="I381" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
@@ -12098,11 +12289,17 @@
       <c r="D382" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E382" s="1"/>
-      <c r="F382" s="1"/>
+      <c r="E382" s="1">
+        <v>1</v>
+      </c>
+      <c r="F382" s="1">
+        <v>0</v>
+      </c>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
-      <c r="I382" s="1"/>
+      <c r="I382" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
@@ -12117,11 +12314,19 @@
       <c r="D383" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E383" s="1"/>
-      <c r="F383" s="1"/>
-      <c r="G383" s="1"/>
+      <c r="E383" s="1">
+        <v>1</v>
+      </c>
+      <c r="F383" s="1">
+        <v>1</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="H383" s="1"/>
-      <c r="I383" s="1"/>
+      <c r="I383" s="1" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
@@ -12136,11 +12341,19 @@
       <c r="D384" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E384" s="1"/>
-      <c r="F384" s="1"/>
-      <c r="G384" s="1"/>
+      <c r="E384" s="1">
+        <v>1</v>
+      </c>
+      <c r="F384" s="1">
+        <v>0</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="H384" s="1"/>
-      <c r="I384" s="1"/>
+      <c r="I384" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
@@ -12155,11 +12368,17 @@
       <c r="D385" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
+      <c r="E385" s="1">
+        <v>1</v>
+      </c>
+      <c r="F385" s="1">
+        <v>1</v>
+      </c>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
-      <c r="I385" s="1"/>
+      <c r="I385" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
@@ -12174,11 +12393,21 @@
       <c r="D386" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-      <c r="I386" s="1"/>
+      <c r="E386" s="1">
+        <v>1</v>
+      </c>
+      <c r="F386" s="1">
+        <v>0</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
@@ -12193,11 +12422,19 @@
       <c r="D387" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
+      <c r="E387" s="1">
+        <v>1</v>
+      </c>
+      <c r="F387" s="1">
+        <v>0</v>
+      </c>
       <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-      <c r="I387" s="1"/>
+      <c r="H387" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
@@ -12212,11 +12449,19 @@
       <c r="D388" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
+      <c r="E388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F388" s="1">
+        <v>0</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H388" s="1"/>
-      <c r="I388" s="1"/>
+      <c r="I388" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
@@ -12231,9 +12476,15 @@
       <c r="D389" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
-      <c r="G389" s="1"/>
+      <c r="E389" s="1">
+        <v>1</v>
+      </c>
+      <c r="F389" s="1">
+        <v>0</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
     </row>
@@ -12250,11 +12501,19 @@
       <c r="D390" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E390" s="1"/>
-      <c r="F390" s="1"/>
-      <c r="G390" s="1"/>
+      <c r="E390" s="1">
+        <v>1</v>
+      </c>
+      <c r="F390" s="1">
+        <v>0</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H390" s="1"/>
-      <c r="I390" s="1"/>
+      <c r="I390" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
@@ -12269,11 +12528,19 @@
       <c r="D391" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="1"/>
+      <c r="E391" s="1">
+        <v>1</v>
+      </c>
+      <c r="F391" s="1">
+        <v>1</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
+      <c r="I391" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
@@ -12288,11 +12555,17 @@
       <c r="D392" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E392" s="1"/>
-      <c r="F392" s="1"/>
+      <c r="E392" s="1">
+        <v>1</v>
+      </c>
+      <c r="F392" s="1">
+        <v>1</v>
+      </c>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
-      <c r="I392" s="1"/>
+      <c r="I392" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
@@ -12307,11 +12580,19 @@
       <c r="D393" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E393" s="1"/>
-      <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
+      <c r="E393" s="1">
+        <v>1</v>
+      </c>
+      <c r="F393" s="1">
+        <v>0</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
+      <c r="I393" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
@@ -12326,11 +12607,17 @@
       <c r="D394" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E394" s="1"/>
-      <c r="F394" s="1"/>
+      <c r="E394" s="1">
+        <v>1</v>
+      </c>
+      <c r="F394" s="1">
+        <v>0</v>
+      </c>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
-      <c r="I394" s="1"/>
+      <c r="I394" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
@@ -12345,9 +12632,15 @@
       <c r="D395" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E395" s="1"/>
-      <c r="F395" s="1"/>
-      <c r="G395" s="1"/>
+      <c r="E395" s="1">
+        <v>1</v>
+      </c>
+      <c r="F395" s="1">
+        <v>0</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
     </row>
@@ -12364,11 +12657,21 @@
       <c r="D396" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E396" s="1"/>
-      <c r="F396" s="1"/>
-      <c r="G396" s="1"/>
-      <c r="H396" s="1"/>
-      <c r="I396" s="1"/>
+      <c r="E396" s="1">
+        <v>1</v>
+      </c>
+      <c r="F396" s="1">
+        <v>1</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
@@ -12383,11 +12686,21 @@
       <c r="D397" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E397" s="1"/>
-      <c r="F397" s="1"/>
-      <c r="G397" s="1"/>
-      <c r="H397" s="1"/>
-      <c r="I397" s="1"/>
+      <c r="E397" s="1">
+        <v>1</v>
+      </c>
+      <c r="F397" s="1">
+        <v>0</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
@@ -12402,10 +12715,16 @@
       <c r="D398" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E398" s="1"/>
-      <c r="F398" s="1"/>
+      <c r="E398" s="1">
+        <v>1</v>
+      </c>
+      <c r="F398" s="1">
+        <v>0</v>
+      </c>
       <c r="G398" s="1"/>
-      <c r="H398" s="1"/>
+      <c r="H398" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="I398" s="1"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.35">
@@ -12421,11 +12740,17 @@
       <c r="D399" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E399" s="1"/>
-      <c r="F399" s="1"/>
+      <c r="E399" s="1">
+        <v>1</v>
+      </c>
+      <c r="F399" s="1">
+        <v>0</v>
+      </c>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
-      <c r="I399" s="1"/>
+      <c r="I399" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
@@ -12440,10 +12765,18 @@
       <c r="D400" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
+      <c r="E400" s="1">
+        <v>1</v>
+      </c>
+      <c r="F400" s="1">
+        <v>0</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="I400" s="1"/>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.35">
@@ -12459,11 +12792,19 @@
       <c r="D401" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E401" s="1"/>
-      <c r="F401" s="1"/>
+      <c r="E401" s="1">
+        <v>1</v>
+      </c>
+      <c r="F401" s="1">
+        <v>0</v>
+      </c>
       <c r="G401" s="1"/>
-      <c r="H401" s="1"/>
-      <c r="I401" s="1"/>
+      <c r="H401" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
@@ -12478,11 +12819,17 @@
       <c r="D402" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E402" s="1"/>
-      <c r="F402" s="1"/>
+      <c r="E402" s="1">
+        <v>1</v>
+      </c>
+      <c r="F402" s="1">
+        <v>0</v>
+      </c>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
-      <c r="I402" s="1"/>
+      <c r="I402" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
@@ -12497,10 +12844,18 @@
       <c r="D403" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E403" s="1"/>
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
+      <c r="E403" s="1">
+        <v>1</v>
+      </c>
+      <c r="F403" s="1">
+        <v>0</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="I403" s="1"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
@@ -12516,13 +12871,21 @@
       <c r="D404" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E404" s="1"/>
-      <c r="F404" s="1"/>
+      <c r="E404" s="1">
+        <v>1</v>
+      </c>
+      <c r="F404" s="1">
+        <v>1</v>
+      </c>
       <c r="G404" s="1"/>
-      <c r="H404" s="1"/>
-      <c r="I404" s="1"/>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H404" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -12535,10 +12898,18 @@
       <c r="D405" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E405" s="1"/>
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
+      <c r="E405" s="1">
+        <v>1</v>
+      </c>
+      <c r="F405" s="1">
+        <v>0</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="I405" s="1"/>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.35">
@@ -12554,11 +12925,17 @@
       <c r="D406" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E406" s="1"/>
-      <c r="F406" s="1"/>
+      <c r="E406" s="1">
+        <v>1</v>
+      </c>
+      <c r="F406" s="1">
+        <v>0</v>
+      </c>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
+      <c r="I406" s="1" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
@@ -12573,10 +12950,18 @@
       <c r="D407" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E407" s="1"/>
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
+      <c r="E407" s="1">
+        <v>1</v>
+      </c>
+      <c r="F407" s="1">
+        <v>1</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="I407" s="1"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.35">
@@ -12592,11 +12977,19 @@
       <c r="D408" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E408" s="1"/>
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
+      <c r="E408" s="1">
+        <v>1</v>
+      </c>
+      <c r="F408" s="1">
+        <v>1</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>646</v>
+      </c>
       <c r="H408" s="1"/>
-      <c r="I408" s="1"/>
+      <c r="I408" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
@@ -12611,7 +13004,9 @@
       <c r="D409" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E409" s="1"/>
+      <c r="E409" s="1">
+        <v>0</v>
+      </c>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
@@ -12630,11 +13025,19 @@
       <c r="D410" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E410" s="1"/>
-      <c r="F410" s="1"/>
-      <c r="G410" s="1"/>
+      <c r="E410" s="1">
+        <v>1</v>
+      </c>
+      <c r="F410" s="1">
+        <v>0</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H410" s="1"/>
-      <c r="I410" s="1"/>
+      <c r="I410" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
@@ -12649,11 +13052,21 @@
       <c r="D411" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-      <c r="H411" s="1"/>
-      <c r="I411" s="1"/>
+      <c r="E411" s="1">
+        <v>1</v>
+      </c>
+      <c r="F411" s="1">
+        <v>1</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
@@ -12668,7 +13081,9 @@
       <c r="D412" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E412" s="1"/>
+      <c r="E412" s="1">
+        <v>0</v>
+      </c>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
@@ -12687,11 +13102,17 @@
       <c r="D413" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E413" s="1"/>
-      <c r="F413" s="1"/>
+      <c r="E413" s="1">
+        <v>1</v>
+      </c>
+      <c r="F413" s="1">
+        <v>0</v>
+      </c>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
-      <c r="I413" s="1"/>
+      <c r="I413" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
@@ -12706,11 +13127,21 @@
       <c r="D414" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-      <c r="I414" s="1"/>
+      <c r="E414" s="1">
+        <v>1</v>
+      </c>
+      <c r="F414" s="1">
+        <v>0</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
@@ -12725,10 +13156,18 @@
       <c r="D415" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E415" s="1"/>
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
+      <c r="E415" s="1">
+        <v>1</v>
+      </c>
+      <c r="F415" s="1">
+        <v>0</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="I415" s="1"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.35">
@@ -12744,11 +13183,19 @@
       <c r="D416" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E416" s="1"/>
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
+      <c r="E416" s="1">
+        <v>1</v>
+      </c>
+      <c r="F416" s="1">
+        <v>0</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H416" s="1"/>
-      <c r="I416" s="1"/>
+      <c r="I416" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
@@ -12763,11 +13210,19 @@
       <c r="D417" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E417" s="1"/>
-      <c r="F417" s="1"/>
+      <c r="E417" s="1">
+        <v>1</v>
+      </c>
+      <c r="F417" s="1">
+        <v>1</v>
+      </c>
       <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-      <c r="I417" s="1"/>
+      <c r="H417" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
@@ -12782,10 +13237,18 @@
       <c r="D418" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E418" s="1"/>
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
+      <c r="E418" s="1">
+        <v>1</v>
+      </c>
+      <c r="F418" s="1">
+        <v>0</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="I418" s="1"/>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.35">
@@ -12801,7 +13264,9 @@
       <c r="D419" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E419" s="1"/>
+      <c r="E419" s="1">
+        <v>0</v>
+      </c>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
@@ -12820,11 +13285,19 @@
       <c r="D420" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E420" s="1"/>
-      <c r="F420" s="1"/>
-      <c r="G420" s="1"/>
+      <c r="E420" s="1">
+        <v>1</v>
+      </c>
+      <c r="F420" s="1">
+        <v>0</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="H420" s="1"/>
-      <c r="I420" s="1"/>
+      <c r="I420" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
@@ -12839,11 +13312,19 @@
       <c r="D421" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E421" s="1"/>
-      <c r="F421" s="1"/>
-      <c r="G421" s="1"/>
+      <c r="E421" s="1">
+        <v>1</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="H421" s="1"/>
-      <c r="I421" s="1"/>
+      <c r="I421" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
@@ -12858,11 +13339,19 @@
       <c r="D422" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E422" s="1"/>
-      <c r="F422" s="1"/>
-      <c r="G422" s="1"/>
+      <c r="E422" s="1">
+        <v>1</v>
+      </c>
+      <c r="F422" s="1">
+        <v>1</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>602</v>
+      </c>
       <c r="H422" s="1"/>
-      <c r="I422" s="1"/>
+      <c r="I422" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
@@ -12877,7 +13366,9 @@
       <c r="D423" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E423" s="1"/>
+      <c r="E423" s="1">
+        <v>0</v>
+      </c>
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
@@ -12896,11 +13387,21 @@
       <c r="D424" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E424" s="1"/>
-      <c r="F424" s="1"/>
-      <c r="G424" s="1"/>
-      <c r="H424" s="1"/>
-      <c r="I424" s="1"/>
+      <c r="E424" s="1">
+        <v>1</v>
+      </c>
+      <c r="F424" s="1">
+        <v>0</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
@@ -12915,11 +13416,21 @@
       <c r="D425" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E425" s="1"/>
-      <c r="F425" s="1"/>
-      <c r="G425" s="1"/>
-      <c r="H425" s="1"/>
-      <c r="I425" s="1"/>
+      <c r="E425" s="1">
+        <v>1</v>
+      </c>
+      <c r="F425" s="1">
+        <v>1</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
@@ -12934,7 +13445,9 @@
       <c r="D426" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E426" s="1"/>
+      <c r="E426" s="1">
+        <v>0</v>
+      </c>
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
@@ -12953,7 +13466,9 @@
       <c r="D427" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E427" s="1"/>
+      <c r="E427" s="1">
+        <v>0</v>
+      </c>
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
@@ -12972,11 +13487,21 @@
       <c r="D428" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E428" s="1"/>
-      <c r="F428" s="1"/>
-      <c r="G428" s="1"/>
-      <c r="H428" s="1"/>
-      <c r="I428" s="1"/>
+      <c r="E428" s="1">
+        <v>1</v>
+      </c>
+      <c r="F428" s="1">
+        <v>0</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
@@ -12991,7 +13516,9 @@
       <c r="D429" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E429" s="1"/>
+      <c r="E429" s="1">
+        <v>0</v>
+      </c>
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
@@ -13010,11 +13537,21 @@
       <c r="D430" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E430" s="1"/>
-      <c r="F430" s="1"/>
-      <c r="G430" s="1"/>
-      <c r="H430" s="1"/>
-      <c r="I430" s="1"/>
+      <c r="E430" s="1">
+        <v>1</v>
+      </c>
+      <c r="F430" s="1">
+        <v>0</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
@@ -13029,11 +13566,21 @@
       <c r="D431" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E431" s="1"/>
-      <c r="F431" s="1"/>
-      <c r="G431" s="1"/>
-      <c r="H431" s="1"/>
-      <c r="I431" s="1"/>
+      <c r="E431" s="1">
+        <v>1</v>
+      </c>
+      <c r="F431" s="1">
+        <v>0</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
@@ -13048,7 +13595,9 @@
       <c r="D432" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E432" s="1"/>
+      <c r="E432" s="1">
+        <v>0</v>
+      </c>
       <c r="F432" s="1"/>
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
@@ -13067,11 +13616,19 @@
       <c r="D433" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E433" s="1"/>
-      <c r="F433" s="1"/>
-      <c r="G433" s="1"/>
+      <c r="E433" s="1">
+        <v>1</v>
+      </c>
+      <c r="F433" s="1">
+        <v>0</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H433" s="1"/>
-      <c r="I433" s="1"/>
+      <c r="I433" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
@@ -13086,11 +13643,21 @@
       <c r="D434" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E434" s="1"/>
-      <c r="F434" s="1"/>
-      <c r="G434" s="1"/>
-      <c r="H434" s="1"/>
-      <c r="I434" s="1"/>
+      <c r="E434" s="1">
+        <v>1</v>
+      </c>
+      <c r="F434" s="1">
+        <v>0</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
@@ -13105,11 +13672,19 @@
       <c r="D435" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E435" s="1"/>
-      <c r="F435" s="1"/>
-      <c r="G435" s="1"/>
+      <c r="E435" s="1">
+        <v>1</v>
+      </c>
+      <c r="F435" s="1">
+        <v>0</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H435" s="1"/>
-      <c r="I435" s="1"/>
+      <c r="I435" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
@@ -13124,11 +13699,19 @@
       <c r="D436" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E436" s="1"/>
-      <c r="F436" s="1"/>
+      <c r="E436" s="1">
+        <v>1</v>
+      </c>
+      <c r="F436" s="1">
+        <v>0</v>
+      </c>
       <c r="G436" s="1"/>
-      <c r="H436" s="1"/>
-      <c r="I436" s="1"/>
+      <c r="H436" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
@@ -13143,11 +13726,19 @@
       <c r="D437" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E437" s="1"/>
-      <c r="F437" s="1"/>
+      <c r="E437" s="1">
+        <v>1</v>
+      </c>
+      <c r="F437" s="1">
+        <v>0</v>
+      </c>
       <c r="G437" s="1"/>
-      <c r="H437" s="1"/>
-      <c r="I437" s="1"/>
+      <c r="H437" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
@@ -13162,11 +13753,19 @@
       <c r="D438" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E438" s="1"/>
-      <c r="F438" s="1"/>
-      <c r="G438" s="1"/>
+      <c r="E438" s="1">
+        <v>1</v>
+      </c>
+      <c r="F438" s="1">
+        <v>1</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="H438" s="1"/>
-      <c r="I438" s="1"/>
+      <c r="I438" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
@@ -13181,11 +13780,21 @@
       <c r="D439" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E439" s="1"/>
-      <c r="F439" s="1"/>
-      <c r="G439" s="1"/>
-      <c r="H439" s="1"/>
-      <c r="I439" s="1"/>
+      <c r="E439" s="1">
+        <v>1</v>
+      </c>
+      <c r="F439" s="1">
+        <v>0</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
@@ -13200,7 +13809,9 @@
       <c r="D440" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E440" s="1"/>
+      <c r="E440" s="1">
+        <v>0</v>
+      </c>
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
@@ -13219,10 +13830,18 @@
       <c r="D441" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E441" s="1"/>
-      <c r="F441" s="1"/>
-      <c r="G441" s="1"/>
-      <c r="H441" s="1"/>
+      <c r="E441" s="1">
+        <v>1</v>
+      </c>
+      <c r="F441" s="1">
+        <v>1</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>618</v>
+      </c>
       <c r="I441" s="1"/>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.35">
@@ -13238,11 +13857,19 @@
       <c r="D442" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E442" s="1"/>
-      <c r="F442" s="1"/>
+      <c r="E442" s="1">
+        <v>1</v>
+      </c>
+      <c r="F442" s="1">
+        <v>0</v>
+      </c>
       <c r="G442" s="1"/>
-      <c r="H442" s="1"/>
-      <c r="I442" s="1"/>
+      <c r="H442" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
@@ -13257,11 +13884,19 @@
       <c r="D443" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E443" s="1"/>
-      <c r="F443" s="1"/>
-      <c r="G443" s="1"/>
+      <c r="E443" s="1">
+        <v>1</v>
+      </c>
+      <c r="F443" s="1">
+        <v>0</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H443" s="1"/>
-      <c r="I443" s="1"/>
+      <c r="I443" s="1" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
@@ -13276,11 +13911,19 @@
       <c r="D444" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E444" s="1"/>
-      <c r="F444" s="1"/>
-      <c r="G444" s="1"/>
+      <c r="E444" s="1">
+        <v>1</v>
+      </c>
+      <c r="F444" s="1">
+        <v>0</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H444" s="1"/>
-      <c r="I444" s="1"/>
+      <c r="I444" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
@@ -13295,7 +13938,9 @@
       <c r="D445" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E445" s="1"/>
+      <c r="E445" s="1">
+        <v>0</v>
+      </c>
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
@@ -13314,11 +13959,19 @@
       <c r="D446" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E446" s="1"/>
-      <c r="F446" s="1"/>
-      <c r="G446" s="1"/>
+      <c r="E446" s="1">
+        <v>1</v>
+      </c>
+      <c r="F446" s="1">
+        <v>0</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="H446" s="1"/>
-      <c r="I446" s="1"/>
+      <c r="I446" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
@@ -13333,11 +13986,21 @@
       <c r="D447" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E447" s="1"/>
-      <c r="F447" s="1"/>
-      <c r="G447" s="1"/>
-      <c r="H447" s="1"/>
-      <c r="I447" s="1"/>
+      <c r="E447" s="1">
+        <v>1</v>
+      </c>
+      <c r="F447" s="1">
+        <v>1</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
@@ -13352,11 +14015,19 @@
       <c r="D448" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E448" s="1"/>
-      <c r="F448" s="1"/>
-      <c r="G448" s="1"/>
+      <c r="E448" s="1">
+        <v>1</v>
+      </c>
+      <c r="F448" s="1">
+        <v>0</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H448" s="1"/>
-      <c r="I448" s="1"/>
+      <c r="I448" s="1" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
@@ -13371,11 +14042,21 @@
       <c r="D449" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E449" s="1"/>
-      <c r="F449" s="1"/>
-      <c r="G449" s="1"/>
-      <c r="H449" s="1"/>
-      <c r="I449" s="1"/>
+      <c r="E449" s="1">
+        <v>1</v>
+      </c>
+      <c r="F449" s="1">
+        <v>0</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
@@ -13390,11 +14071,21 @@
       <c r="D450" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E450" s="1"/>
-      <c r="F450" s="1"/>
-      <c r="G450" s="1"/>
-      <c r="H450" s="1"/>
-      <c r="I450" s="1"/>
+      <c r="E450" s="1">
+        <v>1</v>
+      </c>
+      <c r="F450" s="1">
+        <v>0</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
@@ -13409,11 +14100,21 @@
       <c r="D451" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E451" s="1"/>
-      <c r="F451" s="1"/>
-      <c r="G451" s="1"/>
-      <c r="H451" s="1"/>
-      <c r="I451" s="1"/>
+      <c r="E451" s="1">
+        <v>1</v>
+      </c>
+      <c r="F451" s="1">
+        <v>1</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683367B-28A4-4FE4-B7D6-12CD0CA07B25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61476F1-7C34-4007-9323-26C46B79983D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="671">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2011,6 +2011,33 @@
   </si>
   <si>
     <t>BST</t>
+  </si>
+  <si>
+    <t>greedy, sorting</t>
+  </si>
+  <si>
+    <t>monotonically increasing stack</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>n-base</t>
+  </si>
+  <si>
+    <t>game, minmax</t>
+  </si>
+  <si>
+    <t>random, n-base</t>
+  </si>
+  <si>
+    <t>concatation\compression</t>
+  </si>
+  <si>
+    <t>2D backpack</t>
+  </si>
+  <si>
+    <t>math, palindrome</t>
   </si>
 </sst>
 </file>
@@ -2345,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I451" sqref="I451"/>
+    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A481" sqref="A481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14129,11 +14156,21 @@
       <c r="D452" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E452" s="1"/>
-      <c r="F452" s="1"/>
-      <c r="G452" s="1"/>
-      <c r="H452" s="1"/>
-      <c r="I452" s="1"/>
+      <c r="E452" s="1">
+        <v>1</v>
+      </c>
+      <c r="F452" s="1">
+        <v>0</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
@@ -14148,11 +14185,19 @@
       <c r="D453" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E453" s="1"/>
-      <c r="F453" s="1"/>
+      <c r="E453" s="1">
+        <v>1</v>
+      </c>
+      <c r="F453" s="1">
+        <v>0</v>
+      </c>
       <c r="G453" s="1"/>
-      <c r="H453" s="1"/>
-      <c r="I453" s="1"/>
+      <c r="H453" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
@@ -14167,11 +14212,21 @@
       <c r="D454" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E454" s="1"/>
-      <c r="F454" s="1"/>
-      <c r="G454" s="1"/>
-      <c r="H454" s="1"/>
-      <c r="I454" s="1"/>
+      <c r="E454" s="1">
+        <v>1</v>
+      </c>
+      <c r="F454" s="1">
+        <v>0</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
@@ -14186,11 +14241,19 @@
       <c r="D455" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E455" s="1"/>
-      <c r="F455" s="1"/>
-      <c r="G455" s="1"/>
+      <c r="E455" s="1">
+        <v>1</v>
+      </c>
+      <c r="F455" s="1">
+        <v>1</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="H455" s="1"/>
-      <c r="I455" s="1"/>
+      <c r="I455" s="1" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
@@ -14205,10 +14268,18 @@
       <c r="D456" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E456" s="1"/>
-      <c r="F456" s="1"/>
-      <c r="G456" s="1"/>
-      <c r="H456" s="1"/>
+      <c r="E456" s="1">
+        <v>1</v>
+      </c>
+      <c r="F456" s="1">
+        <v>0</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="I456" s="1"/>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.35">
@@ -14224,11 +14295,21 @@
       <c r="D457" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E457" s="1"/>
-      <c r="F457" s="1"/>
-      <c r="G457" s="1"/>
-      <c r="H457" s="1"/>
-      <c r="I457" s="1"/>
+      <c r="E457" s="1">
+        <v>1</v>
+      </c>
+      <c r="F457" s="1">
+        <v>1</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
@@ -14243,11 +14324,21 @@
       <c r="D458" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E458" s="1"/>
-      <c r="F458" s="1"/>
-      <c r="G458" s="1"/>
-      <c r="H458" s="1"/>
-      <c r="I458" s="1"/>
+      <c r="E458" s="1">
+        <v>1</v>
+      </c>
+      <c r="F458" s="1">
+        <v>1</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
@@ -14262,11 +14353,17 @@
       <c r="D459" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E459" s="1"/>
-      <c r="F459" s="1"/>
+      <c r="E459" s="1">
+        <v>1</v>
+      </c>
+      <c r="F459" s="1">
+        <v>1</v>
+      </c>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
-      <c r="I459" s="1"/>
+      <c r="I459" s="1" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
@@ -14281,11 +14378,21 @@
       <c r="D460" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E460" s="1"/>
-      <c r="F460" s="1"/>
-      <c r="G460" s="1"/>
-      <c r="H460" s="1"/>
-      <c r="I460" s="1"/>
+      <c r="E460" s="1">
+        <v>1</v>
+      </c>
+      <c r="F460" s="1">
+        <v>0</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
@@ -14300,11 +14407,19 @@
       <c r="D461" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E461" s="1"/>
-      <c r="F461" s="1"/>
-      <c r="G461" s="1"/>
+      <c r="E461" s="1">
+        <v>1</v>
+      </c>
+      <c r="F461" s="1">
+        <v>1</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H461" s="1"/>
-      <c r="I461" s="1"/>
+      <c r="I461" s="1" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
@@ -14319,11 +14434,17 @@
       <c r="D462" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E462" s="1"/>
-      <c r="F462" s="1"/>
+      <c r="E462" s="1">
+        <v>1</v>
+      </c>
+      <c r="F462" s="1">
+        <v>0</v>
+      </c>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
-      <c r="I462" s="1"/>
+      <c r="I462" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
@@ -14338,11 +14459,21 @@
       <c r="D463" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E463" s="1"/>
-      <c r="F463" s="1"/>
-      <c r="G463" s="1"/>
-      <c r="H463" s="1"/>
-      <c r="I463" s="1"/>
+      <c r="E463" s="1">
+        <v>1</v>
+      </c>
+      <c r="F463" s="1">
+        <v>0</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
@@ -14357,11 +14488,19 @@
       <c r="D464" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E464" s="1"/>
-      <c r="F464" s="1"/>
-      <c r="G464" s="1"/>
+      <c r="E464" s="1">
+        <v>1</v>
+      </c>
+      <c r="F464" s="1">
+        <v>0</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="H464" s="1"/>
-      <c r="I464" s="1"/>
+      <c r="I464" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
@@ -14376,11 +14515,19 @@
       <c r="D465" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E465" s="1"/>
-      <c r="F465" s="1"/>
+      <c r="E465" s="1">
+        <v>1</v>
+      </c>
+      <c r="F465" s="1">
+        <v>1</v>
+      </c>
       <c r="G465" s="1"/>
-      <c r="H465" s="1"/>
-      <c r="I465" s="1"/>
+      <c r="H465" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
@@ -14395,7 +14542,9 @@
       <c r="D466" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E466" s="1"/>
+      <c r="E466" s="1">
+        <v>0</v>
+      </c>
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
@@ -14414,11 +14563,19 @@
       <c r="D467" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E467" s="1"/>
-      <c r="F467" s="1"/>
-      <c r="G467" s="1"/>
+      <c r="E467" s="1">
+        <v>1</v>
+      </c>
+      <c r="F467" s="1">
+        <v>1</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H467" s="1"/>
-      <c r="I467" s="1"/>
+      <c r="I467" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
@@ -14433,11 +14590,19 @@
       <c r="D468" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E468" s="1"/>
-      <c r="F468" s="1"/>
-      <c r="G468" s="1"/>
+      <c r="E468" s="1">
+        <v>1</v>
+      </c>
+      <c r="F468" s="1">
+        <v>0</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H468" s="1"/>
-      <c r="I468" s="1"/>
+      <c r="I468" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
@@ -14452,11 +14617,19 @@
       <c r="D469" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E469" s="1"/>
-      <c r="F469" s="1"/>
-      <c r="G469" s="1"/>
+      <c r="E469" s="1">
+        <v>1</v>
+      </c>
+      <c r="F469" s="1">
+        <v>0</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H469" s="1"/>
-      <c r="I469" s="1"/>
+      <c r="I469" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
@@ -14471,7 +14644,9 @@
       <c r="D470" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E470" s="1"/>
+      <c r="E470" s="1">
+        <v>0</v>
+      </c>
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
@@ -14490,11 +14665,17 @@
       <c r="D471" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E471" s="1"/>
-      <c r="F471" s="1"/>
+      <c r="E471" s="1">
+        <v>1</v>
+      </c>
+      <c r="F471" s="1">
+        <v>0</v>
+      </c>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
-      <c r="I471" s="1"/>
+      <c r="I471" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
@@ -14509,7 +14690,9 @@
       <c r="D472" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E472" s="1"/>
+      <c r="E472" s="1">
+        <v>0</v>
+      </c>
       <c r="F472" s="1"/>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
@@ -14528,11 +14711,21 @@
       <c r="D473" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E473" s="1"/>
-      <c r="F473" s="1"/>
-      <c r="G473" s="1"/>
-      <c r="H473" s="1"/>
-      <c r="I473" s="1"/>
+      <c r="E473" s="1">
+        <v>1</v>
+      </c>
+      <c r="F473" s="1">
+        <v>1</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
@@ -14547,11 +14740,19 @@
       <c r="D474" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E474" s="1"/>
-      <c r="F474" s="1"/>
+      <c r="E474" s="1">
+        <v>1</v>
+      </c>
+      <c r="F474" s="1">
+        <v>1</v>
+      </c>
       <c r="G474" s="1"/>
-      <c r="H474" s="1"/>
-      <c r="I474" s="1"/>
+      <c r="H474" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
@@ -14566,11 +14767,19 @@
       <c r="D475" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E475" s="1"/>
-      <c r="F475" s="1"/>
+      <c r="E475" s="1">
+        <v>1</v>
+      </c>
+      <c r="F475" s="1">
+        <v>0</v>
+      </c>
       <c r="G475" s="1"/>
-      <c r="H475" s="1"/>
-      <c r="I475" s="1"/>
+      <c r="H475" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
@@ -14585,10 +14794,16 @@
       <c r="D476" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E476" s="1"/>
-      <c r="F476" s="1"/>
+      <c r="E476" s="1">
+        <v>1</v>
+      </c>
+      <c r="F476" s="1">
+        <v>0</v>
+      </c>
       <c r="G476" s="1"/>
-      <c r="H476" s="1"/>
+      <c r="H476" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="I476" s="1"/>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.35">
@@ -14604,11 +14819,17 @@
       <c r="D477" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E477" s="1"/>
-      <c r="F477" s="1"/>
+      <c r="E477" s="1">
+        <v>1</v>
+      </c>
+      <c r="F477" s="1">
+        <v>0</v>
+      </c>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
-      <c r="I477" s="1"/>
+      <c r="I477" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
@@ -14623,11 +14844,17 @@
       <c r="D478" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E478" s="1"/>
-      <c r="F478" s="1"/>
+      <c r="E478" s="1">
+        <v>1</v>
+      </c>
+      <c r="F478" s="1">
+        <v>0</v>
+      </c>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
-      <c r="I478" s="1"/>
+      <c r="I478" s="1" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
@@ -14642,11 +14869,17 @@
       <c r="D479" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E479" s="1"/>
-      <c r="F479" s="1"/>
+      <c r="E479" s="1">
+        <v>1</v>
+      </c>
+      <c r="F479" s="1">
+        <v>0</v>
+      </c>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
-      <c r="I479" s="1"/>
+      <c r="I479" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
@@ -14661,14 +14894,22 @@
       <c r="D480" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E480" s="1"/>
-      <c r="F480" s="1"/>
+      <c r="E480" s="1">
+        <v>1</v>
+      </c>
+      <c r="F480" s="1">
+        <v>1</v>
+      </c>
       <c r="G480" s="1"/>
-      <c r="H480" s="1"/>
-      <c r="I480" s="1"/>
+      <c r="H480" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A481" s="1">
+      <c r="A481" s="3">
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
@@ -14680,11 +14921,21 @@
       <c r="D481" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E481" s="1"/>
-      <c r="F481" s="1"/>
-      <c r="G481" s="1"/>
-      <c r="H481" s="1"/>
-      <c r="I481" s="1"/>
+      <c r="E481" s="1">
+        <v>1</v>
+      </c>
+      <c r="F481" s="1">
+        <v>0</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482" s="1">

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61476F1-7C34-4007-9323-26C46B79983D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B76B94-5020-4335-BA14-6C59E3A98846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="674">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2038,6 +2038,15 @@
   </si>
   <si>
     <t>math, palindrome</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>array, string</t>
+  </si>
+  <si>
+    <t>array, stack</t>
   </si>
 </sst>
 </file>
@@ -2372,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A481" sqref="A481"/>
+    <sheetView tabSelected="1" topLeftCell="A476" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G502" sqref="G502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14950,11 +14959,19 @@
       <c r="D482" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E482" s="1"/>
-      <c r="F482" s="1"/>
-      <c r="G482" s="1"/>
+      <c r="E482" s="1">
+        <v>1</v>
+      </c>
+      <c r="F482" s="1">
+        <v>0</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H482" s="1"/>
-      <c r="I482" s="1"/>
+      <c r="I482" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
@@ -14969,11 +14986,19 @@
       <c r="D483" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E483" s="1"/>
-      <c r="F483" s="1"/>
-      <c r="G483" s="1"/>
+      <c r="E483" s="1">
+        <v>1</v>
+      </c>
+      <c r="F483" s="1">
+        <v>0</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H483" s="1"/>
-      <c r="I483" s="1"/>
+      <c r="I483" s="1" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
@@ -14988,11 +15013,17 @@
       <c r="D484" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E484" s="1"/>
-      <c r="F484" s="1"/>
+      <c r="E484" s="1">
+        <v>1</v>
+      </c>
+      <c r="F484" s="1">
+        <v>1</v>
+      </c>
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
-      <c r="I484" s="1"/>
+      <c r="I484" s="1" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
@@ -15007,7 +15038,9 @@
       <c r="D485" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E485" s="1"/>
+      <c r="E485" s="1">
+        <v>0</v>
+      </c>
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
@@ -15026,11 +15059,19 @@
       <c r="D486" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E486" s="1"/>
-      <c r="F486" s="1"/>
-      <c r="G486" s="1"/>
+      <c r="E486" s="1">
+        <v>1</v>
+      </c>
+      <c r="F486" s="1">
+        <v>0</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="H486" s="1"/>
-      <c r="I486" s="1"/>
+      <c r="I486" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
@@ -15045,11 +15086,19 @@
       <c r="D487" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E487" s="1"/>
-      <c r="F487" s="1"/>
+      <c r="E487" s="1">
+        <v>1</v>
+      </c>
+      <c r="F487" s="1">
+        <v>0</v>
+      </c>
       <c r="G487" s="1"/>
-      <c r="H487" s="1"/>
-      <c r="I487" s="1"/>
+      <c r="H487" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
@@ -15064,7 +15113,9 @@
       <c r="D488" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E488" s="1"/>
+      <c r="E488" s="1">
+        <v>0</v>
+      </c>
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
@@ -15083,11 +15134,19 @@
       <c r="D489" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E489" s="1"/>
-      <c r="F489" s="1"/>
+      <c r="E489" s="1">
+        <v>1</v>
+      </c>
+      <c r="F489" s="1">
+        <v>1</v>
+      </c>
       <c r="G489" s="1"/>
-      <c r="H489" s="1"/>
-      <c r="I489" s="1"/>
+      <c r="H489" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
@@ -15102,7 +15161,9 @@
       <c r="D490" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E490" s="1"/>
+      <c r="E490" s="1">
+        <v>0</v>
+      </c>
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
@@ -15121,7 +15182,9 @@
       <c r="D491" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E491" s="1"/>
+      <c r="E491" s="1">
+        <v>0</v>
+      </c>
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
@@ -15140,11 +15203,21 @@
       <c r="D492" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E492" s="1"/>
-      <c r="F492" s="1"/>
-      <c r="G492" s="1"/>
-      <c r="H492" s="1"/>
-      <c r="I492" s="1"/>
+      <c r="E492" s="1">
+        <v>1</v>
+      </c>
+      <c r="F492" s="1">
+        <v>1</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
@@ -15159,11 +15232,19 @@
       <c r="D493" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E493" s="1"/>
-      <c r="F493" s="1"/>
+      <c r="E493" s="1">
+        <v>1</v>
+      </c>
+      <c r="F493" s="1">
+        <v>0</v>
+      </c>
       <c r="G493" s="1"/>
-      <c r="H493" s="1"/>
-      <c r="I493" s="1"/>
+      <c r="H493" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
@@ -15178,10 +15259,16 @@
       <c r="D494" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E494" s="1"/>
-      <c r="F494" s="1"/>
+      <c r="E494" s="1">
+        <v>1</v>
+      </c>
+      <c r="F494" s="1">
+        <v>0</v>
+      </c>
       <c r="G494" s="1"/>
-      <c r="H494" s="1"/>
+      <c r="H494" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="I494" s="1"/>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.35">
@@ -15197,11 +15284,19 @@
       <c r="D495" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E495" s="1"/>
-      <c r="F495" s="1"/>
+      <c r="E495" s="1">
+        <v>1</v>
+      </c>
+      <c r="F495" s="1">
+        <v>1</v>
+      </c>
       <c r="G495" s="1"/>
-      <c r="H495" s="1"/>
-      <c r="I495" s="1"/>
+      <c r="H495" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
@@ -15216,11 +15311,17 @@
       <c r="D496" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E496" s="1"/>
-      <c r="F496" s="1"/>
+      <c r="E496" s="1">
+        <v>1</v>
+      </c>
+      <c r="F496" s="1">
+        <v>0</v>
+      </c>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
-      <c r="I496" s="1"/>
+      <c r="I496" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
@@ -15235,11 +15336,19 @@
       <c r="D497" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E497" s="1"/>
-      <c r="F497" s="1"/>
-      <c r="G497" s="1"/>
+      <c r="E497" s="1">
+        <v>1</v>
+      </c>
+      <c r="F497" s="1">
+        <v>0</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>673</v>
+      </c>
       <c r="H497" s="1"/>
-      <c r="I497" s="1"/>
+      <c r="I497" s="1" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
@@ -15254,11 +15363,17 @@
       <c r="D498" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E498" s="1"/>
-      <c r="F498" s="1"/>
+      <c r="E498" s="1">
+        <v>1</v>
+      </c>
+      <c r="F498" s="1">
+        <v>0</v>
+      </c>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
-      <c r="I498" s="1"/>
+      <c r="I498" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
@@ -15273,11 +15388,19 @@
       <c r="D499" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E499" s="1"/>
-      <c r="F499" s="1"/>
-      <c r="G499" s="1"/>
+      <c r="E499" s="1">
+        <v>1</v>
+      </c>
+      <c r="F499" s="1">
+        <v>0</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="H499" s="1"/>
-      <c r="I499" s="1"/>
+      <c r="I499" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
@@ -15292,7 +15415,9 @@
       <c r="D500" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E500" s="1"/>
+      <c r="E500" s="1">
+        <v>0</v>
+      </c>
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
@@ -15311,9 +15436,15 @@
       <c r="D501" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
+      <c r="E501" s="1">
+        <v>1</v>
+      </c>
+      <c r="F501" s="1">
+        <v>0</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
     </row>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FE5E5-E343-4A2F-A386-0A38FE6C0B5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157332EE-29D3-47EB-8D24-5E01F4F8B9A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,26 +16,26 @@
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
     <sheet name="array" sheetId="12" r:id="rId2"/>
     <sheet name="binary search" sheetId="16" r:id="rId3"/>
-    <sheet name="greedy" sheetId="28" r:id="rId4"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId5"/>
-    <sheet name="if-else" sheetId="26" r:id="rId6"/>
-    <sheet name="string" sheetId="25" r:id="rId7"/>
-    <sheet name="games" sheetId="24" r:id="rId8"/>
-    <sheet name="graph" sheetId="23" r:id="rId9"/>
-    <sheet name="divide and conquer" sheetId="22" r:id="rId10"/>
-    <sheet name="2D array" sheetId="21" r:id="rId11"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId12"/>
-    <sheet name="intervals" sheetId="19" r:id="rId13"/>
-    <sheet name="DFS" sheetId="18" r:id="rId14"/>
-    <sheet name="DP" sheetId="17" r:id="rId15"/>
-    <sheet name="sorting" sheetId="29" r:id="rId16"/>
-    <sheet name="string matching" sheetId="15" r:id="rId17"/>
-    <sheet name="linked list" sheetId="13" r:id="rId18"/>
-    <sheet name="random" sheetId="14" r:id="rId19"/>
-    <sheet name="data structure" sheetId="11" r:id="rId20"/>
-    <sheet name="tree" sheetId="10" r:id="rId21"/>
-    <sheet name="bitwise" sheetId="9" r:id="rId22"/>
-    <sheet name="calculator" sheetId="8" r:id="rId23"/>
+    <sheet name="calculator" sheetId="8" r:id="rId4"/>
+    <sheet name="greedy" sheetId="28" r:id="rId5"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId6"/>
+    <sheet name="if-else" sheetId="26" r:id="rId7"/>
+    <sheet name="string" sheetId="25" r:id="rId8"/>
+    <sheet name="games" sheetId="24" r:id="rId9"/>
+    <sheet name="graph" sheetId="23" r:id="rId10"/>
+    <sheet name="divide and conquer" sheetId="22" r:id="rId11"/>
+    <sheet name="2D array" sheetId="21" r:id="rId12"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId13"/>
+    <sheet name="intervals" sheetId="19" r:id="rId14"/>
+    <sheet name="DFS" sheetId="18" r:id="rId15"/>
+    <sheet name="DP" sheetId="17" r:id="rId16"/>
+    <sheet name="sorting" sheetId="29" r:id="rId17"/>
+    <sheet name="string matching" sheetId="15" r:id="rId18"/>
+    <sheet name="linked list" sheetId="13" r:id="rId19"/>
+    <sheet name="random" sheetId="14" r:id="rId20"/>
+    <sheet name="data structure" sheetId="11" r:id="rId21"/>
+    <sheet name="tree" sheetId="10" r:id="rId22"/>
+    <sheet name="bitwise" sheetId="9" r:id="rId23"/>
     <sheet name="traverse path" sheetId="7" r:id="rId24"/>
     <sheet name="palindrome" sheetId="6" r:id="rId25"/>
     <sheet name="n-sum" sheetId="5" r:id="rId26"/>
@@ -15485,6 +15485,193 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>149</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE9DBF-3FE1-4056-A754-238EFF6B136F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -15672,7 +15859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -16044,7 +16231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -16463,7 +16650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -16696,7 +16883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D433E70-0136-4AB1-AD71-269DC180DCBE}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -17434,7 +17621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -18419,7 +18606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -18709,7 +18896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -19290,7 +19477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -19952,183 +20139,6 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>528</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="40.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="28.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>382</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>497</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>470</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>479</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>493</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -21037,6 +21047,183 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="28.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>382</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>497</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>470</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>479</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>493</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2765C-8293-4C73-BE76-6DA6D9D8C888}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -21429,7 +21616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -22740,7 +22927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6CFFAA-30D1-4F58-A162-5032C20FC4CE}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -23044,508 +23231,6 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>599</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E69DBD-79A3-4365-85B7-5107A40D5EBC}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="27.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>150</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>224</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>227</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>282</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>306</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>371</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>372</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>415</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>445</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>373</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -26379,10 +26064,513 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E69DBD-79A3-4365-85B7-5107A40D5EBC}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="27.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>371</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>415</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>445</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>166</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>372</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>150</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>224</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>227</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>282</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>306</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -26642,7 +26830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -26996,7 +27184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -27253,7 +27441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -27694,7 +27882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -27796,191 +27984,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>138</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>149</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.317</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>151</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.504</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>162</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,32 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157332EE-29D3-47EB-8D24-5E01F4F8B9A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F593C1-3718-4C44-A53A-CA46FD3F7F02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
     <sheet name="array" sheetId="12" r:id="rId2"/>
     <sheet name="binary search" sheetId="16" r:id="rId3"/>
     <sheet name="calculator" sheetId="8" r:id="rId4"/>
-    <sheet name="greedy" sheetId="28" r:id="rId5"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId6"/>
-    <sheet name="if-else" sheetId="26" r:id="rId7"/>
-    <sheet name="string" sheetId="25" r:id="rId8"/>
-    <sheet name="games" sheetId="24" r:id="rId9"/>
-    <sheet name="graph" sheetId="23" r:id="rId10"/>
-    <sheet name="divide and conquer" sheetId="22" r:id="rId11"/>
-    <sheet name="2D array" sheetId="21" r:id="rId12"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId13"/>
-    <sheet name="intervals" sheetId="19" r:id="rId14"/>
-    <sheet name="DFS" sheetId="18" r:id="rId15"/>
-    <sheet name="DP" sheetId="17" r:id="rId16"/>
-    <sheet name="sorting" sheetId="29" r:id="rId17"/>
-    <sheet name="string matching" sheetId="15" r:id="rId18"/>
-    <sheet name="linked list" sheetId="13" r:id="rId19"/>
-    <sheet name="random" sheetId="14" r:id="rId20"/>
-    <sheet name="data structure" sheetId="11" r:id="rId21"/>
+    <sheet name="data structure" sheetId="11" r:id="rId5"/>
+    <sheet name="greedy" sheetId="28" r:id="rId6"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId7"/>
+    <sheet name="if-else" sheetId="26" r:id="rId8"/>
+    <sheet name="string" sheetId="25" r:id="rId9"/>
+    <sheet name="games" sheetId="24" r:id="rId10"/>
+    <sheet name="graph" sheetId="23" r:id="rId11"/>
+    <sheet name="divide and conquer" sheetId="22" r:id="rId12"/>
+    <sheet name="2D array" sheetId="21" r:id="rId13"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId14"/>
+    <sheet name="intervals" sheetId="19" r:id="rId15"/>
+    <sheet name="DFS" sheetId="18" r:id="rId16"/>
+    <sheet name="DP" sheetId="17" r:id="rId17"/>
+    <sheet name="sorting" sheetId="29" r:id="rId18"/>
+    <sheet name="string matching" sheetId="15" r:id="rId19"/>
+    <sheet name="linked list" sheetId="13" r:id="rId20"/>
+    <sheet name="random" sheetId="14" r:id="rId21"/>
     <sheet name="tree" sheetId="10" r:id="rId22"/>
     <sheet name="bitwise" sheetId="9" r:id="rId23"/>
     <sheet name="traverse path" sheetId="7" r:id="rId24"/>
@@ -2408,7 +2408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A130" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
@@ -15485,6 +15485,110 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="8" max="8" width="31.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>455</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>464</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -15671,7 +15775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE9DBF-3FE1-4056-A754-238EFF6B136F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -15859,7 +15963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -16231,7 +16335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -16650,7 +16754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -16883,7 +16987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D433E70-0136-4AB1-AD71-269DC180DCBE}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -17621,7 +17725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -18606,7 +18710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -18896,7 +19000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -19470,675 +19574,6 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>541</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="50.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>83</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>92</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>143</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>147</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>148</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>203</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>206</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>237</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>328</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>430</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>141</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>142</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>160</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>368</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>187</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -21047,6 +20482,675 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="50.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.379</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>143</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>147</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>148</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>203</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>206</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>237</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>328</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>430</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>141</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>160</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>368</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>187</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -21219,399 +21323,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2765C-8293-4C73-BE76-6DA6D9D8C888}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="27.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>146</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.318</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>155</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.433</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>225</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.437</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>232</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>284</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.443</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>295</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>341</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>355</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>380</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>381</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>384</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>432</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.317</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>460</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26067,7 +25778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E69DBD-79A3-4365-85B7-5107A40D5EBC}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -26567,6 +26278,399 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2765C-8293-4C73-BE76-6DA6D9D8C888}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="27.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>225</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.437</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>232</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>295</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>146</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>460</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>155</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>432</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>380</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>381</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>384</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>284</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.443</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>341</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>355</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I14">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -26830,7 +26934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -27184,7 +27288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -27441,7 +27545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -27880,108 +27984,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.81640625" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
-    <col min="8" max="8" width="31.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>455</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>464</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,34 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F593C1-3718-4C44-A53A-CA46FD3F7F02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A5FCF-D7C3-464B-95B4-437282082303}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
     <sheet name="array" sheetId="12" r:id="rId2"/>
     <sheet name="binary search" sheetId="16" r:id="rId3"/>
-    <sheet name="calculator" sheetId="8" r:id="rId4"/>
-    <sheet name="data structure" sheetId="11" r:id="rId5"/>
-    <sheet name="greedy" sheetId="28" r:id="rId6"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId7"/>
-    <sheet name="if-else" sheetId="26" r:id="rId8"/>
-    <sheet name="string" sheetId="25" r:id="rId9"/>
-    <sheet name="games" sheetId="24" r:id="rId10"/>
-    <sheet name="graph" sheetId="23" r:id="rId11"/>
-    <sheet name="divide and conquer" sheetId="22" r:id="rId12"/>
-    <sheet name="2D array" sheetId="21" r:id="rId13"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId14"/>
-    <sheet name="intervals" sheetId="19" r:id="rId15"/>
-    <sheet name="DFS" sheetId="18" r:id="rId16"/>
-    <sheet name="DP" sheetId="17" r:id="rId17"/>
-    <sheet name="sorting" sheetId="29" r:id="rId18"/>
-    <sheet name="string matching" sheetId="15" r:id="rId19"/>
-    <sheet name="linked list" sheetId="13" r:id="rId20"/>
-    <sheet name="random" sheetId="14" r:id="rId21"/>
-    <sheet name="tree" sheetId="10" r:id="rId22"/>
-    <sheet name="bitwise" sheetId="9" r:id="rId23"/>
+    <sheet name="bitwise" sheetId="9" r:id="rId4"/>
+    <sheet name="calculator" sheetId="8" r:id="rId5"/>
+    <sheet name="data structure" sheetId="11" r:id="rId6"/>
+    <sheet name="divide and conquer" sheetId="22" r:id="rId7"/>
+    <sheet name="greedy" sheetId="28" r:id="rId8"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId9"/>
+    <sheet name="if-else" sheetId="26" r:id="rId10"/>
+    <sheet name="string" sheetId="25" r:id="rId11"/>
+    <sheet name="games" sheetId="24" r:id="rId12"/>
+    <sheet name="graph" sheetId="23" r:id="rId13"/>
+    <sheet name="2D array" sheetId="21" r:id="rId14"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId15"/>
+    <sheet name="intervals" sheetId="19" r:id="rId16"/>
+    <sheet name="DFS" sheetId="18" r:id="rId17"/>
+    <sheet name="DP" sheetId="17" r:id="rId18"/>
+    <sheet name="sorting" sheetId="29" r:id="rId19"/>
+    <sheet name="string matching" sheetId="15" r:id="rId20"/>
+    <sheet name="linked list" sheetId="13" r:id="rId21"/>
+    <sheet name="random" sheetId="14" r:id="rId22"/>
+    <sheet name="tree" sheetId="10" r:id="rId23"/>
     <sheet name="traverse path" sheetId="7" r:id="rId24"/>
     <sheet name="palindrome" sheetId="6" r:id="rId25"/>
     <sheet name="n-sum" sheetId="5" r:id="rId26"/>
@@ -15485,6 +15485,704 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>310</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>350</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>354</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>388</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>412</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>478</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>483</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>300</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>215</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>399</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>260</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>273</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>387</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>393</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>394</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>164</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>218</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>357</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>347</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>303</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>268</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>385</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -15588,7 +16286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -15775,195 +16473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE9DBF-3FE1-4056-A754-238EFF6B136F}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="50.08984375" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" customWidth="1"/>
-    <col min="9" max="9" width="29.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>443</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.246</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>330</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -16335,7 +16845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -16754,7 +17264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -16987,7 +17497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D433E70-0136-4AB1-AD71-269DC180DCBE}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -17725,7 +18235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
   <dimension ref="A1:I46"/>
   <sheetViews>
@@ -18710,7 +19220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -18993,587 +19503,6 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="42.6328125" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>72</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>87</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>115</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>126</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>127</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>205</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>211</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>242</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>290</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>299</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>383</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>389</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>392</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>433</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>466</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>467</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -20482,6 +20411,587 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="42.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>205</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>211</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>242</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>290</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>299</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>383</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>389</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>392</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>433</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>466</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>467</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -21150,7 +21660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -21327,7 +21837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -22631,317 +23141,6 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>603</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6CFFAA-30D1-4F58-A162-5032C20FC4CE}">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="50.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" customWidth="1"/>
-    <col min="9" max="9" width="28.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>338</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>318</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>401</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>421</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>461</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>476</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>477</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>191</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>201</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>190</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -25775,6 +25974,317 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6CFFAA-30D1-4F58-A162-5032C20FC4CE}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="45.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" customWidth="1"/>
+    <col min="9" max="9" width="28.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>476</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>190</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>191</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>338</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>201</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>401</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>461</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>477</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>421</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>318</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E69DBD-79A3-4365-85B7-5107A40D5EBC}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -26277,11 +26787,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2765C-8293-4C73-BE76-6DA6D9D8C888}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -26670,7 +27180,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE9DBF-3FE1-4056-A754-238EFF6B136F}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="50.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>443</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>330</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -26934,7 +27632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -27286,702 +27984,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>310</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>350</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>354</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>388</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>412</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>478</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.372</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>483</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>300</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>210</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>215</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>399</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>260</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>273</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>387</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>393</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>394</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>164</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>218</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.317</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>357</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>347</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>303</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>268</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>385</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06A5FCF-D7C3-464B-95B4-437282082303}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2694D6FA-4A10-40E4-8520-0392E285AF0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,16 @@
     <sheet name="calculator" sheetId="8" r:id="rId5"/>
     <sheet name="data structure" sheetId="11" r:id="rId6"/>
     <sheet name="divide and conquer" sheetId="22" r:id="rId7"/>
-    <sheet name="greedy" sheetId="28" r:id="rId8"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId9"/>
-    <sheet name="if-else" sheetId="26" r:id="rId10"/>
-    <sheet name="string" sheetId="25" r:id="rId11"/>
-    <sheet name="games" sheetId="24" r:id="rId12"/>
-    <sheet name="graph" sheetId="23" r:id="rId13"/>
-    <sheet name="2D array" sheetId="21" r:id="rId14"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId15"/>
-    <sheet name="intervals" sheetId="19" r:id="rId16"/>
-    <sheet name="DFS" sheetId="18" r:id="rId17"/>
+    <sheet name="DFS" sheetId="18" r:id="rId8"/>
+    <sheet name="greedy" sheetId="28" r:id="rId9"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId10"/>
+    <sheet name="if-else" sheetId="26" r:id="rId11"/>
+    <sheet name="string" sheetId="25" r:id="rId12"/>
+    <sheet name="games" sheetId="24" r:id="rId13"/>
+    <sheet name="graph" sheetId="23" r:id="rId14"/>
+    <sheet name="2D array" sheetId="21" r:id="rId15"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId16"/>
+    <sheet name="intervals" sheetId="19" r:id="rId17"/>
     <sheet name="DP" sheetId="17" r:id="rId18"/>
     <sheet name="sorting" sheetId="29" r:id="rId19"/>
     <sheet name="string matching" sheetId="15" r:id="rId20"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="675">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2074,6 +2074,9 @@
   </si>
   <si>
     <t>array, stack</t>
+  </si>
+  <si>
+    <t>merge already-sorted</t>
   </si>
 </sst>
 </file>
@@ -2408,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView topLeftCell="A118" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15485,6 +15488,360 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="75.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="36.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>133</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>274</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.437</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>292</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>321</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>324</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>327</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>334</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>349</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>386</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>468</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>475</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -15741,7 +16098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -16182,7 +16539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -16286,7 +16643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -16473,7 +16830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -16845,7 +17202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -17264,7 +17621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -17497,750 +17854,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D433E70-0136-4AB1-AD71-269DC180DCBE}">
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="44.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>77</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>78</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>79</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>90</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>93</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>212</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>216</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>301</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>332</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>403</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>416</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>472</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>488</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>397</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>241</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>473</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.371</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>329</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>140</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18478,33 +18097,6 @@
         <v>548</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>377</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>413</v>
@@ -18780,35 +18372,6 @@
       </c>
       <c r="I22" s="1" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>139</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -19512,10 +19075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19611,233 +19174,235 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>347</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>268</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="C8" s="2">
-        <v>0.312</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>448</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>0.55500000000000005</v>
+        <v>0.312</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>659</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>660</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
+        <v>448</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>128</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>0.443</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>169</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>612</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2">
-        <v>0.34699999999999998</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>349</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>635</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>229</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C16" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -19849,52 +19414,52 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>136</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>514</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>350</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2">
-        <v>0.49299999999999999</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -19904,7 +19469,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>514</v>
@@ -19912,13 +19477,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -19929,50 +19494,50 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>217</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>260</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>607</v>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
+        <v>217</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C23" s="2">
-        <v>0.371</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -19984,7 +19549,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>610</v>
+        <v>508</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
@@ -19993,16 +19558,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2">
-        <v>0.20699999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -20011,24 +19576,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -20037,13 +19600,13 @@
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>607</v>
@@ -20051,13 +19614,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>442</v>
+        <v>287</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -20066,28 +19629,30 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>442</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>444</v>
       </c>
       <c r="C27" s="2">
-        <v>0.441</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -20098,132 +19663,132 @@
       <c r="G27" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>524</v>
-      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>532</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>0.43099999999999999</v>
+        <v>0.441</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>316</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>303</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2">
-        <v>0.371</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -20232,49 +19797,52 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>304</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>162</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C36" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -20288,29 +19856,26 @@
       <c r="G36" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="C37" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>516</v>
@@ -20318,19 +19883,17 @@
       <c r="H37" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -20342,66 +19905,95 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>407</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>456</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
+        <v>456</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>496</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C42" s="2">
         <v>0.628</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -24274,8 +23866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25376,60 +24968,6 @@
       </c>
       <c r="I67" s="1" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>8</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>406</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -27182,16 +26720,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30AE9DBF-3FE1-4056-A754-238EFF6B136F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.08984375" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="48.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="7" max="7" width="33.453125" customWidth="1"/>
     <col min="8" max="8" width="25.1796875" customWidth="1"/>
     <col min="9" max="9" width="29.7265625" customWidth="1"/>
@@ -27228,16 +26766,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="C2" s="2">
-        <v>0.34599999999999997</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -27246,43 +26784,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>560</v>
+        <v>643</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>443</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>537</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>503</v>
+      <c r="A4" s="1">
+        <v>493</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>495</v>
@@ -27303,65 +26816,63 @@
       <c r="H4" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>330</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>327</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="H5" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>218</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27369,11 +26880,836 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D433E70-0136-4AB1-AD71-269DC180DCBE}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="42.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" customWidth="1"/>
+    <col min="8" max="9" width="28.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>332</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>488</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>301</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>397</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>377</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>416</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>473</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>139</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>140</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>472</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>212</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>329</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27468,6 +27804,33 @@
         <v>543</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>403</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>420</v>
@@ -27625,360 +27988,6 @@
       </c>
       <c r="H14" s="1" t="s">
         <v>630</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="75.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="36.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>133</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>274</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.437</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>292</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>321</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>324</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>327</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>334</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>349</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>386</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>468</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>475</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2694D6FA-4A10-40E4-8520-0392E285AF0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7ABD06-1E2C-4DCB-AECE-218A600501E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,16 +21,16 @@
     <sheet name="data structure" sheetId="11" r:id="rId6"/>
     <sheet name="divide and conquer" sheetId="22" r:id="rId7"/>
     <sheet name="DFS" sheetId="18" r:id="rId8"/>
-    <sheet name="greedy" sheetId="28" r:id="rId9"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId10"/>
-    <sheet name="if-else" sheetId="26" r:id="rId11"/>
-    <sheet name="string" sheetId="25" r:id="rId12"/>
-    <sheet name="games" sheetId="24" r:id="rId13"/>
-    <sheet name="graph" sheetId="23" r:id="rId14"/>
-    <sheet name="2D array" sheetId="21" r:id="rId15"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId16"/>
-    <sheet name="intervals" sheetId="19" r:id="rId17"/>
-    <sheet name="DP" sheetId="17" r:id="rId18"/>
+    <sheet name="DP" sheetId="17" r:id="rId9"/>
+    <sheet name="greedy" sheetId="28" r:id="rId10"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId11"/>
+    <sheet name="if-else" sheetId="26" r:id="rId12"/>
+    <sheet name="string" sheetId="25" r:id="rId13"/>
+    <sheet name="games" sheetId="24" r:id="rId14"/>
+    <sheet name="graph" sheetId="23" r:id="rId15"/>
+    <sheet name="2D array" sheetId="21" r:id="rId16"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId17"/>
+    <sheet name="intervals" sheetId="19" r:id="rId18"/>
     <sheet name="sorting" sheetId="29" r:id="rId19"/>
     <sheet name="string matching" sheetId="15" r:id="rId20"/>
     <sheet name="linked list" sheetId="13" r:id="rId21"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="677">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2077,6 +2077,12 @@
   </si>
   <si>
     <t>merge already-sorted</t>
+  </si>
+  <si>
+    <t>377 Combination Sum IV</t>
+  </si>
+  <si>
+    <t>322 Coin change</t>
   </si>
 </sst>
 </file>
@@ -2411,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+    <sheetView topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15488,6 +15494,297 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="34.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>402</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>405</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>403</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>420</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.308</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>395</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>238</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -15841,7 +16138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -16098,7 +16395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -16539,12 +16836,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16553,6 +16850,7 @@
     <col min="3" max="3" width="31.36328125" customWidth="1"/>
     <col min="7" max="7" width="33.453125" customWidth="1"/>
     <col min="8" max="8" width="31.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -16638,12 +16936,118 @@
         <v>666</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>486</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>312</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>374</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>375</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -16830,12 +17234,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16924,33 +17328,6 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>73</v>
@@ -17202,7 +17579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -17621,7 +17998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -17847,935 +18224,6 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>549</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
-  <dimension ref="A1:I46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="48.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30.90625" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>121</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.499</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>122</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>123</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>188</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>309</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>322</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>376</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>413</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>446</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>474</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>486</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>494</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>64</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>91</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>120</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>152</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.311</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>174</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>279</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>312</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>459</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>84</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>208</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>414</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.373</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>198</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>213</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>229</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>85</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>221</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>374</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>375</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -21434,7 +20882,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21964,35 +21412,6 @@
       </c>
       <c r="I20" s="1" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>337</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.501</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -23866,8 +23285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24069,56 +23488,6 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>118</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>119</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -26881,10 +26250,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D433E70-0136-4AB1-AD71-269DC180DCBE}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26894,9 +26263,10 @@
     <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="18.6328125" customWidth="1"/>
     <col min="8" max="9" width="28.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -26925,7 +26295,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>93</v>
       </c>
@@ -26952,7 +26322,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>332</v>
       </c>
@@ -26979,7 +26349,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>488</v>
       </c>
@@ -27006,7 +26376,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>301</v>
       </c>
@@ -27033,7 +26403,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>241</v>
       </c>
@@ -27062,7 +26432,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>397</v>
       </c>
@@ -27087,7 +26457,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>78</v>
       </c>
@@ -27114,7 +26484,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -27141,7 +26511,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>77</v>
       </c>
@@ -27168,7 +26538,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39</v>
       </c>
@@ -27195,7 +26565,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -27222,7 +26592,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>216</v>
       </c>
@@ -27249,7 +26619,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>377</v>
       </c>
@@ -27274,6 +26644,9 @@
       </c>
       <c r="I16" s="1" t="s">
         <v>640</v>
+      </c>
+      <c r="J16" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -27705,20 +27078,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="34.26953125" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="48.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="30.90625" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -27752,43 +27126,45 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>402</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.499</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>542</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>405</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2">
-        <v>0.34200000000000003</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -27796,23 +27172,25 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>542</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>403</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38900000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -27823,74 +27201,106 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>543</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>420</v>
+        <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="C6" s="2">
-        <v>0.308</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>376</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>80</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2">
-        <v>0.497</v>
+        <v>0.373</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -27901,51 +27311,103 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>516</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>152</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2">
-        <v>0.34200000000000003</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>213</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>542</v>
+      <c r="H12" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="C13" s="2">
-        <v>0.27600000000000002</v>
+        <v>0.501</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -27957,40 +27419,596 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>642</v>
+        <v>563</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>238</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>491</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>368</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>413</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>446</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>322</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J24" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>279</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>494</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>474</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>630</v>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>221</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>118</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>119</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>120</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>62</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>174</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7ABD06-1E2C-4DCB-AECE-218A600501E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D39A2F3-29EC-49CD-8884-6242A1FD267B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <sheet name="divide and conquer" sheetId="22" r:id="rId7"/>
     <sheet name="DFS" sheetId="18" r:id="rId8"/>
     <sheet name="DP" sheetId="17" r:id="rId9"/>
-    <sheet name="greedy" sheetId="28" r:id="rId10"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId11"/>
-    <sheet name="if-else" sheetId="26" r:id="rId12"/>
-    <sheet name="string" sheetId="25" r:id="rId13"/>
-    <sheet name="games" sheetId="24" r:id="rId14"/>
-    <sheet name="graph" sheetId="23" r:id="rId15"/>
+    <sheet name="games" sheetId="24" r:id="rId10"/>
+    <sheet name="graph" sheetId="23" r:id="rId11"/>
+    <sheet name="greedy" sheetId="28" r:id="rId12"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId13"/>
+    <sheet name="if-else" sheetId="26" r:id="rId14"/>
+    <sheet name="string" sheetId="25" r:id="rId15"/>
     <sheet name="2D array" sheetId="21" r:id="rId16"/>
     <sheet name="two pointers" sheetId="20" r:id="rId17"/>
     <sheet name="intervals" sheetId="19" r:id="rId18"/>
@@ -15494,6 +15494,438 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="7" max="7" width="33.453125" customWidth="1"/>
+    <col min="8" max="8" width="31.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>292</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>374</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>375</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>464</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>486</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>312</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>133</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>399</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.504</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>207</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>210</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>310</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -15784,7 +16216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -16138,7 +16570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -16395,7 +16827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -16830,404 +17262,6 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.81640625" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="7" max="7" width="33.453125" customWidth="1"/>
-    <col min="8" max="8" width="31.90625" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>455</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>464</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>486</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>312</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>374</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>375</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>138</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>149</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.317</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>151</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.504</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>162</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>580</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20036,7 +20070,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20639,33 +20673,6 @@
       </c>
       <c r="H22" s="1" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>368</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -27081,7 +27088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD40"/>
     </sheetView>
   </sheetViews>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D39A2F3-29EC-49CD-8884-6242A1FD267B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704B17A-6E8B-42DD-AB68-0CE2879E0B33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="games" sheetId="24" r:id="rId10"/>
     <sheet name="graph" sheetId="23" r:id="rId11"/>
     <sheet name="greedy" sheetId="28" r:id="rId12"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId13"/>
-    <sheet name="if-else" sheetId="26" r:id="rId14"/>
-    <sheet name="string" sheetId="25" r:id="rId15"/>
-    <sheet name="2D array" sheetId="21" r:id="rId16"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId17"/>
-    <sheet name="intervals" sheetId="19" r:id="rId18"/>
+    <sheet name="intervals" sheetId="19" r:id="rId13"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId14"/>
+    <sheet name="if-else" sheetId="26" r:id="rId15"/>
+    <sheet name="string" sheetId="25" r:id="rId16"/>
+    <sheet name="2D array" sheetId="21" r:id="rId17"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId18"/>
     <sheet name="sorting" sheetId="29" r:id="rId19"/>
     <sheet name="string matching" sheetId="15" r:id="rId20"/>
     <sheet name="linked list" sheetId="13" r:id="rId21"/>
@@ -15708,7 +15708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -15927,10 +15927,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15973,22 +15973,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>402</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
@@ -16000,22 +16000,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
-        <v>0.34200000000000003</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
@@ -16027,13 +16027,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38900000000000001</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -16044,50 +16044,52 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H4" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>403</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>420</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.308</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>457</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2">
-        <v>0.495</v>
+        <v>0.308</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -16095,26 +16097,23 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>516</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>542</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="C9" s="2">
-        <v>0.497</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -16123,24 +16122,51 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>516</v>
+        <v>628</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>539</v>
-      </c>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>402</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>58</v>
+        <v>321</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C11" s="2">
-        <v>0.34200000000000003</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -16152,62 +16178,9 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>395</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>238</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H14" s="1" t="s">
         <v>630</v>
       </c>
     </row>
@@ -16217,6 +16190,239 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="51.1796875" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>228</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>352</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>435</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>452</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>495</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -16570,7 +16776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -16827,7 +17033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -17268,7 +17474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -17613,12 +17819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18032,245 +18238,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
-  <dimension ref="A1:I8"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="51.1796875" customWidth="1"/>
-    <col min="8" max="8" width="31.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>56</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>228</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>352</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>435</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>452</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>495</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18335,30 +18308,6 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>491</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>23</v>
@@ -18415,30 +18364,6 @@
         <v>589</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>456</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>65</v>
@@ -18549,6 +18474,81 @@
       <c r="I13" s="1" t="s">
         <v>548</v>
       </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>491</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>456</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>455</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18559,8 +18559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19206,71 +19206,69 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>316</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>629</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>303</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2">
-        <v>0.43</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>3</v>
@@ -19279,52 +19277,49 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>304</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.371</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
         <v>625</v>
       </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="C36" s="2">
-        <v>0.42899999999999999</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -19338,17 +19333,20 @@
       <c r="G36" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.497</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -19357,15 +19355,17 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I37" s="1"/>
+        <v>525</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -24892,7 +24892,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27088,7 +27088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:XFD40"/>
     </sheetView>
   </sheetViews>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704B17A-6E8B-42DD-AB68-0CE2879E0B33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122F4D7-30EF-45A3-AF18-407D6BE016C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,14 @@
     <sheet name="graph" sheetId="23" r:id="rId11"/>
     <sheet name="greedy" sheetId="28" r:id="rId12"/>
     <sheet name="intervals" sheetId="19" r:id="rId13"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId14"/>
-    <sheet name="if-else" sheetId="26" r:id="rId15"/>
-    <sheet name="string" sheetId="25" r:id="rId16"/>
-    <sheet name="2D array" sheetId="21" r:id="rId17"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId18"/>
-    <sheet name="sorting" sheetId="29" r:id="rId19"/>
-    <sheet name="string matching" sheetId="15" r:id="rId20"/>
-    <sheet name="linked list" sheetId="13" r:id="rId21"/>
+    <sheet name="if-else" sheetId="26" r:id="rId14"/>
+    <sheet name="linked list" sheetId="13" r:id="rId15"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId16"/>
+    <sheet name="string" sheetId="25" r:id="rId17"/>
+    <sheet name="2D array" sheetId="21" r:id="rId18"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId19"/>
+    <sheet name="sorting" sheetId="29" r:id="rId20"/>
+    <sheet name="string matching" sheetId="15" r:id="rId21"/>
     <sheet name="random" sheetId="14" r:id="rId22"/>
     <sheet name="tree" sheetId="10" r:id="rId23"/>
     <sheet name="traverse path" sheetId="7" r:id="rId24"/>
@@ -16191,15 +16191,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9C9A6-E057-4246-B0A7-C7368A851EC6}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="51.1796875" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" customWidth="1"/>
     <col min="8" max="8" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16234,13 +16236,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2">
-        <v>0.38500000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -16252,7 +16254,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -16261,13 +16263,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="C3" s="2">
-        <v>0.32900000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -16278,9 +16280,7 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>516</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>549</v>
@@ -16288,13 +16288,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>497</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38800000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -16305,48 +16305,21 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>352</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>435</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>437</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2">
-        <v>0.42399999999999999</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -16357,63 +16330,92 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="G6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>452</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>454</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2">
-        <v>0.48799999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>662</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>495</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>435</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>452</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>549</v>
       </c>
     </row>
@@ -16423,6 +16425,905 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>165</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>412</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>482</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>468</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.223</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>393</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>420</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="50.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>83</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.379</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>143</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>147</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>148</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>203</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>206</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>237</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>328</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>430</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>141</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>160</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>187</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -16776,264 +17677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>310</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>350</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>354</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>388</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>412</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>478</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.372</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>483</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>300</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -17474,7 +18118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -17819,7 +18463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -18238,7 +18882,936 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" customWidth="1"/>
+    <col min="8" max="8" width="35.90625" customWidth="1"/>
+    <col min="9" max="9" width="29.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>189</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>414</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>347</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>268</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>448</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>128</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.443</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>229</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>349</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>350</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>137</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>260</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>217</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>219</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>220</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>287</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>442</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>303</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>307</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>304</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>238</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>407</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>456</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>496</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.628</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -18555,936 +20128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="44.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" customWidth="1"/>
-    <col min="8" max="8" width="35.90625" customWidth="1"/>
-    <col min="9" max="9" width="29.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>189</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>414</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>215</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>347</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>268</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>448</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>128</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.443</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>169</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>229</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>349</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>350</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>136</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>137</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>260</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>217</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>219</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.371</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>220</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>287</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>442</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>80</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>303</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>307</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>304</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.371</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>162</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>238</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.497</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>407</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>456</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>496</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.628</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -20058,648 +20702,6 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>541</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
-  <dimension ref="A1:I26"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="50.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>83</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>92</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>143</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>147</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>148</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>203</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>206</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>237</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>328</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>430</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>141</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>142</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>160</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>187</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122F4D7-30EF-45A3-AF18-407D6BE016C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18F16E5-BA24-4E3B-8DFC-11C793966BFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,20 @@
     <sheet name="greedy" sheetId="28" r:id="rId12"/>
     <sheet name="intervals" sheetId="19" r:id="rId13"/>
     <sheet name="if-else" sheetId="26" r:id="rId14"/>
-    <sheet name="linked list" sheetId="13" r:id="rId15"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId16"/>
-    <sheet name="string" sheetId="25" r:id="rId17"/>
-    <sheet name="2D array" sheetId="21" r:id="rId18"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId19"/>
-    <sheet name="sorting" sheetId="29" r:id="rId20"/>
-    <sheet name="string matching" sheetId="15" r:id="rId21"/>
-    <sheet name="random" sheetId="14" r:id="rId22"/>
-    <sheet name="tree" sheetId="10" r:id="rId23"/>
-    <sheet name="traverse path" sheetId="7" r:id="rId24"/>
-    <sheet name="palindrome" sheetId="6" r:id="rId25"/>
-    <sheet name="n-sum" sheetId="5" r:id="rId26"/>
-    <sheet name="SQL+bash" sheetId="4" r:id="rId27"/>
-    <sheet name="Math" sheetId="3" r:id="rId28"/>
+    <sheet name="Math" sheetId="3" r:id="rId15"/>
+    <sheet name="linked list" sheetId="13" r:id="rId16"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId17"/>
+    <sheet name="string" sheetId="25" r:id="rId18"/>
+    <sheet name="2D array" sheetId="21" r:id="rId19"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId20"/>
+    <sheet name="sorting" sheetId="29" r:id="rId21"/>
+    <sheet name="string matching" sheetId="15" r:id="rId22"/>
+    <sheet name="random" sheetId="14" r:id="rId23"/>
+    <sheet name="tree" sheetId="10" r:id="rId24"/>
+    <sheet name="traverse path" sheetId="7" r:id="rId25"/>
+    <sheet name="palindrome" sheetId="6" r:id="rId26"/>
+    <sheet name="n-sum" sheetId="5" r:id="rId27"/>
+    <sheet name="SQL+bash" sheetId="4" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16682,10 +16682,1125 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="33.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>258</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>202</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>357</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>233</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>400</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.311</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>231</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>326</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>342</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>204</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>172</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>263</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>264</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>313</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.442</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>423</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>273</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>168</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>171</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>405</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>458</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>483</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>447</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>223</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>149</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>391</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>335</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>492</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>343</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>396</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>479</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>441</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>319</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>390</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.443</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>365</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>481</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>453</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>462</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -17323,7 +18438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -17677,7 +18792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -18118,7 +19233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -18456,425 +19571,6 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>650</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="45.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="28.6328125" customWidth="1"/>
-    <col min="8" max="8" width="43.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>75</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>76</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>209</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.372</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>283</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>344</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>345</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.435</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>424</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>438</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>457</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -19812,6 +20508,425 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="45.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" customWidth="1"/>
+    <col min="8" max="8" width="43.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>283</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>344</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>345</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.435</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>424</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>438</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>457</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -20128,7 +21243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -20709,7 +21824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -20886,7 +22001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -22168,7 +23283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D102F6F3-9B10-4273-92BC-4053048A5C85}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -22328,7 +23443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2876E206-AEE8-4149-AE34-C0F1425CCF9A}">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -22632,7 +23747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76399694-6038-4465-9FC8-B738877C1EDE}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -22850,7 +23965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594877C-E0AC-4C08-81E1-58959BD16A6C}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -23284,1121 +24399,6 @@
       <c r="I19" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
-  <dimension ref="A1:I73"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" customWidth="1"/>
-    <col min="9" max="9" width="33.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>423</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>448</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>89</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>481</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>172</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.377</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>202</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.499</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>204</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>223</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>231</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>326</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>342</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>233</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.311</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>400</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.311</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>263</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>264</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>313</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.442</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>319</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>335</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>343</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.496</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>365</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>390</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.443</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>391</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>396</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>441</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>453</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.499</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>462</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>492</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>500</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>166</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>179</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>447</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>434</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>440</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>482</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0.434</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>485</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>496</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>458</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>7</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18F16E5-BA24-4E3B-8DFC-11C793966BFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC6CC9C-41CF-4814-AA5E-CA6C3CDB0407}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-470" yWindow="2130" windowWidth="37610" windowHeight="15460" tabRatio="882" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,19 @@
     <sheet name="greedy" sheetId="28" r:id="rId12"/>
     <sheet name="intervals" sheetId="19" r:id="rId13"/>
     <sheet name="if-else" sheetId="26" r:id="rId14"/>
-    <sheet name="Math" sheetId="3" r:id="rId15"/>
-    <sheet name="linked list" sheetId="13" r:id="rId16"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId17"/>
-    <sheet name="string" sheetId="25" r:id="rId18"/>
-    <sheet name="2D array" sheetId="21" r:id="rId19"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId20"/>
-    <sheet name="sorting" sheetId="29" r:id="rId21"/>
-    <sheet name="string matching" sheetId="15" r:id="rId22"/>
-    <sheet name="random" sheetId="14" r:id="rId23"/>
-    <sheet name="tree" sheetId="10" r:id="rId24"/>
-    <sheet name="traverse path" sheetId="7" r:id="rId25"/>
-    <sheet name="palindrome" sheetId="6" r:id="rId26"/>
-    <sheet name="n-sum" sheetId="5" r:id="rId27"/>
+    <sheet name="linked list" sheetId="13" r:id="rId15"/>
+    <sheet name="Math" sheetId="3" r:id="rId16"/>
+    <sheet name="n-sum" sheetId="5" r:id="rId17"/>
+    <sheet name="palindrome" sheetId="6" r:id="rId18"/>
+    <sheet name="pythonic" sheetId="27" r:id="rId19"/>
+    <sheet name="string" sheetId="25" r:id="rId20"/>
+    <sheet name="2D array" sheetId="21" r:id="rId21"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId22"/>
+    <sheet name="sorting" sheetId="29" r:id="rId23"/>
+    <sheet name="string matching" sheetId="15" r:id="rId24"/>
+    <sheet name="random" sheetId="14" r:id="rId25"/>
+    <sheet name="tree" sheetId="10" r:id="rId26"/>
+    <sheet name="traverse path" sheetId="7" r:id="rId27"/>
     <sheet name="SQL+bash" sheetId="4" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -16682,6 +16682,648 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="50.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>237</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>203</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.379</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>328</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>147</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>148</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>141</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>142</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>160</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>430</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
   <dimension ref="A1:I50"/>
   <sheetViews>
@@ -17796,22 +18438,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546334EF-379E-4BCC-AFDD-A47EBA4A7FDD}">
-  <dimension ref="A1:I26"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76399694-6038-4465-9FC8-B738877C1EDE}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -17845,16 +18485,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.34899999999999998</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -17863,27 +18503,25 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>524</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2">
-        <v>0.49199999999999999</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -17892,76 +18530,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -17970,30 +18554,30 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
-        <v>0.44700000000000001</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -18002,53 +18586,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>0.379</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -18060,24 +18615,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>143</v>
+        <v>454</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>456</v>
       </c>
       <c r="C10" s="2">
-        <v>0.35499999999999998</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -18086,351 +18641,14 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>507</v>
+        <v>610</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>147</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>148</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>203</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>206</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>237</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>328</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>430</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>141</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>142</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>160</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>187</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -18438,7 +18656,311 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2876E206-AEE8-4149-AE34-C0F1425CCF9A}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>132</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>214</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>336</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>409</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.498</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -18785,792 +19307,6 @@
       </c>
       <c r="I13" s="1" t="s">
         <v>537</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>210</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>215</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>399</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>260</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.152</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>273</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>387</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>393</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>394</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>164</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>218</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.317</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>357</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>347</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>303</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>268</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>385</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="53.6328125" customWidth="1"/>
-    <col min="7" max="7" width="47.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>130</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>200</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>289</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>363</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>417</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>419</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>427</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>463</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -20508,6 +20244,792 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>215</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>399</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>260</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.152</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>273</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>387</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>393</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>394</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>164</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>218</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>357</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>347</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>303</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>268</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>385</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+    <col min="7" max="7" width="47.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>289</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>363</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>417</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>419</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>427</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>463</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -20926,7 +21448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -21243,7 +21765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -21824,7 +22346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -22001,7 +22523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -23283,7 +23805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D102F6F3-9B10-4273-92BC-4053048A5C85}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -23436,528 +23958,6 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>552</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2876E206-AEE8-4149-AE34-C0F1425CCF9A}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="39.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="7" max="7" width="27.6328125" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>125</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>131</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>132</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>214</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>234</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>336</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>409</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.498</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76399694-6038-4465-9FC8-B738877C1EDE}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="29.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>167</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>454</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC6CC9C-41CF-4814-AA5E-CA6C3CDB0407}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BEE114-433A-4835-98EE-B14B7ECC4A2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-470" yWindow="2130" windowWidth="37610" windowHeight="15460" tabRatio="882" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -31,28 +31,33 @@
     <sheet name="Math" sheetId="3" r:id="rId16"/>
     <sheet name="n-sum" sheetId="5" r:id="rId17"/>
     <sheet name="palindrome" sheetId="6" r:id="rId18"/>
-    <sheet name="pythonic" sheetId="27" r:id="rId19"/>
-    <sheet name="string" sheetId="25" r:id="rId20"/>
-    <sheet name="2D array" sheetId="21" r:id="rId21"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId22"/>
-    <sheet name="sorting" sheetId="29" r:id="rId23"/>
-    <sheet name="string matching" sheetId="15" r:id="rId24"/>
-    <sheet name="random" sheetId="14" r:id="rId25"/>
-    <sheet name="tree" sheetId="10" r:id="rId26"/>
-    <sheet name="traverse path" sheetId="7" r:id="rId27"/>
-    <sheet name="SQL+bash" sheetId="4" r:id="rId28"/>
+    <sheet name="random" sheetId="14" r:id="rId19"/>
+    <sheet name="sorting" sheetId="29" r:id="rId20"/>
+    <sheet name="string" sheetId="25" r:id="rId21"/>
+    <sheet name="string matching" sheetId="15" r:id="rId22"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId23"/>
+    <sheet name="tree" sheetId="10" r:id="rId24"/>
+    <sheet name="traverse path" sheetId="7" r:id="rId25"/>
+    <sheet name="SQL+bash" sheetId="4" r:id="rId26"/>
+    <sheet name="2D array" sheetId="21" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="677">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2415,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:I502"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD63"/>
+    <sheetView topLeftCell="A485" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E503" sqref="E503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15483,6 +15488,12 @@
       </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E502">
+        <f>SUM(E2:E501)</f>
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I501">
@@ -17325,10 +17336,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18323,16 +18334,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C46" s="2">
-        <v>0.48399999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -18340,23 +18351,23 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="G46" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>481</v>
+        <v>89</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>483</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2">
-        <v>0.47199999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -18365,57 +18376,55 @@
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>453</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.499</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I49" s="1" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>481</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C50" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.499</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -18427,9 +18436,38 @@
         <v>516</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>462</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -18440,10 +18478,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76399694-6038-4465-9FC8-B738877C1EDE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A5" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18537,15 +18575,44 @@
         <v>526</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
-        <v>0.26</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -18554,7 +18621,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>516</v>
@@ -18566,44 +18633,44 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>454</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="C9" s="2">
-        <v>0.32900000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -18612,42 +18679,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>524</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>454</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
         <v>526</v>
       </c>
     </row>
@@ -18658,10 +18696,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2876E206-AEE8-4149-AE34-C0F1425CCF9A}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18704,16 +18742,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>0.29099999999999998</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -18724,22 +18762,20 @@
       <c r="G2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>513</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2">
-        <v>0.47399999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -18760,13 +18796,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2">
-        <v>0.35</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -18778,25 +18814,27 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>507</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>131</v>
+        <v>409</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="C5" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.498</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -18805,68 +18843,37 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>132</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>0.29299999999999998</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>510</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>606</v>
+        <v>513</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>515</v>
@@ -18874,16 +18881,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2">
-        <v>0.38500000000000001</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -18892,10 +18899,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>515</v>
@@ -18903,13 +18910,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2">
-        <v>0.33200000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -18921,37 +18928,68 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>575</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>409</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.498</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>336</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>214</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>515</v>
       </c>
     </row>
@@ -18961,18 +18999,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F723C-EDA7-4AF1-B5C7-25682542CE18}">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="75.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -19006,70 +19045,68 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>133</v>
+        <v>382</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>487</v>
+        <v>384</v>
       </c>
       <c r="C2" s="2">
-        <v>0.55800000000000005</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>672</v>
+        <v>507</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>537</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="C3" s="2">
-        <v>0.437</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>292</v>
+        <v>470</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>472</v>
       </c>
       <c r="C4" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -19077,52 +19114,21 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>321</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>537</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="C6" s="2">
-        <v>0.33200000000000002</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -19133,28 +19139,24 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>564</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>327</v>
+        <v>497</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>389</v>
+        <v>499</v>
       </c>
       <c r="C7" s="2">
-        <v>0.53</v>
+        <v>0.374</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -19162,151 +19164,10 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>510</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>334</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>349</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>386</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>468</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>475</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -19316,10 +19177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD42"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19387,99 +19248,126 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>414</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>589</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>485</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>215</v>
+        <v>414</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>416</v>
       </c>
       <c r="C5" s="2">
-        <v>0.53500000000000003</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>215</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>347</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>268</v>
+        <v>451</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>453</v>
       </c>
       <c r="C8" s="2">
-        <v>0.50800000000000001</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -19488,51 +19376,24 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>521</v>
+        <v>589</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>448</v>
+        <v>268</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>450</v>
+        <v>270</v>
       </c>
       <c r="C10" s="2">
-        <v>0.55500000000000005</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -19547,21 +19408,21 @@
         <v>516</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>659</v>
+        <v>521</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>660</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
-        <v>0.443</v>
+        <v>0.312</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -19573,131 +19434,160 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>448</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.443</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>169</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>229</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
+        <v>229</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>349</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C18" s="2">
         <v>0.60799999999999998</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>350</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="C19" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -19708,53 +19598,26 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>578</v>
-      </c>
+      <c r="G19" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>137</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>514</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="C21" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -19763,25 +19626,52 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -19789,26 +19679,26 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>607</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2">
-        <v>0.371</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -19817,83 +19707,52 @@
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>610</v>
+        <v>508</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>220</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>607</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C26" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>524</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>442</v>
+        <v>219</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -19902,25 +19761,25 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2">
-        <v>0.441</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -19932,21 +19791,21 @@
         <v>516</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
       <c r="C29" s="2">
-        <v>0.43099999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -19960,20 +19819,49 @@
       <c r="G29" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>532</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>442</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>303</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>0.43</v>
+        <v>0.441</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -19987,20 +19875,22 @@
       <c r="G31" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I31" s="1" t="s">
-        <v>625</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
@@ -20012,52 +19902,54 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>304</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.371</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>625</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2">
-        <v>0.42899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -20069,16 +19961,19 @@
         <v>516</v>
       </c>
       <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -20087,25 +19982,25 @@
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I36" s="1"/>
+        <v>563</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2">
-        <v>0.497</v>
+        <v>0.371</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -20114,83 +20009,76 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>525</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>539</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>407</v>
+        <v>162</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>409</v>
+        <v>164</v>
       </c>
       <c r="C39" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>646</v>
+        <v>516</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>647</v>
-      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>238</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>456</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>458</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2">
-        <v>0.28899999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -20202,39 +20090,124 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>663</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>407</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>456</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>496</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C46" s="2">
         <v>0.628</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -20244,11 +20217,383 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="42.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="8" max="8" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>324</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>164</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>386</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.502</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>179</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>373</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>334</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>300</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>455</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>475</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>436</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>406</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>354</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20679,349 +21024,87 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="53.6328125" customWidth="1"/>
-    <col min="7" max="7" width="47.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>130</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>200</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>289</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>363</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>417</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>419</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>427</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>463</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>650</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>434</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>459</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -21030,6 +21113,587 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="42.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>205</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>211</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>242</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>290</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>299</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>383</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>389</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>392</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>433</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>466</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>467</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -21448,1082 +22112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
-  <dimension ref="A1:I18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="42.36328125" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>436</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>491</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>456</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>455</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="42.6328125" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>72</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>87</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>115</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>126</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>127</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>205</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>211</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>242</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>290</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>299</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>383</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>389</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>392</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>433</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>466</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>467</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="40.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="28.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>382</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>497</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.374</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>470</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>479</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>493</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
   <dimension ref="A1:I52"/>
   <sheetViews>
@@ -23805,7 +23394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D102F6F3-9B10-4273-92BC-4053048A5C85}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -23965,7 +23554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594877C-E0AC-4C08-81E1-58959BD16A6C}">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -24398,6 +23987,351 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+    <col min="7" max="7" width="47.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>289</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>363</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>417</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>419</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>427</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>463</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -25705,10 +25639,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2765C-8293-4C73-BE76-6DA6D9D8C888}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26086,6 +26020,35 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>385</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -27091,7 +27054,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD40"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BEE114-433A-4835-98EE-B14B7ECC4A2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C8219-3151-48A5-BEEB-58E270BD7AF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -17336,10 +17336,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17754,16 +17754,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.152</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -17771,26 +17771,23 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>514</v>
-      </c>
+      <c r="G19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
-        <v>0.54200000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -17808,13 +17805,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>423</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>425</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <v>0.46700000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -17825,11 +17822,9 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>510</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>592</v>
+        <v>521</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>514</v>
@@ -17837,63 +17832,67 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
+        <v>423</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>273</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>168</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2">
-        <v>0.53700000000000003</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -17912,13 +17911,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>405</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>407</v>
+        <v>173</v>
       </c>
       <c r="C26" s="2">
-        <v>0.434</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -17937,38 +17936,38 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="C27" s="2">
-        <v>0.47</v>
+        <v>0.434</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>665</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C28" s="2">
-        <v>0.35399999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
@@ -17982,48 +17981,46 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>483</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>447</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>223</v>
+        <v>447</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="C31" s="2">
-        <v>0.374</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -18031,24 +18028,26 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>514</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2">
-        <v>0.16800000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -18056,9 +18055,7 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
         <v>514</v>
@@ -18066,13 +18063,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>391</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>393</v>
+        <v>151</v>
       </c>
       <c r="C33" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -18081,9 +18078,11 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>514</v>
@@ -18091,13 +18090,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="C34" s="2">
-        <v>0.27600000000000002</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -18114,45 +18113,43 @@
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>492</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I36" s="1" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>335</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>343</v>
+        <v>492</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>345</v>
+        <v>494</v>
       </c>
       <c r="C37" s="2">
-        <v>0.496</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -18162,7 +18159,7 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>521</v>
+        <v>592</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>514</v>
@@ -18170,13 +18167,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2">
-        <v>0.36</v>
+        <v>0.496</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -18187,9 +18184,7 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>516</v>
-      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>521</v>
       </c>
@@ -18199,70 +18194,72 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
+        <v>396</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>479</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C40" s="2">
         <v>0.28599999999999998</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>670</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>441</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>319</v>
+        <v>441</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>321</v>
+        <v>443</v>
       </c>
       <c r="C42" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -18272,7 +18269,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>592</v>
+        <v>521</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>514</v>
@@ -18280,13 +18277,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2">
-        <v>0.443</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -18295,25 +18292,25 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>592</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.443</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
@@ -18324,53 +18321,53 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="G44" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>38</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.437</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>537</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>365</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2">
-        <v>0.48399999999999999</v>
+        <v>0.437</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -18378,23 +18375,23 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="G47" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>481</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>483</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2">
-        <v>0.47199999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -18403,57 +18400,55 @@
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>453</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.499</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I50" s="1" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>481</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.499</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -18465,9 +18460,38 @@
         <v>516</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>462</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -20220,7 +20244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
@@ -20590,16 +20614,17 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" customWidth="1"/>
     <col min="2" max="2" width="45.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="7" max="7" width="29.7265625" customWidth="1"/>
     <col min="8" max="8" width="18.26953125" customWidth="1"/>
     <col min="9" max="9" width="24.90625" customWidth="1"/>
@@ -20636,13 +20661,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -20654,25 +20679,25 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>215</v>
+        <v>500</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>502</v>
       </c>
       <c r="C3" s="2">
-        <v>0.27700000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -20681,52 +20706,50 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>399</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>523</v>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>434</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>260</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2">
-        <v>0.152</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -20738,19 +20761,22 @@
         <v>510</v>
       </c>
       <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>273</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2">
-        <v>0.34100000000000003</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -20762,16 +20788,19 @@
         <v>510</v>
       </c>
       <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>387</v>
+        <v>459</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="C9" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -20783,20 +20812,24 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>390</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
-        <v>0.41299999999999998</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -20808,20 +20841,22 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>642</v>
+        <v>508</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>396</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2">
-        <v>0.48699999999999999</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -20833,23 +20868,23 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>642</v>
+        <v>520</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>164</v>
+        <v>443</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>445</v>
       </c>
       <c r="C13" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -20858,75 +20893,96 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>218</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.317</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>394</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>388</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>357</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2">
-        <v>0.25</v>
+        <v>0.317</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>581</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="H17" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>445</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -20938,25 +20994,52 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>657</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>303</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>0.20100000000000001</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -20965,146 +21048,11 @@
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>268</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>385</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>58</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>434</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>459</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -21114,10 +21062,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21688,6 +21636,30 @@
         <v>541</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21695,10 +21667,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22105,6 +22077,35 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C8219-3151-48A5-BEEB-58E270BD7AF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48E74A-C9A5-4F61-A1A1-AF2A17BF7037}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -19201,10 +19201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19659,13 +19659,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>136</v>
+        <v>389</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>391</v>
       </c>
       <c r="C22" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -19676,26 +19676,26 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>578</v>
-      </c>
+      <c r="G22" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>514</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2">
-        <v>0.49299999999999999</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -19705,7 +19705,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>514</v>
@@ -19713,13 +19713,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2">
-        <v>0.60299999999999998</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -19730,50 +19730,50 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>217</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>260</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>607</v>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <v>217</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C27" s="2">
-        <v>0.371</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -19785,7 +19785,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>610</v>
+        <v>508</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -19794,16 +19794,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="2">
-        <v>0.20699999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -19812,24 +19812,22 @@
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -19838,13 +19836,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>607</v>
@@ -19852,13 +19850,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>442</v>
+        <v>287</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2">
-        <v>0.64800000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -19867,28 +19865,30 @@
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>26</v>
+        <v>442</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>444</v>
       </c>
       <c r="C31" s="2">
-        <v>0.441</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -19899,78 +19899,76 @@
       <c r="G31" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>524</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>532</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>0.43099999999999999</v>
+        <v>0.441</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>548</v>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2">
-        <v>0.43</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -19979,52 +19977,54 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>625</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2">
-        <v>0.371</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -20033,49 +20033,52 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>304</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.371</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>162</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -20089,20 +20092,17 @@
       <c r="G40" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="C41" s="2">
-        <v>0.497</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -20111,30 +20111,28 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>539</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -20146,7 +20144,7 @@
         <v>516</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>539</v>
@@ -20154,13 +20152,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
@@ -20172,66 +20170,95 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>407</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>456</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
+        <v>456</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>496</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C47" s="2">
         <v>0.628</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -20614,10 +20641,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20659,58 +20686,6 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>500</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>434</v>
@@ -20823,13 +20798,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -20841,50 +20816,50 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>187</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>443</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="C13" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -20893,47 +20868,45 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>510</v>
+        <v>642</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>394</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>388</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>390</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2">
-        <v>0.41299999999999998</v>
+        <v>0.317</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -20945,47 +20918,49 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>642</v>
+        <v>527</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>71</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.317</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -20993,26 +20968,26 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>0.61</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -21020,38 +20995,11 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>529</v>
-      </c>
+      <c r="G20" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
         <v>523</v>
       </c>
     </row>
@@ -21062,10 +21010,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21107,171 +21055,106 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>0.26400000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>541</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>513</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="C5" s="2">
-        <v>0.33200000000000002</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>115</v>
+        <v>242</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="C7" s="2">
-        <v>0.374</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>510</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>541</v>
@@ -21279,71 +21162,40 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
-        <v>0.21199999999999999</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>568</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>127</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="C10" s="2">
-        <v>0.39300000000000002</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -21364,40 +21216,40 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>0.35299999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>242</v>
+        <v>500</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>502</v>
       </c>
       <c r="C12" s="2">
-        <v>0.55900000000000005</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -21409,24 +21261,20 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>541</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>290</v>
+        <v>383</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="C13" s="2">
-        <v>0.36499999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -21438,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -21447,13 +21295,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="C14" s="2">
-        <v>0.41799999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -21465,118 +21313,95 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>383</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>389</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>391</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>392</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>394</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>0.48</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>433</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>435</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2">
-        <v>0.40799999999999997</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>541</v>
@@ -21584,13 +21409,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>468</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -21604,64 +21429,213 @@
       <c r="G19" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>467</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>469</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2">
-        <v>0.35099999999999998</v>
+        <v>0.374</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2">
-        <v>0.34100000000000003</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>126</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>433</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>467</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>466</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>541</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25640,10 +25614,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2765C-8293-4C73-BE76-6DA6D9D8C888}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26050,6 +26024,33 @@
       </c>
       <c r="I21" s="1" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>211</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48E74A-C9A5-4F61-A1A1-AF2A17BF7037}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1840D9-1DC2-40AC-9EA3-162B12C1C039}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,10 @@
     <sheet name="sorting" sheetId="29" r:id="rId20"/>
     <sheet name="string" sheetId="25" r:id="rId21"/>
     <sheet name="string matching" sheetId="15" r:id="rId22"/>
-    <sheet name="two pointers" sheetId="20" r:id="rId23"/>
-    <sheet name="tree" sheetId="10" r:id="rId24"/>
-    <sheet name="traverse path" sheetId="7" r:id="rId25"/>
+    <sheet name="tree" sheetId="10" r:id="rId23"/>
+    <sheet name="two pointers" sheetId="20" r:id="rId24"/>
+    <sheet name="2D array" sheetId="21" r:id="rId25"/>
     <sheet name="SQL+bash" sheetId="4" r:id="rId26"/>
-    <sheet name="2D array" sheetId="21" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="677">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -21012,8 +21011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD29"/>
+    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21187,42 +21186,42 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>299</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="C11" s="2">
-        <v>0.35</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -21234,22 +21233,22 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>502</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -21261,20 +21260,22 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>383</v>
+        <v>500</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>385</v>
+        <v>502</v>
       </c>
       <c r="C13" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -21286,22 +21287,20 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>541</v>
-      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C14" s="2">
-        <v>0.48</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -21313,51 +21312,49 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>392</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -21380,13 +21377,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -21409,13 +21406,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C19" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -21438,13 +21435,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2">
-        <v>0.374</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
@@ -21465,47 +21462,47 @@
         <v>541</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>127</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I22" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>115</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2">
-        <v>0.21199999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -21525,22 +21522,22 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>433</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>435</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2">
-        <v>0.40799999999999997</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>575</v>
@@ -21552,30 +21549,32 @@
         <v>541</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>87</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I26" s="1" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>433</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21640,6 +21639,1284 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="52.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>226</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>111</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>144</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>145</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>429</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>101</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>199</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>222</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>116</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>117</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>404</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>437</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>257</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>129</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>124</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>449</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>297</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>331</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>105</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>99</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>108</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>236</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>235</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>230</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>440</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>450</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>315</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>173</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>208</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -22087,21 +23364,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
-  <dimension ref="A1:I52"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+    <col min="7" max="7" width="47.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -22135,13 +23409,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>0.39300000000000002</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -22150,27 +23424,25 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>566</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2">
-        <v>0.505</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -22182,85 +23454,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>98</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>567</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>569</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2">
-        <v>0.56299999999999994</v>
+        <v>0.26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -22269,24 +23505,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2">
-        <v>0.46</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -22298,53 +23531,22 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>173</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>567</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -22356,53 +23558,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>614</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>235</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>567</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="C11" s="2">
-        <v>0.41</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -22414,22 +23585,51 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>544</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="I11" s="1" t="s">
-        <v>567</v>
-      </c>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>417</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="C13" s="2">
-        <v>0.51100000000000001</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -22441,24 +23641,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>570</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="C14" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -22467,59 +23665,57 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>564</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>257</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>552</v>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>463</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -22528,24 +23724,22 @@
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2">
-        <v>0.45200000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -22557,27 +23751,25 @@
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -22586,24 +23778,22 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>564</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>500</v>
       </c>
       <c r="C20" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -22615,912 +23805,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>297</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>331</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>94</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>102</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>103</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>105</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>106</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>107</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>199</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>101</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>110</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>111</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>116</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.432</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>117</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.378</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>222</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>226</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>236</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.438</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>404</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.505</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>437</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>114</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>144</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>145</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>189</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>135</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>398</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D102F6F3-9B10-4273-92BC-4053048A5C85}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>54</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>59</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>498</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
         <v>552</v>
       </c>
     </row>
@@ -23962,351 +24250,6 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>596</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="53.6328125" customWidth="1"/>
-    <col min="7" max="7" width="47.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>130</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>200</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>289</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>363</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>417</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>419</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>427</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>463</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1840D9-1DC2-40AC-9EA3-162B12C1C039}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C19FBE-B3F1-4580-B679-C1193997A03E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -2421,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I502"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E503" sqref="E503"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19202,8 +19202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19490,7 +19490,7 @@
         <v>659</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -19873,7 +19873,7 @@
         <v>524</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -20271,7 +20271,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21009,10 +21009,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD25"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21161,13 +21161,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>49</v>
+        <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="C8" s="2">
-        <v>0.55300000000000005</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -21179,76 +21179,78 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>520</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>87</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>0.33200000000000002</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>299</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="C12" s="2">
-        <v>0.35</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -21260,22 +21262,22 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>502</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -21287,20 +21289,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>383</v>
+        <v>500</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>385</v>
+        <v>502</v>
       </c>
       <c r="C14" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -21312,22 +21316,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>579</v>
+        <v>520</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>541</v>
-      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C15" s="2">
-        <v>0.48</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -21339,51 +21341,49 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>392</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -21406,13 +21406,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -21435,13 +21435,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
@@ -21464,13 +21464,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2">
-        <v>0.374</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
@@ -21491,47 +21491,47 @@
         <v>541</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>127</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I23" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>115</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2">
-        <v>0.21199999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -21551,22 +21551,22 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>433</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>435</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2">
-        <v>0.40799999999999997</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>575</v>
@@ -21578,57 +21578,86 @@
         <v>541</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>467</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>433</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C29" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>466</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21642,7 +21671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
@@ -22918,10 +22947,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22930,6 +22959,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="7" max="7" width="28.6328125" customWidth="1"/>
     <col min="8" max="8" width="43.81640625" customWidth="1"/>
+    <col min="9" max="9" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -22963,42 +22993,71 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>511</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>283</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>346</v>
       </c>
       <c r="C4" s="2">
-        <v>0.47499999999999998</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -23009,9 +23068,7 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>516</v>
-      </c>
+      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>524</v>
       </c>
@@ -23021,22 +23078,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="C5" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -23048,212 +23105,156 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
-        <v>0.33900000000000002</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>209</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.372</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>283</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>0.57299999999999995</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>344</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
-        <v>0.66500000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>532</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2">
-        <v>0.435</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>424</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>438</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>440</v>
+        <v>211</v>
       </c>
       <c r="C13" s="2">
-        <v>0.41399999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -23265,24 +23266,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="C14" s="2">
-        <v>0.28899999999999998</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -23294,24 +23295,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>524</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>664</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>41</v>
+      <c r="A16" s="3">
+        <v>480</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>482</v>
       </c>
       <c r="C16" s="2">
-        <v>0.41899999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -23320,43 +23321,72 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>239</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>581</v>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>457</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -24259,10 +24289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F7C128-76ED-4017-830C-F3D9418A8595}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24330,17 +24360,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>480</v>
+      <c r="A3" s="1">
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>482</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
-        <v>0.36</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -24354,45 +24384,41 @@
       <c r="H3" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>278</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>512</v>
       </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>278</v>
+        <v>367</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>280</v>
+        <v>369</v>
       </c>
       <c r="C6" s="2">
-        <v>0.34699999999999998</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -24407,20 +24433,22 @@
       <c r="H6" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>369</v>
+        <v>276</v>
       </c>
       <c r="C7" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -24430,21 +24458,19 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>514</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C8" s="2">
-        <v>0.35299999999999998</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -24457,44 +24483,48 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>589</v>
+        <v>512</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>275</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>412</v>
       </c>
       <c r="C11" s="2">
-        <v>0.28899999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -24512,47 +24542,47 @@
         <v>512</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>410</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>548</v>
+      <c r="I13" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2">
-        <v>0.34200000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -24575,13 +24605,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2">
-        <v>0.33</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -24590,11 +24620,9 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>512</v>
       </c>
@@ -24604,22 +24632,22 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2">
-        <v>0.44500000000000001</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
@@ -24629,42 +24657,41 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>154</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="C19" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -24673,24 +24700,25 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>380</v>
       </c>
       <c r="C20" s="2">
-        <v>0.42699999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -24704,37 +24732,10 @@
       <c r="G20" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>378</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I21" s="1"/>
+      <c r="I20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C19FBE-B3F1-4580-B679-C1193997A03E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447FF56A-A679-40B5-99F5-BDB01C96B048}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -16436,10 +16436,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A8" sqref="A8:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16584,13 +16584,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>468</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>470</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
-        <v>0.223</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -16602,22 +16602,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="C9" s="2">
-        <v>0.372</v>
+        <v>0.223</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -16628,7 +16628,9 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>553</v>
@@ -16636,22 +16638,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>395</v>
       </c>
       <c r="C10" s="2">
-        <v>0.15</v>
+        <v>0.372</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -16661,13 +16663,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>422</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2">
-        <v>0.14899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -16678,11 +16680,36 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>420</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>553</v>
       </c>
     </row>
@@ -19200,10 +19227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20069,39 +20096,44 @@
         <v>625</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>162</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H40" s="1"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>363</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C41" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -20115,20 +20147,17 @@
       <c r="G41" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="C42" s="2">
-        <v>0.497</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -20137,30 +20166,28 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>539</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C43" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -20172,7 +20199,7 @@
         <v>516</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>539</v>
@@ -20180,13 +20207,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>6</v>
@@ -20198,66 +20225,122 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>407</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
+        <v>417</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>456</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C48" s="2">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>496</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C49" s="2">
         <v>0.628</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -22949,7 +23032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FBE358-DC1C-499F-96DE-D97DF7CC11D4}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -23396,16 +23479,20 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="53.6328125" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
     <col min="7" max="7" width="47.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -23439,16 +23526,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>463</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>465</v>
       </c>
       <c r="C2" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -23461,18 +23548,18 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>535</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2">
-        <v>0.54700000000000004</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -23486,44 +23573,47 @@
       <c r="G3" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>419</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>532</v>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2">
-        <v>0.26</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -23537,19 +23627,20 @@
       <c r="G6" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>576</v>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -23566,73 +23657,94 @@
       <c r="H7" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>289</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C8" s="2">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>363</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>0.36699999999999999</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>638</v>
-      </c>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>417</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>419</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
-        <v>0.40100000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -23646,20 +23758,20 @@
       <c r="G12" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>421</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2">
-        <v>0.68899999999999995</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -23675,18 +23787,18 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>650</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="C14" s="2">
-        <v>0.60899999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -23700,146 +23812,38 @@
       <c r="G14" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>427</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>463</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>59</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>498</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -23851,13 +23855,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594877C-E0AC-4C08-81E1-58959BD16A6C}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
     <col min="3" max="3" width="15.90625" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" customWidth="1"/>
   </cols>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447FF56A-A679-40B5-99F5-BDB01C96B048}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3783D2-CEA1-49C0-8769-9C9DEFAD164C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="694">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2087,6 +2087,57 @@
   </si>
   <si>
     <t>322 Coin change</t>
+  </si>
+  <si>
+    <t>Find Mode in Binary Search Tree</t>
+  </si>
+  <si>
+    <t>for BST, in-order traversal gives the sorted list of all nodes</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>use a heap to collect all projects that has capital below current total capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Greater Element II    </t>
+  </si>
+  <si>
+    <t>monotonically decreasing stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base 7   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1%	</t>
+  </si>
+  <si>
+    <t>convert to n-base using divmod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Relative Ranks    </t>
+  </si>
+  <si>
+    <t>keep track of original positions</t>
+  </si>
+  <si>
+    <t>Perfect Number</t>
+  </si>
+  <si>
+    <t>try all divisors and check sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most Frequent Subtree Sum  </t>
+  </si>
+  <si>
+    <t>calculate tree sum at all nodes and update hash table</t>
+  </si>
+  <si>
+    <t>Fibonacci Number</t>
+  </si>
+  <si>
+    <t>0-D DP</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2138,6 +2189,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15937,22 +15994,26 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FB80ED-092B-4826-8D98-C57CDDB41FE2}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="40.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="34.26953125" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="40.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="15.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="66" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -15981,7 +16042,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>55</v>
       </c>
@@ -16000,7 +16061,6 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>542</v>
       </c>
@@ -16008,7 +16068,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45</v>
       </c>
@@ -16027,7 +16087,6 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>542</v>
       </c>
@@ -16035,7 +16094,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>330</v>
       </c>
@@ -16061,7 +16120,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>403</v>
       </c>
@@ -16080,7 +16139,6 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>536</v>
       </c>
@@ -16088,7 +16146,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>135</v>
       </c>
@@ -16107,12 +16165,11 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>316</v>
       </c>
@@ -16141,7 +16198,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>402</v>
       </c>
@@ -16166,9 +16223,8 @@
       <c r="H10" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>321</v>
       </c>
@@ -16192,6 +16248,35 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>502</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -16436,10 +16521,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16531,45 +16616,18 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>482</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>482</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>484</v>
       </c>
       <c r="C6" s="2">
-        <v>0.26800000000000002</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -16581,43 +16639,43 @@
         <v>510</v>
       </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>535</v>
-      </c>
+      <c r="I6" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>468</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>470</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
-        <v>0.223</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -16629,22 +16687,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="C10" s="2">
-        <v>0.372</v>
+        <v>0.223</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -16655,7 +16713,9 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>553</v>
@@ -16663,22 +16723,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>395</v>
       </c>
       <c r="C11" s="2">
-        <v>0.15</v>
+        <v>0.372</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -16688,13 +16748,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>422</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2">
-        <v>0.14899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -16705,11 +16765,36 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>420</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>553</v>
       </c>
     </row>
@@ -17362,24 +17447,28 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" customWidth="1"/>
-    <col min="8" max="8" width="15.08984375" customWidth="1"/>
-    <col min="9" max="9" width="33.08984375" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="38.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="12.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -17408,7 +17497,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>7</v>
       </c>
@@ -17430,10 +17519,8 @@
       <c r="G2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>258</v>
       </c>
@@ -17452,13 +17539,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>202</v>
       </c>
@@ -17480,12 +17565,11 @@
       <c r="G4" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>357</v>
       </c>
@@ -17504,7 +17588,6 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>529</v>
       </c>
@@ -17512,7 +17595,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>233</v>
       </c>
@@ -17531,7 +17614,6 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>521</v>
       </c>
@@ -17539,7 +17621,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>400</v>
       </c>
@@ -17558,7 +17640,6 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>521</v>
       </c>
@@ -17566,7 +17647,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>231</v>
       </c>
@@ -17585,7 +17666,6 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>615</v>
       </c>
@@ -17593,7 +17673,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>326</v>
       </c>
@@ -17612,7 +17692,6 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>592</v>
       </c>
@@ -17620,7 +17699,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>342</v>
       </c>
@@ -17639,103 +17718,71 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>507</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>204</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>0.31</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>172</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.377</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>263</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2">
-        <v>0.39200000000000002</v>
+        <v>0.377</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -17743,449 +17790,449 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <v>263</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>264</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>313</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <v>0.442</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21" s="2">
         <v>0.152</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>423</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>423</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>273</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>504</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>168</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C28" s="2">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>171</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C29" s="2">
         <v>0.53700000000000003</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>405</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.434</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>458</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>483</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.35399999999999998</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>405</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C31" s="2">
-        <v>0.51400000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>1</v>
+      </c>
       <c r="I31" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>223</v>
+        <v>483</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>485</v>
       </c>
       <c r="C32" s="2">
-        <v>0.374</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+        <v>1</v>
+      </c>
       <c r="I32" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>149</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>514</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="C34" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="I34" s="1" t="s">
-        <v>514</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>335</v>
+        <v>223</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="C35" s="2">
-        <v>0.27600000000000002</v>
+        <v>0.374</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+        <v>0</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>514</v>
       </c>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>149</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>492</v>
+        <v>391</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>494</v>
+        <v>393</v>
       </c>
       <c r="C37" s="2">
-        <v>0.49399999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>592</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>514</v>
@@ -18193,99 +18240,91 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2">
-        <v>0.496</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>521</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>396</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C40" s="2">
-        <v>0.28599999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>0</v>
+      </c>
       <c r="H40" s="1" t="s">
         <v>592</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>670</v>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>343</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="C42" s="2">
-        <v>0.39700000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -18293,7 +18332,9 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>521</v>
       </c>
@@ -18303,78 +18344,49 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>319</v>
+        <v>479</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>321</v>
+        <v>481</v>
       </c>
       <c r="C43" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>1</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>592</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>390</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.443</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>514</v>
+        <v>670</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="C45" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>0</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>521</v>
       </c>
@@ -18382,18 +18394,44 @@
         <v>514</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>319</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>38</v>
+        <v>390</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2">
-        <v>0.437</v>
+        <v>0.443</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -18402,22 +18440,21 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>516</v>
+      </c>
       <c r="I47" s="1" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>89</v>
+        <v>365</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2">
-        <v>0.48399999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
@@ -18428,7 +18465,6 @@
       <c r="F48" s="1">
         <v>1</v>
       </c>
-      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>521</v>
       </c>
@@ -18436,57 +18472,53 @@
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>481</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.437</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>514</v>
+      <c r="I50" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>453</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>455</v>
+        <v>91</v>
       </c>
       <c r="C51" s="2">
-        <v>0.499</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>592</v>
+        <v>521</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>514</v>
@@ -18494,30 +18526,85 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
+        <v>481</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>453</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.499</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>462</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C55" s="2">
         <v>0.53400000000000003</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>514</v>
       </c>
     </row>
@@ -19227,10 +19314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD49"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20344,6 +20431,33 @@
         <v>663</v>
       </c>
     </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>503</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20351,20 +20465,22 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="42.36328125" customWidth="1"/>
     <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="19.7265625" customWidth="1"/>
+    <col min="10" max="10" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -20393,128 +20509,99 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>506</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.502</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>324</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="2">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>164</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>386</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>0.502</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>179</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>373</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.35899999999999999</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
@@ -20522,7 +20609,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -20532,187 +20619,243 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>179</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <v>373</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>334</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <v>0.39900000000000002</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>300</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C12" s="2">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>455</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.495</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>455</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>475</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>0.32800000000000001</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>436</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>406</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.63200000000000001</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="C16" s="2">
-        <v>0.35099999999999998</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>406</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>354</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
         <v>636</v>
       </c>
     </row>
@@ -21752,19 +21895,23 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="52.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="52.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="66.36328125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -21847,7 +21994,6 @@
       <c r="H3" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -22007,7 +22153,6 @@
       <c r="G10" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>565</v>
       </c>
@@ -22034,7 +22179,6 @@
       <c r="G11" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>565</v>
       </c>
@@ -22155,7 +22299,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -22181,7 +22325,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>199</v>
       </c>
@@ -22207,7 +22351,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>222</v>
       </c>
@@ -22233,7 +22377,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>116</v>
       </c>
@@ -22259,7 +22403,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>117</v>
       </c>
@@ -22285,7 +22429,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>404</v>
       </c>
@@ -22310,9 +22454,8 @@
       <c r="H23" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>112</v>
       </c>
@@ -22341,7 +22484,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>113</v>
       </c>
@@ -22370,7 +22513,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>437</v>
       </c>
@@ -22392,52 +22535,51 @@
       <c r="G26" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <v>508</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>257</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>0.5</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>129</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.46300000000000002</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -22449,24 +22591,24 @@
         <v>563</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -22478,53 +22620,53 @@
         <v>563</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>124</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>449</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>297</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.46100000000000002</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -22535,23 +22677,25 @@
       <c r="G32" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="I32" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -22562,20 +22706,19 @@
       <c r="G33" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22589,22 +22732,19 @@
       <c r="G34" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2">
-        <v>0.441</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -22613,7 +22753,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>563</v>
@@ -22625,45 +22765,45 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>96</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C38" s="2">
         <v>0.505</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>95</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.39300000000000002</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
@@ -22671,27 +22811,27 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -22700,88 +22840,88 @@
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2">
-        <v>0.56299999999999994</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="2">
-        <v>0.46</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -22799,15 +22939,15 @@
         <v>567</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2">
-        <v>0.438</v>
+        <v>0.46</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -22816,7 +22956,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>563</v>
@@ -22824,20 +22964,22 @@
       <c r="H43" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C44" s="2">
-        <v>0.48799999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -22851,75 +22993,74 @@
       <c r="H44" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C45" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>442</v>
+        <v>677</v>
       </c>
       <c r="C46" s="2">
-        <v>0.28399999999999997</v>
+        <v>0.42</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>614</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="C47" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -22928,27 +23069,27 @@
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="C48" s="2">
-        <v>0.41</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>6</v>
@@ -22960,66 +23101,119 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>450</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>173</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>208</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C53" s="2">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>603</v>
       </c>
     </row>
@@ -23855,8 +24049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E594877C-E0AC-4C08-81E1-58959BD16A6C}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27001,10 +27195,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27017,7 +27211,7 @@
     <col min="10" max="10" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -27046,7 +27240,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>121</v>
       </c>
@@ -27075,7 +27269,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>122</v>
       </c>
@@ -27104,7 +27298,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>123</v>
       </c>
@@ -27133,7 +27327,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>188</v>
       </c>
@@ -27160,7 +27354,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>309</v>
       </c>
@@ -27187,7 +27381,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>376</v>
       </c>
@@ -27214,7 +27408,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>134</v>
       </c>
@@ -27237,8 +27431,9 @@
       <c r="H9" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>152</v>
       </c>
@@ -27265,7 +27460,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>198</v>
       </c>
@@ -27292,7 +27487,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>213</v>
       </c>
@@ -27321,7 +27516,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>337</v>
       </c>
@@ -27350,45 +27545,44 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
+        <v>509</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>70</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>0.46600000000000003</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>91</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.24</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -27398,18 +27592,22 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>513</v>
+        <v>529</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2">
-        <v>0.45600000000000002</v>
+        <v>0.24</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -27420,23 +27618,20 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>527</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>513</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>491</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>493</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>0.44800000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -27445,27 +27640,25 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>548</v>
-      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>370</v>
+        <v>493</v>
       </c>
       <c r="C19" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -27476,61 +27669,61 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>529</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>368</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>413</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="C22" s="2">
-        <v>0.32300000000000001</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>516</v>
@@ -27539,50 +27732,47 @@
         <v>631</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>446</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>322</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J24" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="C25" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -27591,25 +27781,30 @@
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H25" s="1" t="s">
-        <v>513</v>
+        <v>631</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>514</v>
+        <v>632</v>
+      </c>
+      <c r="J25" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>494</v>
+        <v>279</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>496</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -27622,21 +27817,21 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>631</v>
+        <v>513</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>632</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C27" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -27645,52 +27840,52 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
         <v>631</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>474</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>84</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2">
-        <v>0.36599999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
@@ -27702,7 +27897,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
@@ -27711,22 +27906,22 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2">
-        <v>0.37</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>559</v>
@@ -27736,40 +27931,42 @@
         <v>558</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>118</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1" t="s">
-        <v>573</v>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>221</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2">
-        <v>0.47799999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -27778,79 +27975,77 @@
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>120</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>0.43</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>62</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2">
-        <v>0.34</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -27859,27 +28054,25 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>513</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="2">
-        <v>0.53200000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -27888,7 +28081,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>544</v>
@@ -27897,21 +28090,21 @@
         <v>513</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="C40" s="2">
-        <v>0.29399999999999998</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -27926,6 +28119,35 @@
         <v>513</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>174</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>571</v>
       </c>
     </row>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3783D2-CEA1-49C0-8769-9C9DEFAD164C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D15107-0CCE-496C-83DE-01E1272E5B3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="708">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2138,6 +2138,48 @@
   </si>
   <si>
     <t>0-D DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Find Bottom Left Tree Value    	</t>
+  </si>
+  <si>
+    <t>Freedom Trail</t>
+  </si>
+  <si>
+    <t>each time a new character is added to the key, the minimum of ops only depends on previous character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Find Largest Value in Each Tree Row    		</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Longest Palindromic Subsequence    		</t>
+  </si>
+  <si>
+    <t>build from shorter lengths towards longer lengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Washing Machines     		</t>
+  </si>
+  <si>
+    <t>0D DP, new status only depends on the one right before current one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin Change 2    		</t>
+  </si>
+  <si>
+    <t>update coin in outer loop to avoid duplicate combinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Flip Matrix     		</t>
+  </si>
+  <si>
+    <t>use hash table to map already-appeared elements to their alternatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Capital    		</t>
+  </si>
+  <si>
+    <t>isupper, islower</t>
   </si>
 </sst>
 </file>
@@ -2179,7 +2221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,6 +2237,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15562,7 +15613,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D2EE1F-18E4-4245-B58E-0924CF70CF9D}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
@@ -15738,33 +15789,6 @@
       <c r="I8" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>312</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16521,10 +16545,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16533,9 +16557,10 @@
     <col min="2" max="2" width="37.6328125" customWidth="1"/>
     <col min="3" max="3" width="16.08984375" customWidth="1"/>
     <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -16564,7 +16589,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>165</v>
       </c>
@@ -16591,7 +16616,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>412</v>
       </c>
@@ -16616,7 +16641,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>482</v>
       </c>
@@ -16643,7 +16668,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>68</v>
       </c>
@@ -16667,69 +16692,65 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <v>520</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>0.47599999999999998</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>468</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.223</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>393</v>
+        <v>468</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="C11" s="2">
-        <v>0.372</v>
+        <v>0.223</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -16740,30 +16761,32 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>395</v>
       </c>
       <c r="C12" s="2">
-        <v>0.15</v>
+        <v>0.372</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -16771,15 +16794,15 @@
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>420</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>422</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
-        <v>0.14899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -16790,11 +16813,36 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>651</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>420</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>553</v>
       </c>
     </row>
@@ -19137,10 +19185,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19149,9 +19197,10 @@
     <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="7" max="7" width="22.26953125" customWidth="1"/>
     <col min="9" max="9" width="28.36328125" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -19180,7 +19229,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>382</v>
       </c>
@@ -19207,7 +19256,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>398</v>
       </c>
@@ -19232,7 +19281,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>470</v>
       </c>
@@ -19257,7 +19306,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>478</v>
       </c>
@@ -19282,7 +19331,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>497</v>
       </c>
@@ -19305,6 +19354,29 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>519</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -21895,10 +21967,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22327,13 +22399,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>199</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>515</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>697</v>
       </c>
       <c r="C18" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
@@ -22343,9 +22415,6 @@
       </c>
       <c r="F18" s="1">
         <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>570</v>
@@ -22353,13 +22422,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>222</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>224</v>
+        <v>513</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>694</v>
       </c>
       <c r="C19" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -22379,13 +22448,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2">
-        <v>0.432</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -22394,24 +22463,24 @@
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>524</v>
+      <c r="I20" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2">
-        <v>0.378</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -22429,18 +22498,44 @@
         <v>570</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>116</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.432</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>404</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>406</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2">
-        <v>0.505</v>
+        <v>0.378</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -22451,51 +22546,22 @@
       <c r="G23" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>112</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>571</v>
+      <c r="I23" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>113</v>
+        <v>404</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>406</v>
       </c>
       <c r="C25" s="2">
-        <v>0.45200000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -22507,21 +22573,18 @@
         <v>563</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>437</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>439</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -22530,10 +22593,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>655</v>
+        <v>563</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>571</v>
@@ -22541,13 +22607,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>508</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>690</v>
+        <v>115</v>
       </c>
       <c r="C27" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -22559,24 +22625,24 @@
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>691</v>
+        <v>536</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>257</v>
+        <v>437</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>259</v>
+        <v>439</v>
       </c>
       <c r="C28" s="2">
-        <v>0.5</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -22585,27 +22651,24 @@
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>618</v>
+        <v>655</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>129</v>
+        <v>508</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>690</v>
       </c>
       <c r="C29" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -22617,27 +22680,27 @@
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -22649,24 +22712,53 @@
         <v>563</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>564</v>
+        <v>618</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>129</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>449</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2">
-        <v>0.51100000000000001</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -22678,47 +22770,21 @@
         <v>563</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>297</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>331</v>
+        <v>449</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>333</v>
+        <v>451</v>
       </c>
       <c r="C34" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>3</v>
@@ -22732,22 +22798,25 @@
       <c r="G34" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="H34" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="I34" s="1" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -22758,22 +22827,19 @@
       <c r="G35" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>106</v>
+        <v>331</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2">
-        <v>0.441</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
@@ -22782,27 +22848,53 @@
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>105</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2">
-        <v>0.505</v>
+        <v>0.441</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -22811,56 +22903,27 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>95</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
+        <v>96</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C40" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
@@ -22875,7 +22938,7 @@
         <v>563</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>567</v>
@@ -22883,16 +22946,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -22904,7 +22967,7 @@
         <v>563</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>567</v>
@@ -22912,16 +22975,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2">
-        <v>0.56299999999999994</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -22933,7 +22996,7 @@
         <v>563</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>567</v>
@@ -22941,28 +23004,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2">
-        <v>0.46</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>567</v>
@@ -22970,22 +23033,22 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2">
-        <v>0.438</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>563</v>
@@ -22993,25 +23056,28 @@
       <c r="H44" s="1" t="s">
         <v>564</v>
       </c>
+      <c r="I44" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="C45" s="2">
-        <v>0.48799999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>563</v>
@@ -23025,57 +23091,54 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>501</v>
+        <v>236</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>677</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2">
-        <v>0.42</v>
+        <v>0.438</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>678</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C47" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>567</v>
@@ -23083,39 +23146,42 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>442</v>
+        <v>677</v>
       </c>
       <c r="C48" s="2">
-        <v>0.28399999999999997</v>
+        <v>0.42</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="C49" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
@@ -23124,13 +23190,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>567</v>
@@ -23138,13 +23204,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2">
-        <v>0.41</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>6</v>
@@ -23156,69 +23222,125 @@
         <v>1</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>450</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="H51" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>173</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>208</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C55" s="2">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>603</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27195,20 +27317,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C12CE7-9F4E-4F9F-B2F9-31314437860A}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="48.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30.90625" customWidth="1"/>
-    <col min="8" max="8" width="24.453125" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="48.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="30.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -27346,7 +27471,6 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>513</v>
       </c>
@@ -27373,7 +27497,6 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>513</v>
       </c>
@@ -27400,7 +27523,6 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>542</v>
       </c>
@@ -27427,11 +27549,9 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -27452,7 +27572,6 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>513</v>
       </c>
@@ -27479,7 +27598,6 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>513</v>
       </c>
@@ -27545,72 +27663,67 @@
         <v>605</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>514</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>509</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>692</v>
+        <v>517</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>700</v>
       </c>
       <c r="C15" s="2">
-        <v>0.67100000000000004</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>70</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>693</v>
+        <v>1</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>91</v>
+        <v>509</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>692</v>
       </c>
       <c r="C17" s="2">
-        <v>0.24</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -27618,47 +27731,48 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>513</v>
+        <v>529</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C18" s="2">
-        <v>0.45600000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="J18" s="7" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>491</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>493</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2">
-        <v>0.44800000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -27667,27 +27781,21 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>368</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>370</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -27696,142 +27804,137 @@
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>514</v>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>491</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
+        <v>368</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>413</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24" s="2">
         <v>0.57399999999999995</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>648</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>446</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>322</v>
+        <v>446</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>324</v>
+        <v>448</v>
       </c>
       <c r="C25" s="2">
-        <v>0.34300000000000003</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>631</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J25" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>279</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>494</v>
+        <v>322</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>496</v>
+        <v>324</v>
       </c>
       <c r="C27" s="2">
-        <v>0.46500000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -27840,25 +27943,30 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>631</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>632</v>
       </c>
+      <c r="J27" s="7" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>474</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>476</v>
+        <v>518</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>702</v>
       </c>
       <c r="C28" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.498</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
@@ -27869,26 +27977,48 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>669</v>
+      <c r="J28" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>279</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>84</v>
+        <v>494</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>496</v>
       </c>
       <c r="C30" s="2">
-        <v>0.34</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -27896,183 +28026,172 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>631</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>558</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
+        <v>474</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>84</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>85</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C34" s="2">
         <v>0.36599999999999999</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>221</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C35" s="2">
         <v>0.37</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>118</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C37" s="2">
         <v>0.51</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>119</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C38" s="2">
         <v>0.47799999999999998</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>120</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C39" s="2">
         <v>0.43</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>62</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>63</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.34</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -28090,50 +28209,21 @@
         <v>513</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>174</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C41" s="2">
-        <v>0.29399999999999998</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -28144,11 +28234,144 @@
       <c r="G41" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>64</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>174</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>312</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>516</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D15107-0CCE-496C-83DE-01E1272E5B3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310D4B3C-726A-4826-8360-9CE37563D824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="726">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2180,6 +2182,60 @@
   </si>
   <si>
     <t>isupper, islower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Absolute Difference in BST    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minesweeper    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	58.9%</t>
+  </si>
+  <si>
+    <t>floodfill from the given seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Pick with Weight    </t>
+  </si>
+  <si>
+    <t>mapping each number onto a real line with segment length equal to weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful Arrangement    </t>
+  </si>
+  <si>
+    <t>DFS for combination\permutation\subset\arrangement</t>
+  </si>
+  <si>
+    <t>Contiguous Array</t>
+  </si>
+  <si>
+    <t>hash map to record previous positions with desired properties</t>
+  </si>
+  <si>
+    <t>Longest Word in Dictionary through Deleting</t>
+  </si>
+  <si>
+    <t>sort then check if is subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Continuous Subarray Sum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	24.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Uncommon Subsequence II    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	33.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Uncommon Subsequence I     </t>
+  </si>
+  <si>
+    <t>longer string is the Longest Uncommon Subsequence</t>
   </si>
 </sst>
 </file>
@@ -16548,7 +16604,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19185,10 +19241,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A468B0-3477-4762-B442-853DE39C49C8}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19197,7 +19253,7 @@
     <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="7" max="7" width="22.26953125" customWidth="1"/>
     <col min="9" max="9" width="28.36328125" customWidth="1"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="10" max="10" width="63.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -19306,15 +19362,15 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>478</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.38300000000000001</v>
+        <v>528</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.439</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -19325,10 +19381,8 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>645</v>
+      <c r="J6" s="4" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -19358,24 +19412,49 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
+        <v>478</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>519</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="5">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>705</v>
       </c>
     </row>
@@ -19386,19 +19465,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="44.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" customWidth="1"/>
-    <col min="8" max="8" width="35.90625" customWidth="1"/>
-    <col min="9" max="9" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="44.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="24.90625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.90625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="64.6328125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -20118,7 +20201,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>80</v>
       </c>
@@ -20145,7 +20228,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>53</v>
       </c>
@@ -20174,364 +20257,411 @@
         <v>548</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
+        <v>525</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>523</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>303</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C39" s="2">
         <v>0.43</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>307</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C40" s="2">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>304</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C41" s="2">
         <v>0.371</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>363</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C42" s="2">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>162</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C44" s="2">
         <v>0.42899999999999999</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>238</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.497</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.47599999999999998</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>238</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>407</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C48" s="2">
         <v>0.41099999999999998</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>417</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>456</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
+        <v>417</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>456</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>496</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C52" s="2">
         <v>0.628</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>503</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C53" s="2">
         <v>0.55900000000000005</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
         <v>682</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20941,7 +21071,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21307,10 +21437,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21319,6 +21449,7 @@
     <col min="7" max="7" width="21.453125" customWidth="1"/>
     <col min="8" max="8" width="25.453125" customWidth="1"/>
     <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -21646,158 +21777,113 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>392</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>0.48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
+        <v>524</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="J18" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>521</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>522</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="J20" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C22" s="2">
         <v>0.26400000000000001</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>97</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>115</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.374</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -21818,18 +21904,47 @@
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="C24" s="2">
-        <v>0.28399999999999997</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -21838,24 +21953,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2">
-        <v>0.21199999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -21867,95 +21982,182 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>433</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>435</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2">
-        <v>0.40799999999999997</v>
+        <v>0.374</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>575</v>
+        <v>510</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>127</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>467</v>
+        <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>469</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2">
-        <v>0.35099999999999998</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>575</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
+        <v>433</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>467</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>466</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C34" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
         <v>541</v>
       </c>
     </row>
@@ -21967,10 +22169,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23146,13 +23348,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="C48" s="2">
-        <v>0.42</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
@@ -23166,34 +23368,28 @@
       <c r="H48" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J48" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>230</v>
+        <v>501</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>232</v>
+        <v>677</v>
       </c>
       <c r="C49" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>614</v>
@@ -23201,74 +23397,77 @@
       <c r="I49" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
+        <v>230</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>440</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="2">
         <v>0.28399999999999997</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>450</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C52" s="2">
         <v>0.42299999999999999</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>315</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.41</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -23279,62 +23478,91 @@
       <c r="G52" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="H52" s="1" t="s">
+        <v>564</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>315</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>173</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C55" s="2">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>208</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C56" s="2">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>603</v>
       </c>
     </row>
@@ -23795,23 +24023,27 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263C174-84EF-4027-96FA-B429EB97E27D}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
-    <col min="7" max="7" width="47.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="41" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="47.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48.6328125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -23840,7 +24072,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>463</v>
       </c>
@@ -23862,12 +24094,11 @@
       <c r="G2" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>200</v>
       </c>
@@ -23892,9 +24123,8 @@
       <c r="H3" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>419</v>
       </c>
@@ -23916,47 +24146,42 @@
       <c r="G4" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>529</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>73</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>0.42399999999999999</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>130</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.26</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -23970,19 +24195,19 @@
       <c r="G7" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2">
-        <v>0.52700000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -23996,71 +24221,71 @@
       <c r="G8" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>289</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>0.54700000000000004</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.33300000000000002</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -24074,20 +24299,16 @@
       <c r="G12" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -24101,20 +24322,19 @@
       <c r="G13" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>498</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>500</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2">
-        <v>0.47199999999999998</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -24128,37 +24348,62 @@
       <c r="G14" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>498</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>427</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>652</v>
       </c>
     </row>
@@ -26490,8 +26735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D433E70-0136-4AB1-AD71-269DC180DCBE}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26501,7 +26746,7 @@
     <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="18.6328125" customWidth="1"/>
     <col min="8" max="9" width="28.26953125" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="38.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -26887,7 +27132,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>416</v>
       </c>
@@ -26914,7 +27159,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>473</v>
       </c>
@@ -26941,7 +27186,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>46</v>
       </c>
@@ -26967,8 +27212,9 @@
       <c r="I20" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>47</v>
       </c>
@@ -26994,8 +27240,9 @@
       <c r="I21" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -27023,8 +27270,9 @@
       <c r="I22" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>60</v>
       </c>
@@ -27048,8 +27296,35 @@
       <c r="I23" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>526</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>139</v>
       </c>
@@ -27078,7 +27353,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>140</v>
       </c>
@@ -27107,7 +27382,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>472</v>
       </c>
@@ -27136,7 +27411,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>79</v>
       </c>
@@ -27165,7 +27440,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>212</v>
       </c>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310D4B3C-726A-4826-8360-9CE37563D824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140A029-944F-4AAE-A2D9-5E53CC1E9C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="739">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2236,6 +2236,45 @@
   </si>
   <si>
     <t>longer string is the Longest Uncommon Subsequence</t>
+  </si>
+  <si>
+    <t>K-diff Pairs in an Array</t>
+  </si>
+  <si>
+    <t>hashtable for quick look-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encode and Decode TinyURL    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	79.7%</t>
+  </si>
+  <si>
+    <t>(26+26+10)-based number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex Number Multiplication    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert BST to Greater Tree    </t>
+  </si>
+  <si>
+    <t>right-root-left traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Time Difference    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	51.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Element in a Sorted Array    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	57.9%</t>
+  </si>
+  <si>
+    <t>choose left or right based on even\odd position</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2302,6 +2341,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16603,7 +16646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED9F26F-B0CB-46EA-BD38-DECB5A5C3C2B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -17553,7 +17596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -19465,10 +19508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19484,7 +19527,7 @@
     <col min="11" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -19513,7 +19556,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>189</v>
       </c>
@@ -19540,15 +19583,15 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>485</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.55800000000000005</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>532</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.315</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -19559,15 +19602,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>414</v>
       </c>
@@ -19593,7 +19632,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>215</v>
       </c>
@@ -19622,7 +19661,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>347</v>
       </c>
@@ -19648,7 +19687,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>451</v>
       </c>
@@ -19677,7 +19716,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>268</v>
       </c>
@@ -19706,7 +19745,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>41</v>
       </c>
@@ -19733,7 +19772,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>448</v>
       </c>
@@ -19762,7 +19801,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>128</v>
       </c>
@@ -19786,7 +19825,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>169</v>
       </c>
@@ -19815,7 +19854,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>229</v>
       </c>
@@ -20259,36 +20298,40 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>525</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.42699999999999999</v>
+        <v>485</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.55800000000000005</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>717</v>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>523</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>721</v>
+        <v>525</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.42699999999999999</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -20303,69 +20346,65 @@
         <v>717</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>303</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>625</v>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>523</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2">
-        <v>0.371</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -20374,78 +20413,81 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="C42" s="2">
-        <v>0.36699999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>363</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>162</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C45" s="2">
-        <v>0.59199999999999997</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
@@ -20459,20 +20501,17 @@
       <c r="G45" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="C46" s="2">
-        <v>0.497</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -20481,30 +20520,28 @@
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>516</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>539</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -20516,7 +20553,7 @@
         <v>516</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>539</v>
@@ -20524,13 +20561,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2">
-        <v>0.41099999999999998</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>6</v>
@@ -20542,108 +20579,110 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>516</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="I48" s="1" t="s">
-        <v>647</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
+        <v>407</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>417</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>0.40100000000000002</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>456</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>663</v>
-      </c>
+      <c r="I50" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="C52" s="2">
-        <v>0.628</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>681</v>
+        <v>498</v>
       </c>
       <c r="C53" s="2">
-        <v>0.55900000000000005</v>
+        <v>0.628</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -20652,10 +20691,37 @@
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>527</v>
+        <v>673</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>503</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
         <v>682</v>
       </c>
     </row>
@@ -20667,10 +20733,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73CB96-BAB9-438B-924F-B44AF28705F2}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20764,72 +20830,85 @@
       <c r="I4" s="1" t="s">
         <v>589</v>
       </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <v>539</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>164</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>589</v>
       </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>386</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>537</v>
-      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>179</v>
+        <v>386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>388</v>
       </c>
       <c r="C8" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.502</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -20838,27 +20917,26 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>589</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>537</v>
       </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>373</v>
+        <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -20869,50 +20947,54 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>589</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>334</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>548</v>
-      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>373</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="C12" s="2">
-        <v>0.42199999999999999</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -20921,54 +21003,54 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>624</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>455</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>300</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="C15" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -20979,23 +21061,26 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H15" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="C16" s="2">
-        <v>0.44700000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -21005,59 +21090,83 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>436</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>406</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>354</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>0.35099999999999998</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
         <v>636</v>
       </c>
     </row>
@@ -22169,10 +22278,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23511,58 +23620,81 @@
         <v>567</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>173</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>567</v>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>538</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
+        <v>173</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>208</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C57" s="2">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>603</v>
       </c>
     </row>
@@ -24854,22 +24986,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F7C128-76ED-4017-830C-F3D9418A8595}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="67.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
-    <col min="9" max="9" width="31.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="67.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="4" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="16.08984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="31.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="41.81640625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -24898,7 +25034,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>35</v>
       </c>
@@ -24924,7 +25060,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>34</v>
       </c>
@@ -24950,40 +25086,38 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>540</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>278</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>0.34699999999999998</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>367</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.41099999999999998</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -24998,22 +25132,20 @@
       <c r="H6" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="C7" s="2">
-        <v>0.35299999999999998</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -25023,19 +25155,21 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>512</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C8" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -25048,48 +25182,44 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>275</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>0.28899999999999998</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>410</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.44</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -25107,47 +25237,47 @@
         <v>512</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>410</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>0.34200000000000003</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>81</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -25168,15 +25298,15 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2">
-        <v>0.44500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -25185,9 +25315,11 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>512</v>
       </c>
@@ -25195,24 +25327,24 @@
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
@@ -25222,41 +25354,42 @@
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H18" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>154</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>512</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2">
-        <v>0.42699999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -25265,25 +25398,24 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>378</v>
+        <v>240</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>380</v>
+        <v>242</v>
       </c>
       <c r="C20" s="2">
-        <v>0.53</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -25297,10 +25429,37 @@
       <c r="G20" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>378</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25620,10 +25779,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E69DBD-79A3-4365-85B7-5107A40D5EBC}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25981,51 +26140,47 @@
         <v>554</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>537</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>150</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>554</v>
-      </c>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2">
-        <v>0.36</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>527</v>
@@ -26037,82 +26192,109 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>282</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I21" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>227</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C22" s="2">
-        <v>0.29099999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>510</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
         <v>536</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>306</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>554</v>
       </c>
     </row>
@@ -26123,19 +26305,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F2765C-8293-4C73-BE76-6DA6D9D8C888}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" customWidth="1"/>
-    <col min="9" max="9" width="27.36328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="23.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.36328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -26186,8 +26371,6 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>611</v>
       </c>
@@ -26211,8 +26394,6 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>611</v>
       </c>
@@ -26239,7 +26420,6 @@
       <c r="G4" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
         <v>611</v>
       </c>
@@ -26266,7 +26446,6 @@
       <c r="G6" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>587</v>
       </c>
@@ -26293,7 +26472,6 @@
       <c r="G7" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>611</v>
       </c>
@@ -26320,7 +26498,6 @@
       <c r="G9" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>587</v>
       </c>
@@ -26347,7 +26524,6 @@
       <c r="G10" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>611</v>
       </c>
@@ -26374,7 +26550,6 @@
       <c r="G12" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>611</v>
       </c>
@@ -26398,8 +26573,6 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>611</v>
       </c>
@@ -26423,8 +26596,6 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>611</v>
       </c>
@@ -26448,13 +26619,11 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>341</v>
       </c>
@@ -26476,12 +26645,11 @@
       <c r="G17" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>355</v>
       </c>
@@ -26500,13 +26668,11 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>385</v>
       </c>
@@ -26535,7 +26701,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>211</v>
       </c>
@@ -26557,9 +26723,31 @@
       <c r="G23" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>535</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -26575,7 +26763,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/P0000.xlsx
+++ b/P0000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140A029-944F-4AAE-A2D9-5E53CC1E9C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2424CE9C-08B4-4FD8-AD98-7853B1E13DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="882" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="751">
   <si>
     <t>Two Sum    </t>
   </si>
@@ -2275,6 +2275,42 @@
   </si>
   <si>
     <t>choose left or right based on even\odd position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse String II    </t>
+  </si>
+  <si>
+    <t>reverse by groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 Matrix   </t>
+  </si>
+  <si>
+    <t>BFS from seeds</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum. Compare within, return max out</t>
+  </si>
+  <si>
+    <t>Remove Boxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	42.6%</t>
+  </si>
+  <si>
+    <t>3D DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friend Circles    </t>
+  </si>
+  <si>
+    <t>DFS for connected subgraph</t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I502"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A23" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15896,10 +15932,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95B9C58-A9AC-4325-8FCE-AF254A3B7B15}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15909,9 +15945,10 @@
     <col min="4" max="4" width="14.36328125" customWidth="1"/>
     <col min="7" max="7" width="22.90625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -15940,7 +15977,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>138</v>
       </c>
@@ -15967,7 +16004,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>133</v>
       </c>
@@ -15996,7 +16033,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>399</v>
       </c>
@@ -16023,7 +16060,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>207</v>
       </c>
@@ -16052,7 +16089,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>210</v>
       </c>
@@ -16081,7 +16118,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>310</v>
       </c>
@@ -16108,6 +16145,29 @@
       </c>
       <c r="I9" s="1" t="s">
         <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>547</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -17596,8 +17656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B857CDD-03C0-4D1E-9EB2-06A6F7F512F6}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19510,8 +19570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F7456A-391E-4470-936B-899C420F5B4C}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20736,7 +20796,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21177,10 +21237,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854757BE-62E4-43E7-B18C-E2D6512E00CC}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21222,42 +21282,96 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>434</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C2" s="2">
         <v>0.375</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>58</v>
+        <v>459</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="C6" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -21271,20 +21385,22 @@
       <c r="G6" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20100000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -21296,22 +21412,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>537</v>
-      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C9" s="2">
-        <v>0.41899999999999998</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -21325,22 +21439,20 @@
       <c r="G9" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>606</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>537</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>187</v>
+        <v>394</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>396</v>
       </c>
       <c r="C10" s="2">
-        <v>0.38200000000000001</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -21352,23 +21464,23 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>520</v>
+        <v>642</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="C12" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -21377,22 +21489,20 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>510</v>
+        <v>642</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>657</v>
-      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>394</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>396</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2">
-        <v>0.48699999999999999</v>
+        <v>0.317</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -21404,23 +21514,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>642</v>
+        <v>527</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
-        <v>0.41299999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -21429,20 +21538,22 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>642</v>
+        <v>527</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>0.317</v>
+        <v>0.61</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -21453,89 +21564,38 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>523</v>
       </c>
     </row>
@@ -21548,7 +21608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5904E4-CB63-4F48-BB0B-9FCF2CB8846C}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -22278,10 +22338,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A56A055-866F-4740-8FE8-B873A43C8963}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22297,7 +22357,7 @@
     <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>503</v>
       </c>
@@ -22326,7 +22386,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -22352,7 +22412,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>226</v>
       </c>
@@ -22378,7 +22438,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>104</v>
       </c>
@@ -22404,7 +22464,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>111</v>
       </c>
@@ -22430,128 +22490,125 @@
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>543</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>110</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>0.42899999999999999</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>114</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>94</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>0.61799999999999999</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>144</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -22566,47 +22623,44 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>145</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>102</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>107</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.50800000000000001</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -22624,18 +22678,18 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>429</v>
+        <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>431</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2">
-        <v>0.63500000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -22644,24 +22698,24 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>568</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>103</v>
+        <v>429</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>431</v>
       </c>
       <c r="C16" s="2">
-        <v>0.46</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -22673,27 +22727,27 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>563</v>
+        <v>653</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>568</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>565</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2">
-        <v>0.46100000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -22704,28 +22758,34 @@
       <c r="G17" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="H17" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>515</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>697</v>
+        <v>101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C18" s="2">
-        <v>0.60899999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>570</v>
@@ -22733,13 +22793,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C19" s="2">
-        <v>0.61199999999999999</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
@@ -22749,9 +22809,6 @@
       </c>
       <c r="F19" s="1">
         <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>570</v>
@@ -22759,13 +22816,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>199</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>201</v>
+        <v>513</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>694</v>
       </c>
       <c r="C20" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -22785,13 +22842,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
@@ -22811,13 +22868,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2">
-        <v>0.432</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
@@ -22826,24 +22883,24 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>524</v>
+      <c r="I22" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="2">
-        <v>0.378</v>
+        <v>0.432</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
@@ -22852,50 +22909,50 @@
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>117</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.378</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>404</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.505</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>112</v>
+        <v>404</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>406</v>
       </c>
       <c r="C26" s="2">
-        <v>0.40400000000000003</v>
+        <v>0.505</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -22910,24 +22967,21 @@
         <v>563</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>571</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="2">
-        <v>0.45200000000000001</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -22947,25 +23001,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>439</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>655</v>
+        <v>563</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>571</v>
@@ -22973,45 +23030,42 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>508</v>
+        <v>437</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>690</v>
+        <v>439</v>
       </c>
       <c r="C29" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>691</v>
+        <v>655</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>257</v>
+        <v>508</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>259</v>
+        <v>690</v>
       </c>
       <c r="C30" s="2">
-        <v>0.5</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -23020,27 +23074,27 @@
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -23052,24 +23106,24 @@
         <v>563</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>536</v>
+        <v>618</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -23081,53 +23135,56 @@
         <v>563</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>449</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>124</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>661</v>
+      <c r="H33" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>297</v>
+        <v>449</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>299</v>
+        <v>451</v>
       </c>
       <c r="C35" s="2">
-        <v>0.46100000000000002</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -23138,22 +23195,25 @@
       <c r="G35" s="1" t="s">
         <v>563</v>
       </c>
+      <c r="H35" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -23170,13 +23230,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -23190,22 +23250,19 @@
       <c r="G37" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="I37" s="1" t="s">
-        <v>565</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2">
-        <v>0.441</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
@@ -23214,7 +23271,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>563</v>
@@ -23226,44 +23283,44 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>96</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.505</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>567</v>
+      <c r="H39" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2">
-        <v>0.39300000000000002</v>
+        <v>0.505</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -23272,13 +23329,13 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>566</v>
+        <v>513</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>567</v>
@@ -23286,13 +23343,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2">
-        <v>0.27400000000000002</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -23301,13 +23358,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>567</v>
@@ -23315,28 +23372,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>567</v>
@@ -23344,28 +23401,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2">
-        <v>0.56299999999999994</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>563</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>567</v>
@@ -23373,16 +23430,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45" s="2">
-        <v>0.46</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -23402,13 +23459,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2">
-        <v>0.438</v>
+        <v>0.46</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -23417,7 +23474,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>563</v>
@@ -23425,19 +23482,22 @@
       <c r="H46" s="1" t="s">
         <v>564</v>
       </c>
+      <c r="I46" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C47" s="2">
-        <v>0.48799999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -23451,19 +23511,16 @@
       <c r="H47" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>530</v>
+        <v>235</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>708</v>
+        <v>237</v>
       </c>
       <c r="C48" s="2">
-        <v>0.53600000000000003</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
@@ -23472,24 +23529,27 @@
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>678</v>
+        <v>564</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="C49" s="2">
-        <v>0.42</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
@@ -23503,34 +23563,28 @@
       <c r="H49" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="J49" s="1" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>230</v>
+        <v>501</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>232</v>
+        <v>677</v>
       </c>
       <c r="C50" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.42</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>614</v>
@@ -23538,45 +23592,51 @@
       <c r="I50" s="1" t="s">
         <v>567</v>
       </c>
+      <c r="J50" s="1" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>440</v>
+        <v>230</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>442</v>
+        <v>232</v>
       </c>
       <c r="C51" s="2">
-        <v>0.28399999999999997</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>656</v>
+        <v>563</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C52" s="2">
-        <v>0.42299999999999999</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -23585,27 +23645,24 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>563</v>
+        <v>656</v>
       </c>
       <c r="H52" s="1" t